--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R233"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="K103" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L103" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M103" t="n">
-        <v>16857</v>
+        <v>12448</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>562</v>
+        <v>249</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L104" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M104" t="n">
-        <v>15413</v>
+        <v>11133</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="Q104" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="K105" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L105" t="n">
         <v>14000</v>
       </c>
-      <c r="L105" t="n">
-        <v>15000</v>
-      </c>
       <c r="M105" t="n">
-        <v>14605</v>
+        <v>13469</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>209</v>
+        <v>13469</v>
       </c>
       <c r="Q105" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K106" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L106" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M106" t="n">
-        <v>15920</v>
+        <v>12438</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>15920</v>
+        <v>415</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,24 +8057,24 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>810</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L107" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>15568</v>
+        <v>11575</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>519</v>
+        <v>289</v>
       </c>
       <c r="Q107" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="K108" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>14448</v>
+        <v>11410</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="Q108" t="n">
         <v>40</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,24 +8201,24 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="K109" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L109" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M109" t="n">
-        <v>15000</v>
+        <v>16857</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>15000</v>
+        <v>562</v>
       </c>
       <c r="Q109" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K110" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M110" t="n">
-        <v>12000</v>
+        <v>15413</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="Q110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="K111" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L111" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M111" t="n">
-        <v>10000</v>
+        <v>14605</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="Q111" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K112" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L112" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M112" t="n">
-        <v>14000</v>
+        <v>15920</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>350</v>
+        <v>15920</v>
       </c>
       <c r="Q112" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>260</v>
+        <v>810</v>
       </c>
       <c r="K113" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L113" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M113" t="n">
-        <v>12000</v>
+        <v>15568</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>240</v>
+        <v>519</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44295</v>
+        <v>44377</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,11 +8561,11 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="K114" t="n">
         <v>14000</v>
@@ -8574,11 +8574,11 @@
         <v>15000</v>
       </c>
       <c r="M114" t="n">
-        <v>14412</v>
+        <v>14448</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,24 +8633,24 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="K115" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L115" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M115" t="n">
-        <v>11373</v>
+        <v>15000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>284</v>
+        <v>15000</v>
       </c>
       <c r="Q115" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K116" t="n">
         <v>12000</v>
       </c>
       <c r="L116" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M116" t="n">
-        <v>13150</v>
+        <v>12000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="Q116" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="K117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L117" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M117" t="n">
-        <v>12821</v>
+        <v>10000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="Q117" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,29 +8844,29 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="K118" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>15398</v>
+        <v>14000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>15398</v>
+        <v>350</v>
       </c>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>620</v>
+        <v>260</v>
       </c>
       <c r="K119" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L119" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M119" t="n">
-        <v>15581</v>
+        <v>12000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="Q119" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,11 +8993,11 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K120" t="n">
         <v>14000</v>
@@ -9006,11 +9006,11 @@
         <v>15000</v>
       </c>
       <c r="M120" t="n">
-        <v>14545</v>
+        <v>14412</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="Q120" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>610</v>
+        <v>102</v>
       </c>
       <c r="K121" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L121" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M121" t="n">
-        <v>14590</v>
+        <v>11373</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="Q121" t="n">
         <v>40</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K122" t="n">
         <v>12000</v>
       </c>
       <c r="L122" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>12552</v>
+        <v>13150</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="Q122" t="n">
         <v>50</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,29 +9204,29 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1100</v>
+        <v>390</v>
       </c>
       <c r="K123" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M123" t="n">
-        <v>15409</v>
+        <v>12821</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>514</v>
+        <v>183</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>620</v>
+        <v>1080</v>
       </c>
       <c r="K124" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M124" t="n">
-        <v>13581</v>
+        <v>15398</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>340</v>
+        <v>15398</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K125" t="n">
         <v>15000</v>
@@ -9366,11 +9366,11 @@
         <v>16000</v>
       </c>
       <c r="M125" t="n">
-        <v>15425</v>
+        <v>15581</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>308</v>
+        <v>519</v>
       </c>
       <c r="Q125" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,24 +9425,24 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="K126" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L126" t="n">
         <v>15000</v>
       </c>
-      <c r="L126" t="n">
-        <v>16000</v>
-      </c>
       <c r="M126" t="n">
-        <v>15448</v>
+        <v>14545</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>15448</v>
+        <v>364</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="K127" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L127" t="n">
         <v>15000</v>
       </c>
-      <c r="L127" t="n">
-        <v>16000</v>
-      </c>
       <c r="M127" t="n">
-        <v>15407</v>
+        <v>14590</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>514</v>
+        <v>365</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="K128" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L128" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M128" t="n">
-        <v>11547</v>
+        <v>12552</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="Q128" t="n">
         <v>50</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9636,29 +9636,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L129" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>9575</v>
+        <v>15409</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>137</v>
+        <v>514</v>
       </c>
       <c r="Q129" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,24 +9713,24 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1070</v>
+        <v>620</v>
       </c>
       <c r="K130" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>12607</v>
+        <v>13581</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>12607</v>
+        <v>340</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9780,29 +9780,29 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L131" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M131" t="n">
-        <v>9575</v>
+        <v>15425</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="Q131" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K132" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L132" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M132" t="n">
-        <v>10850</v>
+        <v>15448</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>362</v>
+        <v>15448</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,20 +9933,20 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K133" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L133" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M133" t="n">
-        <v>10425</v>
+        <v>15407</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>261</v>
+        <v>514</v>
       </c>
       <c r="Q133" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M134" t="n">
-        <v>14575</v>
+        <v>11547</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>486</v>
+        <v>231</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K135" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L135" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M135" t="n">
-        <v>11583</v>
+        <v>9575</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="Q135" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44274</v>
+        <v>44412</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>120</v>
+        <v>1070</v>
       </c>
       <c r="K136" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L136" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M136" t="n">
-        <v>16833</v>
+        <v>12607</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>561</v>
+        <v>12607</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K137" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L137" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M137" t="n">
-        <v>16439</v>
+        <v>9575</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>548</v>
+        <v>239</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,29 +10284,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L138" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M138" t="n">
-        <v>13605</v>
+        <v>10850</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="Q138" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L139" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M139" t="n">
-        <v>17590</v>
+        <v>10425</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44364</v>
+        <v>44300</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M140" t="n">
-        <v>16565</v>
+        <v>14575</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>237</v>
+        <v>486</v>
       </c>
       <c r="Q140" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44364</v>
+        <v>44300</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,24 +10505,24 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K141" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L141" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M141" t="n">
-        <v>19593</v>
+        <v>11583</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>19593</v>
+        <v>290</v>
       </c>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>590</v>
+        <v>120</v>
       </c>
       <c r="K142" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L142" t="n">
         <v>18000</v>
       </c>
-      <c r="L142" t="n">
-        <v>19000</v>
-      </c>
       <c r="M142" t="n">
-        <v>18542</v>
+        <v>16833</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,24 +10649,24 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K143" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L143" t="n">
         <v>17000</v>
       </c>
-      <c r="L143" t="n">
-        <v>18000</v>
-      </c>
       <c r="M143" t="n">
-        <v>17425</v>
+        <v>16439</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="Q143" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>780</v>
+        <v>430</v>
       </c>
       <c r="K144" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M144" t="n">
-        <v>10923</v>
+        <v>13605</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="Q144" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,24 +10793,24 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K145" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L145" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M145" t="n">
-        <v>10850</v>
+        <v>17590</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>155</v>
+        <v>352</v>
       </c>
       <c r="Q145" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="K146" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L146" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M146" t="n">
-        <v>13552</v>
+        <v>16565</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>13552</v>
+        <v>237</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K147" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M147" t="n">
-        <v>12575</v>
+        <v>19593</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>419</v>
+        <v>19593</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="K148" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L148" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M148" t="n">
-        <v>13425</v>
+        <v>18542</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>268</v>
+        <v>618</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,24 +11081,24 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K149" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L149" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M149" t="n">
-        <v>15348</v>
+        <v>17425</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11148,29 +11148,29 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="K150" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L150" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M150" t="n">
-        <v>13460</v>
+        <v>10923</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K151" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L151" t="n">
         <v>12000</v>
       </c>
-      <c r="L151" t="n">
-        <v>13000</v>
-      </c>
       <c r="M151" t="n">
-        <v>12657</v>
+        <v>10850</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="K152" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M152" t="n">
-        <v>15561</v>
+        <v>13552</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>519</v>
+        <v>13552</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>400</v>
       </c>
       <c r="K153" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L153" t="n">
         <v>13000</v>
       </c>
-      <c r="L153" t="n">
-        <v>14000</v>
-      </c>
       <c r="M153" t="n">
-        <v>13425</v>
+        <v>12575</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="Q153" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
         <v>13000</v>
@@ -11454,7 +11454,7 @@
         <v>14000</v>
       </c>
       <c r="M154" t="n">
-        <v>13429</v>
+        <v>13425</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q154" t="n">
         <v>50</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>280</v>
+        <v>660</v>
       </c>
       <c r="K155" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L155" t="n">
         <v>16000</v>
       </c>
-      <c r="L155" t="n">
-        <v>17000</v>
-      </c>
       <c r="M155" t="n">
-        <v>16571</v>
+        <v>15348</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="Q155" t="n">
         <v>30</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>196</v>
+        <v>500</v>
       </c>
       <c r="K156" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L156" t="n">
         <v>14000</v>
       </c>
-      <c r="L156" t="n">
-        <v>15000</v>
-      </c>
       <c r="M156" t="n">
-        <v>14867</v>
+        <v>13460</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="Q156" t="n">
         <v>40</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K157" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L157" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>14000</v>
+        <v>12657</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,29 +11724,29 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="K158" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L158" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M158" t="n">
-        <v>12000</v>
+        <v>15561</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>171</v>
+        <v>519</v>
       </c>
       <c r="Q158" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K159" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L159" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>15000</v>
+        <v>13425</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>15000</v>
+        <v>336</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,20 +11877,20 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K160" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L160" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M160" t="n">
-        <v>15000</v>
+        <v>13429</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>500</v>
+        <v>269</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,24 +11945,24 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K161" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M161" t="n">
-        <v>14000</v>
+        <v>16571</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="Q161" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>460</v>
+        <v>196</v>
       </c>
       <c r="K162" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L162" t="n">
         <v>15000</v>
       </c>
       <c r="M162" t="n">
-        <v>15000</v>
+        <v>14867</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q162" t="n">
         <v>40</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,29 +12084,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K163" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L163" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M163" t="n">
-        <v>19172</v>
+        <v>14000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>19172</v>
+        <v>280</v>
       </c>
       <c r="Q163" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12156,29 +12156,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>630</v>
+        <v>180</v>
       </c>
       <c r="K164" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L164" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M164" t="n">
-        <v>16825</v>
+        <v>12000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>561</v>
+        <v>171</v>
       </c>
       <c r="Q164" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K165" t="n">
         <v>15000</v>
       </c>
       <c r="L165" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M165" t="n">
-        <v>15425</v>
+        <v>15000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>386</v>
+        <v>15000</v>
       </c>
       <c r="Q165" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,20 +12309,20 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>630</v>
+        <v>230</v>
       </c>
       <c r="K166" t="n">
         <v>15000</v>
       </c>
       <c r="L166" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>15413</v>
+        <v>15000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="Q166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,24 +12377,24 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="K167" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L167" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M167" t="n">
-        <v>17548</v>
+        <v>14000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>17548</v>
+        <v>350</v>
       </c>
       <c r="Q167" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,20 +12453,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="K168" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L168" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M168" t="n">
-        <v>16531</v>
+        <v>15000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>551</v>
+        <v>375</v>
       </c>
       <c r="Q168" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="K169" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L169" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M169" t="n">
-        <v>14148</v>
+        <v>19172</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>354</v>
+        <v>19172</v>
       </c>
       <c r="Q169" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,20 +12597,20 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L170" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M170" t="n">
-        <v>14552</v>
+        <v>16825</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>364</v>
+        <v>561</v>
       </c>
       <c r="Q170" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,29 +12660,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K171" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L171" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M171" t="n">
-        <v>13444</v>
+        <v>15425</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,20 +12741,20 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>380</v>
+        <v>630</v>
       </c>
       <c r="K172" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L172" t="n">
         <v>16000</v>
       </c>
-      <c r="L172" t="n">
-        <v>17000</v>
-      </c>
       <c r="M172" t="n">
-        <v>16474</v>
+        <v>15413</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>549</v>
+        <v>308</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="K173" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L173" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M173" t="n">
-        <v>14600</v>
+        <v>17548</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>365</v>
+        <v>17548</v>
       </c>
       <c r="Q173" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,20 +12885,20 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="K174" t="n">
         <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>17095</v>
+        <v>16531</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>342</v>
+        <v>551</v>
       </c>
       <c r="Q174" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,20 +12957,20 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>370</v>
+        <v>610</v>
       </c>
       <c r="K175" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L175" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M175" t="n">
-        <v>16622</v>
+        <v>14148</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="Q175" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13020,29 +13020,29 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K176" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L176" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M176" t="n">
-        <v>18548</v>
+        <v>14552</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>18548</v>
+        <v>364</v>
       </c>
       <c r="Q176" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13092,29 +13092,29 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="K177" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L177" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M177" t="n">
-        <v>17103</v>
+        <v>13444</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>570</v>
+        <v>269</v>
       </c>
       <c r="Q177" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,24 +13169,24 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="K178" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L178" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M178" t="n">
-        <v>15552</v>
+        <v>16474</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>389</v>
+        <v>549</v>
       </c>
       <c r="Q178" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,25 +13236,25 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="K179" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L179" t="n">
         <v>15000</v>
       </c>
-      <c r="L179" t="n">
-        <v>16000</v>
-      </c>
       <c r="M179" t="n">
-        <v>15548</v>
+        <v>14600</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="Q179" t="n">
         <v>40</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13308,29 +13308,29 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K180" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L180" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M180" t="n">
-        <v>14444</v>
+        <v>17095</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>14444</v>
+        <v>342</v>
       </c>
       <c r="Q180" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13380,29 +13380,29 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>850</v>
+        <v>370</v>
       </c>
       <c r="K181" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L181" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M181" t="n">
-        <v>11106</v>
+        <v>16622</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="Q181" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="K182" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L182" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M182" t="n">
-        <v>8000</v>
+        <v>18548</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>200</v>
+        <v>18548</v>
       </c>
       <c r="Q182" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,25 +13524,25 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="K183" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L183" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M183" t="n">
-        <v>13556</v>
+        <v>17103</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>452</v>
+        <v>570</v>
       </c>
       <c r="Q183" t="n">
         <v>30</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,25 +13596,25 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>910</v>
+        <v>290</v>
       </c>
       <c r="K184" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L184" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M184" t="n">
-        <v>10484</v>
+        <v>15552</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="Q184" t="n">
         <v>40</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,24 +13673,24 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="K185" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L185" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M185" t="n">
-        <v>8000</v>
+        <v>15548</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="Q185" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,36 +13745,36 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="K186" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L186" t="n">
         <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>15000</v>
+        <v>14444</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>500</v>
+        <v>14444</v>
       </c>
       <c r="Q186" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="K187" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L187" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M187" t="n">
-        <v>18448</v>
+        <v>11106</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q187" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,20 +13893,20 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K188" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L188" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M188" t="n">
-        <v>16567</v>
+        <v>8000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q188" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,20 +13965,20 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K189" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L189" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M189" t="n">
-        <v>18575</v>
+        <v>13556</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>18575</v>
+        <v>452</v>
       </c>
       <c r="Q189" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,20 +14037,20 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>400</v>
+        <v>910</v>
       </c>
       <c r="K190" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M190" t="n">
-        <v>17425</v>
+        <v>10484</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>581</v>
+        <v>262</v>
       </c>
       <c r="Q190" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="K191" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L191" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M191" t="n">
-        <v>17448</v>
+        <v>8000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>436</v>
+        <v>160</v>
       </c>
       <c r="Q191" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44309</v>
+        <v>44292</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,32 +14181,32 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K192" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L192" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M192" t="n">
-        <v>12575</v>
+        <v>15000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>252</v>
+        <v>500</v>
       </c>
       <c r="Q192" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,20 +14253,20 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K193" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L193" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M193" t="n">
-        <v>14425</v>
+        <v>18448</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>481</v>
+        <v>369</v>
       </c>
       <c r="Q193" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,20 +14325,20 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K194" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L194" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M194" t="n">
-        <v>12575</v>
+        <v>16567</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="Q194" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,29 +14388,29 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K195" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L195" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M195" t="n">
-        <v>14164</v>
+        <v>18575</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>283</v>
+        <v>18575</v>
       </c>
       <c r="Q195" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,11 +14465,11 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="K196" t="n">
         <v>17000</v>
@@ -14478,11 +14478,11 @@
         <v>18000</v>
       </c>
       <c r="M196" t="n">
-        <v>17459</v>
+        <v>17425</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>17459</v>
+        <v>581</v>
       </c>
       <c r="Q196" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,24 +14537,24 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="K197" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L197" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M197" t="n">
-        <v>16538</v>
+        <v>17448</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>551</v>
+        <v>436</v>
       </c>
       <c r="Q197" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,20 +14613,20 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K198" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L198" t="n">
         <v>13000</v>
       </c>
-      <c r="L198" t="n">
-        <v>15000</v>
-      </c>
       <c r="M198" t="n">
-        <v>13762</v>
+        <v>12575</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="Q198" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44281</v>
+        <v>44309</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M199" t="n">
-        <v>11143</v>
+        <v>14425</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="Q199" t="n">
         <v>30</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L200" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M200" t="n">
-        <v>15400</v>
+        <v>12575</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>513</v>
+        <v>314</v>
       </c>
       <c r="Q200" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44301</v>
+        <v>44344</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,29 +14820,29 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K201" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L201" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M201" t="n">
-        <v>11333</v>
+        <v>14164</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14854,7 +14854,7 @@
         <v>283</v>
       </c>
       <c r="Q201" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44370</v>
+        <v>44344</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,16 +14892,16 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="K202" t="n">
         <v>17000</v>
@@ -14910,11 +14910,11 @@
         <v>18000</v>
       </c>
       <c r="M202" t="n">
-        <v>17425</v>
+        <v>17459</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>348</v>
+        <v>17459</v>
       </c>
       <c r="Q202" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44370</v>
+        <v>44344</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="K203" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M203" t="n">
-        <v>18552</v>
+        <v>16538</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>18552</v>
+        <v>551</v>
       </c>
       <c r="Q203" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44370</v>
+        <v>44344</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="K204" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L204" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M204" t="n">
-        <v>16489</v>
+        <v>13762</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>550</v>
+        <v>344</v>
       </c>
       <c r="Q204" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44370</v>
+        <v>44281</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15108,29 +15108,29 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K205" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L205" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M205" t="n">
-        <v>17552</v>
+        <v>11143</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="Q205" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,20 +15189,20 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K206" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L206" t="n">
         <v>16000</v>
       </c>
-      <c r="L206" t="n">
-        <v>17000</v>
-      </c>
       <c r="M206" t="n">
-        <v>16417</v>
+        <v>15400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>328</v>
+        <v>513</v>
       </c>
       <c r="Q206" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,24 +15257,24 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K207" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L207" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M207" t="n">
-        <v>17375</v>
+        <v>11333</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>17375</v>
+        <v>283</v>
       </c>
       <c r="Q207" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,20 +15333,20 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L208" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M208" t="n">
-        <v>15423</v>
+        <v>17425</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>514</v>
+        <v>348</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>235</v>
+        <v>580</v>
       </c>
       <c r="K209" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L209" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M209" t="n">
-        <v>15000</v>
+        <v>18552</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>15000</v>
+        <v>18552</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15480,13 +15480,13 @@
         <v>470</v>
       </c>
       <c r="K210" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L210" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M210" t="n">
-        <v>12000</v>
+        <v>16489</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q210" t="n">
         <v>30</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="K211" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L211" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M211" t="n">
-        <v>8000</v>
+        <v>17552</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>200</v>
+        <v>439</v>
       </c>
       <c r="Q211" t="n">
         <v>40</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,20 +15621,20 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>930</v>
+        <v>120</v>
       </c>
       <c r="K212" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L212" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M212" t="n">
-        <v>14484</v>
+        <v>16417</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="Q212" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,29 +15684,29 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K213" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L213" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M213" t="n">
-        <v>12000</v>
+        <v>17375</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>240</v>
+        <v>17375</v>
       </c>
       <c r="Q213" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,20 +15765,20 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="K214" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L214" t="n">
         <v>16000</v>
       </c>
-      <c r="L214" t="n">
-        <v>17000</v>
-      </c>
       <c r="M214" t="n">
-        <v>16448</v>
+        <v>15423</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>329</v>
+        <v>514</v>
       </c>
       <c r="Q214" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>430</v>
+        <v>235</v>
       </c>
       <c r="K215" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L215" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M215" t="n">
-        <v>18884</v>
+        <v>15000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>18884</v>
+        <v>15000</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="K216" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L216" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M216" t="n">
-        <v>17548</v>
+        <v>12000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>585</v>
+        <v>400</v>
       </c>
       <c r="Q216" t="n">
         <v>30</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="K217" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L217" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M217" t="n">
-        <v>15404</v>
+        <v>8000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="Q217" t="n">
         <v>40</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>290</v>
+        <v>930</v>
       </c>
       <c r="K218" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L218" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M218" t="n">
-        <v>16586</v>
+        <v>14484</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="Q218" t="n">
         <v>40</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,29 +16116,29 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="K219" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L219" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M219" t="n">
-        <v>15400</v>
+        <v>12000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>513</v>
+        <v>240</v>
       </c>
       <c r="Q219" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16188,29 +16188,29 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="K220" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L220" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M220" t="n">
-        <v>13417</v>
+        <v>16448</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q220" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16260,29 +16260,29 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="K221" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L221" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M221" t="n">
-        <v>14404</v>
+        <v>18884</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>360</v>
+        <v>18884</v>
       </c>
       <c r="Q221" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,11 +16337,11 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="K222" t="n">
         <v>17000</v>
@@ -16350,11 +16350,11 @@
         <v>18000</v>
       </c>
       <c r="M222" t="n">
-        <v>17525</v>
+        <v>17548</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>17525</v>
+        <v>585</v>
       </c>
       <c r="Q222" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16409,11 +16409,11 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K223" t="n">
         <v>15000</v>
@@ -16422,11 +16422,11 @@
         <v>16000</v>
       </c>
       <c r="M223" t="n">
-        <v>15552</v>
+        <v>15404</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>518</v>
+        <v>385</v>
       </c>
       <c r="Q223" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16476,25 +16476,25 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K224" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L224" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>13575</v>
+        <v>16586</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="Q224" t="n">
         <v>40</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L225" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M225" t="n">
-        <v>13478</v>
+        <v>15400</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>337</v>
+        <v>513</v>
       </c>
       <c r="Q225" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,29 +16620,29 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K226" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L226" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M226" t="n">
-        <v>17460</v>
+        <v>13417</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Q226" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,24 +16697,24 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K227" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L227" t="n">
         <v>15000</v>
       </c>
-      <c r="L227" t="n">
-        <v>16000</v>
-      </c>
       <c r="M227" t="n">
-        <v>15575</v>
+        <v>14404</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="Q227" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K228" t="n">
         <v>17000</v>
@@ -16782,11 +16782,11 @@
         <v>18000</v>
       </c>
       <c r="M228" t="n">
-        <v>17552</v>
+        <v>17525</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>585</v>
+        <v>17525</v>
       </c>
       <c r="Q228" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="K229" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L229" t="n">
         <v>16000</v>
       </c>
-      <c r="L229" t="n">
-        <v>17000</v>
-      </c>
       <c r="M229" t="n">
-        <v>16429</v>
+        <v>15552</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="Q229" t="n">
         <v>30</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16920,13 +16920,13 @@
         <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L230" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M230" t="n">
-        <v>16425</v>
+        <v>13575</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="Q230" t="n">
         <v>40</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K231" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L231" t="n">
         <v>14000</v>
       </c>
-      <c r="L231" t="n">
-        <v>15000</v>
-      </c>
       <c r="M231" t="n">
-        <v>14575</v>
+        <v>13478</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="Q231" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17064,17 +17064,17 @@
         <v>500</v>
       </c>
       <c r="K232" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L232" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M232" t="n">
-        <v>16520</v>
+        <v>17460</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="Q232" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,58 +17109,490 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13</v>
+      </c>
+      <c r="F233" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>400</v>
+      </c>
+      <c r="K233" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L233" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M233" t="n">
+        <v>15575</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>$/caja 70 unidades</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>70</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>6</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13</v>
+      </c>
+      <c r="F234" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>580</v>
+      </c>
+      <c r="K234" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L234" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M234" t="n">
+        <v>17552</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>30</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>6</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F235" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>280</v>
+      </c>
+      <c r="K235" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L235" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M235" t="n">
+        <v>16429</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>548</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>30</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>6</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E236" t="n">
+        <v>13</v>
+      </c>
+      <c r="F236" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>400</v>
+      </c>
+      <c r="K236" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L236" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M236" t="n">
+        <v>16425</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>411</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>40</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>6</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
         <v>44334</v>
       </c>
-      <c r="E233" t="n">
-        <v>13</v>
-      </c>
-      <c r="F233" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="E237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F237" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>400</v>
+      </c>
+      <c r="K237" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L237" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M237" t="n">
+        <v>14575</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>50</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>6</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13</v>
+      </c>
+      <c r="F238" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>500</v>
+      </c>
+      <c r="K238" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L238" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M238" t="n">
+        <v>16520</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>551</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>30</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>6</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13</v>
+      </c>
+      <c r="F239" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J233" t="n">
+      <c r="J239" t="n">
         <v>360</v>
       </c>
-      <c r="K233" t="n">
+      <c r="K239" t="n">
         <v>14000</v>
       </c>
-      <c r="L233" t="n">
+      <c r="L239" t="n">
         <v>15000</v>
       </c>
-      <c r="M233" t="n">
+      <c r="M239" t="n">
         <v>14472</v>
       </c>
-      <c r="N233" t="inlineStr">
+      <c r="N239" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
         <v>362</v>
       </c>
-      <c r="Q233" t="n">
+      <c r="Q239" t="n">
         <v>40</v>
       </c>
-      <c r="R233" t="inlineStr">
+      <c r="R239" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R239"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K60" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M60" t="n">
-        <v>16448</v>
+        <v>12425</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="Q60" t="n">
         <v>50</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4740,29 +4740,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L61" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M61" t="n">
-        <v>17452</v>
+        <v>10850</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>17452</v>
+        <v>155</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,24 +4817,24 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K62" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L62" t="n">
         <v>15000</v>
       </c>
-      <c r="L62" t="n">
-        <v>16000</v>
-      </c>
       <c r="M62" t="n">
-        <v>15575</v>
+        <v>14552</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>519</v>
+        <v>14552</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K63" t="n">
         <v>14000</v>
@@ -4902,7 +4902,7 @@
         <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>14425</v>
+        <v>14372</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q63" t="n">
         <v>30</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4956,29 +4956,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L64" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M64" t="n">
-        <v>13556</v>
+        <v>16448</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="K65" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L65" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M65" t="n">
-        <v>15552</v>
+        <v>17452</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>311</v>
+        <v>17452</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5105,24 +5105,24 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>590</v>
+        <v>400</v>
       </c>
       <c r="K66" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L66" t="n">
         <v>16000</v>
       </c>
-      <c r="L66" t="n">
-        <v>18000</v>
-      </c>
       <c r="M66" t="n">
-        <v>16915</v>
+        <v>15575</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>16915</v>
+        <v>519</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>16540</v>
+        <v>14425</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="K68" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L68" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M68" t="n">
-        <v>15540</v>
+        <v>13556</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="Q68" t="n">
         <v>40</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K69" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L69" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M69" t="n">
-        <v>14460</v>
+        <v>15552</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="Q69" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5393,24 +5393,24 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="K70" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L70" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>12531</v>
+        <v>16915</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>418</v>
+        <v>16915</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5465,24 +5465,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L71" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M71" t="n">
-        <v>10000</v>
+        <v>16540</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>250</v>
+        <v>551</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M72" t="n">
-        <v>13000</v>
+        <v>15540</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="Q72" t="n">
         <v>40</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,24 +5609,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K73" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>10346</v>
+        <v>14460</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44280</v>
+        <v>44396</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K74" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>14444</v>
+        <v>12531</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="Q74" t="n">
         <v>30</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5753,24 +5753,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="K75" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L75" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M75" t="n">
-        <v>14619</v>
+        <v>10000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>487</v>
+        <v>250</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="K76" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L76" t="n">
         <v>13000</v>
       </c>
       <c r="M76" t="n">
-        <v>12425</v>
+        <v>13000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="Q76" t="n">
         <v>40</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44342</v>
+        <v>44396</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="K77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L77" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M77" t="n">
-        <v>14491</v>
+        <v>10346</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="Q77" t="n">
         <v>50</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K78" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L78" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M78" t="n">
-        <v>16540</v>
+        <v>14444</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="Q78" t="n">
         <v>30</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6041,11 +6041,11 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="K79" t="n">
         <v>14000</v>
@@ -6054,11 +6054,11 @@
         <v>15000</v>
       </c>
       <c r="M79" t="n">
-        <v>14509</v>
+        <v>14619</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="K80" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L80" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M80" t="n">
-        <v>17590</v>
+        <v>12425</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="Q80" t="n">
         <v>40</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="K81" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L81" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M81" t="n">
-        <v>17133</v>
+        <v>14491</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="Q81" t="n">
         <v>50</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,24 +6257,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="K82" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L82" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M82" t="n">
-        <v>19429</v>
+        <v>16540</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>19429</v>
+        <v>551</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,24 +6329,24 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="K83" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M83" t="n">
-        <v>17469</v>
+        <v>14509</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>582</v>
+        <v>363</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6396,16 +6396,16 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="K84" t="n">
         <v>17000</v>
@@ -6414,7 +6414,7 @@
         <v>18000</v>
       </c>
       <c r="M84" t="n">
-        <v>17540</v>
+        <v>17590</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q84" t="n">
         <v>40</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L85" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M85" t="n">
-        <v>13414</v>
+        <v>17133</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="Q85" t="n">
         <v>50</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="K86" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L86" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M86" t="n">
-        <v>12556</v>
+        <v>19429</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>179</v>
+        <v>19429</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,24 +6617,24 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M87" t="n">
-        <v>13444</v>
+        <v>17469</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>13444</v>
+        <v>582</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,24 +6689,24 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L88" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M88" t="n">
-        <v>12419</v>
+        <v>17540</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="Q88" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="K89" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L89" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>8545</v>
+        <v>13414</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="Q89" t="n">
         <v>50</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6828,29 +6828,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K90" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L90" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M90" t="n">
-        <v>15575</v>
+        <v>12556</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>519</v>
+        <v>179</v>
       </c>
       <c r="Q90" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6905,11 +6905,11 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K91" t="n">
         <v>13000</v>
@@ -6918,11 +6918,11 @@
         <v>14000</v>
       </c>
       <c r="M91" t="n">
-        <v>13575</v>
+        <v>13444</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>339</v>
+        <v>13444</v>
       </c>
       <c r="Q91" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K92" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L92" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M92" t="n">
-        <v>17575</v>
+        <v>12419</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="Q92" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7044,29 +7044,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>230</v>
+        <v>550</v>
       </c>
       <c r="K93" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L93" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M93" t="n">
-        <v>19435</v>
+        <v>8545</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>19435</v>
+        <v>171</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M94" t="n">
-        <v>18619</v>
+        <v>15575</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>621</v>
+        <v>519</v>
       </c>
       <c r="Q94" t="n">
         <v>30</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>790</v>
+        <v>400</v>
       </c>
       <c r="K95" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L95" t="n">
         <v>14000</v>
       </c>
-      <c r="L95" t="n">
-        <v>15000</v>
-      </c>
       <c r="M95" t="n">
-        <v>14532</v>
+        <v>13575</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="Q95" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L96" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M96" t="n">
-        <v>16294</v>
+        <v>17575</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>543</v>
+        <v>352</v>
       </c>
       <c r="Q96" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7337,24 +7337,24 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>640</v>
+        <v>230</v>
       </c>
       <c r="K97" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L97" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M97" t="n">
-        <v>15438</v>
+        <v>19435</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>386</v>
+        <v>19435</v>
       </c>
       <c r="Q97" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="K98" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L98" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M98" t="n">
-        <v>14150</v>
+        <v>18619</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>354</v>
+        <v>621</v>
       </c>
       <c r="Q98" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>790</v>
       </c>
       <c r="K99" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L99" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M99" t="n">
-        <v>11575</v>
+        <v>14532</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="Q99" t="n">
         <v>50</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,24 +7553,24 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="K100" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L100" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M100" t="n">
-        <v>12448</v>
+        <v>16294</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>12448</v>
+        <v>543</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,24 +7625,24 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="K101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L101" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M101" t="n">
-        <v>11471</v>
+        <v>15438</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q101" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7692,25 +7692,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>400</v>
       </c>
       <c r="K102" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L102" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M102" t="n">
-        <v>9575</v>
+        <v>14150</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>239</v>
+        <v>354</v>
       </c>
       <c r="Q102" t="n">
         <v>40</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L103" t="n">
         <v>12000</v>
       </c>
-      <c r="L103" t="n">
-        <v>13000</v>
-      </c>
       <c r="M103" t="n">
-        <v>12448</v>
+        <v>11575</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L104" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M104" t="n">
-        <v>11133</v>
+        <v>12448</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>159</v>
+        <v>12448</v>
       </c>
       <c r="Q104" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,24 +7913,24 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="K105" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L105" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M105" t="n">
-        <v>13469</v>
+        <v>11471</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>13469</v>
+        <v>382</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K106" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L106" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M106" t="n">
-        <v>12438</v>
+        <v>9575</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>415</v>
+        <v>239</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8052,29 +8052,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K107" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M107" t="n">
-        <v>11575</v>
+        <v>12448</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="Q107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8124,29 +8124,29 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>780</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L108" t="n">
         <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>11410</v>
+        <v>11133</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="Q108" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,24 +8201,24 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>70</v>
+        <v>490</v>
       </c>
       <c r="K109" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L109" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M109" t="n">
-        <v>16857</v>
+        <v>13469</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>562</v>
+        <v>13469</v>
       </c>
       <c r="Q109" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K110" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L110" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M110" t="n">
-        <v>15413</v>
+        <v>12438</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K111" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M111" t="n">
-        <v>14605</v>
+        <v>11575</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="Q111" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="K112" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L112" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>15920</v>
+        <v>11410</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>15920</v>
+        <v>285</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>810</v>
+        <v>70</v>
       </c>
       <c r="K113" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L113" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M113" t="n">
-        <v>15568</v>
+        <v>16857</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8556,29 +8556,29 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="K114" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L114" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M114" t="n">
-        <v>14448</v>
+        <v>15413</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="Q114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K115" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L115" t="n">
         <v>15000</v>
       </c>
       <c r="M115" t="n">
-        <v>15000</v>
+        <v>14605</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>15000</v>
+        <v>209</v>
       </c>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,24 +8705,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K116" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L116" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M116" t="n">
-        <v>12000</v>
+        <v>15920</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>400</v>
+        <v>15920</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,24 +8777,24 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>240</v>
+        <v>810</v>
       </c>
       <c r="K117" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L117" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M117" t="n">
-        <v>10000</v>
+        <v>15568</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>250</v>
+        <v>519</v>
       </c>
       <c r="Q117" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="K118" t="n">
         <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>14000</v>
+        <v>14448</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q118" t="n">
         <v>40</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K119" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L119" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M119" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>240</v>
+        <v>15000</v>
       </c>
       <c r="Q119" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="K120" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L120" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M120" t="n">
-        <v>14412</v>
+        <v>12000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q120" t="n">
         <v>30</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="K121" t="n">
         <v>10000</v>
       </c>
       <c r="L121" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>11373</v>
+        <v>10000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="Q121" t="n">
         <v>40</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,20 +9141,20 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L122" t="n">
         <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>13150</v>
+        <v>14000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,20 +9213,20 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="K123" t="n">
         <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M123" t="n">
-        <v>12821</v>
+        <v>12000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="Q123" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1080</v>
+        <v>170</v>
       </c>
       <c r="K124" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L124" t="n">
         <v>15000</v>
       </c>
-      <c r="L124" t="n">
-        <v>16000</v>
-      </c>
       <c r="M124" t="n">
-        <v>15398</v>
+        <v>14412</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>15398</v>
+        <v>480</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,24 +9353,24 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>620</v>
+        <v>102</v>
       </c>
       <c r="K125" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L125" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M125" t="n">
-        <v>15581</v>
+        <v>11373</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>519</v>
+        <v>284</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9420,29 +9420,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K126" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L126" t="n">
         <v>14000</v>
       </c>
-      <c r="L126" t="n">
-        <v>15000</v>
-      </c>
       <c r="M126" t="n">
-        <v>14545</v>
+        <v>13150</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="Q126" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K127" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L127" t="n">
         <v>14000</v>
       </c>
-      <c r="L127" t="n">
-        <v>15000</v>
-      </c>
       <c r="M127" t="n">
-        <v>14590</v>
+        <v>12821</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="Q127" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>580</v>
+        <v>1080</v>
       </c>
       <c r="K128" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L128" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M128" t="n">
-        <v>12552</v>
+        <v>15398</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>251</v>
+        <v>15398</v>
       </c>
       <c r="Q128" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1100</v>
+        <v>620</v>
       </c>
       <c r="K129" t="n">
         <v>15000</v>
@@ -9654,7 +9654,7 @@
         <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>15409</v>
+        <v>15581</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q129" t="n">
         <v>30</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M130" t="n">
-        <v>13581</v>
+        <v>14545</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="Q130" t="n">
         <v>40</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L131" t="n">
         <v>15000</v>
       </c>
-      <c r="L131" t="n">
-        <v>16000</v>
-      </c>
       <c r="M131" t="n">
-        <v>15425</v>
+        <v>14590</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>580</v>
       </c>
       <c r="K132" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L132" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M132" t="n">
-        <v>15448</v>
+        <v>12552</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>15448</v>
+        <v>251</v>
       </c>
       <c r="Q132" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="K133" t="n">
         <v>15000</v>
@@ -9942,7 +9942,7 @@
         <v>16000</v>
       </c>
       <c r="M133" t="n">
-        <v>15407</v>
+        <v>15409</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,29 +9996,29 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="K134" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L134" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>11547</v>
+        <v>13581</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
         <v>400</v>
       </c>
       <c r="K135" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L135" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M135" t="n">
-        <v>9575</v>
+        <v>15425</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="Q135" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1070</v>
+        <v>580</v>
       </c>
       <c r="K136" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L136" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M136" t="n">
-        <v>12607</v>
+        <v>15448</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>12607</v>
+        <v>15448</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K137" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M137" t="n">
-        <v>9575</v>
+        <v>15407</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>239</v>
+        <v>514</v>
       </c>
       <c r="Q137" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10284,29 +10284,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K138" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L138" t="n">
         <v>12000</v>
       </c>
       <c r="M138" t="n">
-        <v>10850</v>
+        <v>11547</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
         <v>400</v>
       </c>
       <c r="K139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L139" t="n">
         <v>10000</v>
       </c>
-      <c r="L139" t="n">
-        <v>11000</v>
-      </c>
       <c r="M139" t="n">
-        <v>10425</v>
+        <v>9575</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="Q139" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,24 +10433,24 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>400</v>
+        <v>1070</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L140" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M140" t="n">
-        <v>14575</v>
+        <v>12607</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>486</v>
+        <v>12607</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K141" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L141" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>11583</v>
+        <v>9575</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="Q141" t="n">
         <v>40</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44274</v>
+        <v>44412</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L142" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M142" t="n">
-        <v>16833</v>
+        <v>10850</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>561</v>
+        <v>362</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K143" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L143" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M143" t="n">
-        <v>16439</v>
+        <v>10425</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>548</v>
+        <v>261</v>
       </c>
       <c r="Q143" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,24 +10721,24 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K144" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>13605</v>
+        <v>14575</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>340</v>
+        <v>486</v>
       </c>
       <c r="Q144" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44364</v>
+        <v>44300</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="K145" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L145" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M145" t="n">
-        <v>17590</v>
+        <v>11583</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K146" t="n">
         <v>16000</v>
       </c>
       <c r="L146" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M146" t="n">
-        <v>16565</v>
+        <v>16833</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>237</v>
+        <v>561</v>
       </c>
       <c r="Q146" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="K147" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L147" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M147" t="n">
-        <v>19593</v>
+        <v>16439</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>19593</v>
+        <v>548</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,24 +11009,24 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="K148" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L148" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M148" t="n">
-        <v>18542</v>
+        <v>13605</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>618</v>
+        <v>340</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11076,16 +11076,16 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K149" t="n">
         <v>17000</v>
@@ -11094,11 +11094,11 @@
         <v>18000</v>
       </c>
       <c r="M149" t="n">
-        <v>17425</v>
+        <v>17590</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>436</v>
+        <v>352</v>
       </c>
       <c r="Q149" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>780</v>
+        <v>230</v>
       </c>
       <c r="K150" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L150" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M150" t="n">
-        <v>10923</v>
+        <v>16565</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Q150" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,29 +11220,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K151" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L151" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M151" t="n">
-        <v>10850</v>
+        <v>19593</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>155</v>
+        <v>19593</v>
       </c>
       <c r="Q151" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L152" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M152" t="n">
-        <v>13552</v>
+        <v>18542</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>13552</v>
+        <v>618</v>
       </c>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>400</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M153" t="n">
-        <v>12575</v>
+        <v>17425</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q153" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>13425</v>
+        <v>10923</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="Q154" t="n">
         <v>50</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,29 +11508,29 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K155" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L155" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M155" t="n">
-        <v>15348</v>
+        <v>10850</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>512</v>
+        <v>155</v>
       </c>
       <c r="Q155" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,11 +11585,11 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K156" t="n">
         <v>13000</v>
@@ -11598,11 +11598,11 @@
         <v>14000</v>
       </c>
       <c r="M156" t="n">
-        <v>13460</v>
+        <v>13552</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>336</v>
+        <v>13552</v>
       </c>
       <c r="Q156" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K157" t="n">
         <v>12000</v>
@@ -11670,11 +11670,11 @@
         <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>12657</v>
+        <v>12575</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>253</v>
+        <v>419</v>
       </c>
       <c r="Q157" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,20 +11733,20 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K158" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L158" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M158" t="n">
-        <v>15561</v>
+        <v>13425</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>519</v>
+        <v>268</v>
       </c>
       <c r="Q158" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L159" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M159" t="n">
-        <v>13425</v>
+        <v>15348</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>336</v>
+        <v>512</v>
       </c>
       <c r="Q159" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,16 +11868,16 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K160" t="n">
         <v>13000</v>
@@ -11886,11 +11886,11 @@
         <v>14000</v>
       </c>
       <c r="M160" t="n">
-        <v>13429</v>
+        <v>13460</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="Q160" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K161" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L161" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M161" t="n">
-        <v>16571</v>
+        <v>12657</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>552</v>
+        <v>253</v>
       </c>
       <c r="Q161" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>196</v>
+        <v>410</v>
       </c>
       <c r="K162" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L162" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M162" t="n">
-        <v>14867</v>
+        <v>15561</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>372</v>
+        <v>519</v>
       </c>
       <c r="Q162" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,29 +12084,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L163" t="n">
         <v>14000</v>
       </c>
       <c r="M163" t="n">
-        <v>14000</v>
+        <v>13425</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="Q163" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,24 +12161,24 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K164" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L164" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M164" t="n">
-        <v>12000</v>
+        <v>13429</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="Q164" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K165" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L165" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M165" t="n">
-        <v>15000</v>
+        <v>16571</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>15000</v>
+        <v>552</v>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,20 +12309,20 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="K166" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
         <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>15000</v>
+        <v>14867</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="Q166" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12372,16 +12372,16 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="K167" t="n">
         <v>14000</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q167" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12444,29 +12444,29 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="K168" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M168" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>375</v>
+        <v>171</v>
       </c>
       <c r="Q168" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K169" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L169" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M169" t="n">
-        <v>19172</v>
+        <v>15000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>19172</v>
+        <v>15000</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>630</v>
+        <v>230</v>
       </c>
       <c r="K170" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L170" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M170" t="n">
-        <v>16825</v>
+        <v>15000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="K171" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M171" t="n">
-        <v>15425</v>
+        <v>14000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="Q171" t="n">
         <v>40</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,20 +12741,20 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>630</v>
+        <v>460</v>
       </c>
       <c r="K172" t="n">
         <v>15000</v>
       </c>
       <c r="L172" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>15413</v>
+        <v>15000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="Q172" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="K173" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L173" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M173" t="n">
-        <v>17548</v>
+        <v>19172</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>17548</v>
+        <v>19172</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>490</v>
+        <v>630</v>
       </c>
       <c r="K174" t="n">
         <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M174" t="n">
-        <v>16531</v>
+        <v>16825</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="Q174" t="n">
         <v>30</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K175" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L175" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M175" t="n">
-        <v>14148</v>
+        <v>15425</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="Q175" t="n">
         <v>40</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,20 +13029,20 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K176" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L176" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M176" t="n">
-        <v>14552</v>
+        <v>15413</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="Q176" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13092,29 +13092,29 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="K177" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L177" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M177" t="n">
-        <v>13444</v>
+        <v>17548</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>269</v>
+        <v>17548</v>
       </c>
       <c r="Q177" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="K178" t="n">
         <v>16000</v>
@@ -13182,7 +13182,7 @@
         <v>17000</v>
       </c>
       <c r="M178" t="n">
-        <v>16474</v>
+        <v>16531</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q178" t="n">
         <v>30</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>300</v>
+        <v>610</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L179" t="n">
         <v>15000</v>
       </c>
       <c r="M179" t="n">
-        <v>14600</v>
+        <v>14148</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q179" t="n">
         <v>40</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K180" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L180" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M180" t="n">
-        <v>17095</v>
+        <v>14552</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="Q180" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="K181" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L181" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M181" t="n">
-        <v>16622</v>
+        <v>13444</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="Q181" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="K182" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L182" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M182" t="n">
-        <v>18548</v>
+        <v>16474</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>18548</v>
+        <v>549</v>
       </c>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,20 +13533,20 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K183" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L183" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M183" t="n">
-        <v>17103</v>
+        <v>14600</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>570</v>
+        <v>365</v>
       </c>
       <c r="Q183" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13596,29 +13596,29 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="K184" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L184" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M184" t="n">
-        <v>15552</v>
+        <v>17095</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="Q184" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13668,29 +13668,29 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K185" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L185" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M185" t="n">
-        <v>15548</v>
+        <v>16622</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="Q185" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K186" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L186" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M186" t="n">
-        <v>14444</v>
+        <v>18548</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>14444</v>
+        <v>18548</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="K187" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L187" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M187" t="n">
-        <v>11106</v>
+        <v>17103</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>370</v>
+        <v>570</v>
       </c>
       <c r="Q187" t="n">
         <v>30</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13896,13 +13896,13 @@
         <v>290</v>
       </c>
       <c r="K188" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L188" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M188" t="n">
-        <v>8000</v>
+        <v>15552</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="Q188" t="n">
         <v>40</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K189" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L189" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M189" t="n">
-        <v>13556</v>
+        <v>15548</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="Q189" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14028,29 +14028,29 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>910</v>
+        <v>630</v>
       </c>
       <c r="K190" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L190" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>10484</v>
+        <v>14444</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>262</v>
+        <v>14444</v>
       </c>
       <c r="Q190" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14100,29 +14100,29 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>260</v>
+        <v>850</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L191" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M191" t="n">
-        <v>8000</v>
+        <v>11106</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="Q191" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,36 +14177,36 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K192" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M192" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q192" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,29 +14244,29 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K193" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L193" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M193" t="n">
-        <v>18448</v>
+        <v>13556</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="Q193" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,29 +14316,29 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>300</v>
+        <v>910</v>
       </c>
       <c r="K194" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L194" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M194" t="n">
-        <v>16567</v>
+        <v>10484</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Q194" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,29 +14388,29 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K195" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L195" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M195" t="n">
-        <v>18575</v>
+        <v>8000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>18575</v>
+        <v>160</v>
       </c>
       <c r="Q195" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K196" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L196" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M196" t="n">
-        <v>17425</v>
+        <v>15000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="Q196" t="n">
         <v>30</v>
@@ -14532,29 +14532,29 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
         <v>580</v>
       </c>
       <c r="K197" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L197" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M197" t="n">
-        <v>17448</v>
+        <v>18448</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="Q197" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L198" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M198" t="n">
-        <v>12575</v>
+        <v>16567</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="Q198" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
         <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L199" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M199" t="n">
-        <v>14425</v>
+        <v>18575</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>481</v>
+        <v>18575</v>
       </c>
       <c r="Q199" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
         <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L200" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M200" t="n">
-        <v>12575</v>
+        <v>17425</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>314</v>
+        <v>581</v>
       </c>
       <c r="Q200" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,29 +14820,29 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K201" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L201" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M201" t="n">
-        <v>14164</v>
+        <v>17448</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>283</v>
+        <v>436</v>
       </c>
       <c r="Q201" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,29 +14892,29 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="K202" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L202" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M202" t="n">
-        <v>17459</v>
+        <v>12575</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>17459</v>
+        <v>252</v>
       </c>
       <c r="Q202" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L203" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M203" t="n">
-        <v>16538</v>
+        <v>14425</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="Q203" t="n">
         <v>30</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K204" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L204" t="n">
         <v>13000</v>
       </c>
-      <c r="L204" t="n">
-        <v>15000</v>
-      </c>
       <c r="M204" t="n">
-        <v>13762</v>
+        <v>12575</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="Q204" t="n">
         <v>40</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44281</v>
+        <v>44344</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,20 +15117,20 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="K205" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L205" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M205" t="n">
-        <v>11143</v>
+        <v>14164</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="Q205" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44301</v>
+        <v>44344</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="K206" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L206" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M206" t="n">
-        <v>15400</v>
+        <v>17459</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>513</v>
+        <v>17459</v>
       </c>
       <c r="Q206" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44301</v>
+        <v>44344</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,24 +15257,24 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K207" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L207" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M207" t="n">
-        <v>11333</v>
+        <v>16538</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>283</v>
+        <v>551</v>
       </c>
       <c r="Q207" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44370</v>
+        <v>44344</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,20 +15333,20 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="K208" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L208" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M208" t="n">
-        <v>17425</v>
+        <v>13762</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q208" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44370</v>
+        <v>44281</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15396,29 +15396,29 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="K209" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M209" t="n">
-        <v>18552</v>
+        <v>11143</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>18552</v>
+        <v>371</v>
       </c>
       <c r="Q209" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="K210" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L210" t="n">
         <v>16000</v>
       </c>
-      <c r="L210" t="n">
-        <v>17000</v>
-      </c>
       <c r="M210" t="n">
-        <v>16489</v>
+        <v>15400</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="Q210" t="n">
         <v>30</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L211" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M211" t="n">
-        <v>17552</v>
+        <v>11333</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>439</v>
+        <v>283</v>
       </c>
       <c r="Q211" t="n">
         <v>40</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K212" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L212" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M212" t="n">
-        <v>16417</v>
+        <v>17425</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="Q212" t="n">
         <v>50</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="K213" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L213" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M213" t="n">
-        <v>17375</v>
+        <v>18552</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>17375</v>
+        <v>18552</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="K214" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L214" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M214" t="n">
-        <v>15423</v>
+        <v>16489</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="Q214" t="n">
         <v>30</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K215" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L215" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M215" t="n">
-        <v>15000</v>
+        <v>17552</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>15000</v>
+        <v>439</v>
       </c>
       <c r="Q215" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,20 +15909,20 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L216" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M216" t="n">
-        <v>12000</v>
+        <v>16417</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="Q216" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K217" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L217" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M217" t="n">
-        <v>8000</v>
+        <v>17375</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>200</v>
+        <v>17375</v>
       </c>
       <c r="Q217" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,20 +16053,20 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>930</v>
+        <v>260</v>
       </c>
       <c r="K218" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L218" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M218" t="n">
-        <v>14484</v>
+        <v>15423</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>362</v>
+        <v>514</v>
       </c>
       <c r="Q218" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16116,29 +16116,29 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>370</v>
+        <v>235</v>
       </c>
       <c r="K219" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L219" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M219" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>240</v>
+        <v>15000</v>
       </c>
       <c r="Q219" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16197,20 +16197,20 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="K220" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L220" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M220" t="n">
-        <v>16448</v>
+        <v>12000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="Q220" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="K221" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L221" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M221" t="n">
-        <v>18884</v>
+        <v>8000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>18884</v>
+        <v>200</v>
       </c>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,20 +16341,20 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>420</v>
+        <v>930</v>
       </c>
       <c r="K222" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L222" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M222" t="n">
-        <v>17548</v>
+        <v>14484</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>585</v>
+        <v>362</v>
       </c>
       <c r="Q222" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="K223" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L223" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M223" t="n">
-        <v>15404</v>
+        <v>12000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>385</v>
+        <v>240</v>
       </c>
       <c r="Q223" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K224" t="n">
         <v>16000</v>
@@ -16494,11 +16494,11 @@
         <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>16586</v>
+        <v>16448</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="Q224" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K225" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L225" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M225" t="n">
-        <v>15400</v>
+        <v>18884</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>513</v>
+        <v>18884</v>
       </c>
       <c r="Q225" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,24 +16625,24 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="K226" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L226" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M226" t="n">
-        <v>13417</v>
+        <v>17548</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>335</v>
+        <v>585</v>
       </c>
       <c r="Q226" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,25 +16692,25 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
         <v>570</v>
       </c>
       <c r="K227" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L227" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M227" t="n">
-        <v>14404</v>
+        <v>15404</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="Q227" t="n">
         <v>40</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,29 +16764,29 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="K228" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L228" t="n">
         <v>17000</v>
       </c>
-      <c r="L228" t="n">
-        <v>18000</v>
-      </c>
       <c r="M228" t="n">
-        <v>17525</v>
+        <v>16586</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>17525</v>
+        <v>415</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="K229" t="n">
         <v>15000</v>
@@ -16854,7 +16854,7 @@
         <v>16000</v>
       </c>
       <c r="M229" t="n">
-        <v>15552</v>
+        <v>15400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q229" t="n">
         <v>30</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
         <v>13000</v>
@@ -16926,7 +16926,7 @@
         <v>14000</v>
       </c>
       <c r="M230" t="n">
-        <v>13575</v>
+        <v>13417</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q230" t="n">
         <v>40</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>230</v>
+        <v>570</v>
       </c>
       <c r="K231" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L231" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M231" t="n">
-        <v>13478</v>
+        <v>14404</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="Q231" t="n">
         <v>40</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,16 +17052,16 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="K232" t="n">
         <v>17000</v>
@@ -17070,11 +17070,11 @@
         <v>18000</v>
       </c>
       <c r="M232" t="n">
-        <v>17460</v>
+        <v>17525</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>349</v>
+        <v>17525</v>
       </c>
       <c r="Q232" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,16 +17124,16 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K233" t="n">
         <v>15000</v>
@@ -17142,11 +17142,11 @@
         <v>16000</v>
       </c>
       <c r="M233" t="n">
-        <v>15575</v>
+        <v>15552</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>222</v>
+        <v>518</v>
       </c>
       <c r="Q233" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L234" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M234" t="n">
-        <v>17552</v>
+        <v>13575</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>585</v>
+        <v>339</v>
       </c>
       <c r="Q234" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,20 +17277,20 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K235" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L235" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M235" t="n">
-        <v>16429</v>
+        <v>13478</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>548</v>
+        <v>337</v>
       </c>
       <c r="Q235" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17340,29 +17340,29 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L236" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M236" t="n">
-        <v>16425</v>
+        <v>17460</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="Q236" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
         <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L237" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M237" t="n">
-        <v>14575</v>
+        <v>15575</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Q237" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L238" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M238" t="n">
-        <v>16520</v>
+        <v>17552</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="Q238" t="n">
         <v>30</v>
@@ -17541,58 +17541,346 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13</v>
+      </c>
+      <c r="F239" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>280</v>
+      </c>
+      <c r="K239" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L239" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M239" t="n">
+        <v>16429</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>548</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>30</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>6</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E240" t="n">
+        <v>13</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>400</v>
+      </c>
+      <c r="K240" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L240" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M240" t="n">
+        <v>16425</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>411</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>40</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>6</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
         <v>44334</v>
       </c>
-      <c r="E239" t="n">
-        <v>13</v>
-      </c>
-      <c r="F239" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="E241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>400</v>
+      </c>
+      <c r="K241" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L241" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M241" t="n">
+        <v>14575</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>50</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>6</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E242" t="n">
+        <v>13</v>
+      </c>
+      <c r="F242" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>500</v>
+      </c>
+      <c r="K242" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L242" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M242" t="n">
+        <v>16520</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>551</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>30</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>6</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F243" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J239" t="n">
+      <c r="J243" t="n">
         <v>360</v>
       </c>
-      <c r="K239" t="n">
+      <c r="K243" t="n">
         <v>14000</v>
       </c>
-      <c r="L239" t="n">
+      <c r="L243" t="n">
         <v>15000</v>
       </c>
-      <c r="M239" t="n">
+      <c r="M243" t="n">
         <v>14472</v>
       </c>
-      <c r="N239" t="inlineStr">
+      <c r="N243" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P239" t="n">
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
         <v>362</v>
       </c>
-      <c r="Q239" t="n">
+      <c r="Q243" t="n">
         <v>40</v>
       </c>
-      <c r="R239" t="inlineStr">
+      <c r="R243" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R308"/>
+  <dimension ref="A1:R309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14472,17 +14472,17 @@
         <v>400</v>
       </c>
       <c r="K196" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L196" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M196" t="n">
-        <v>13425</v>
+        <v>11150</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="Q196" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K197" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L197" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M197" t="n">
-        <v>15348</v>
+        <v>13425</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>512</v>
+        <v>268</v>
       </c>
       <c r="Q197" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="K198" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L198" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M198" t="n">
-        <v>13460</v>
+        <v>15348</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>336</v>
+        <v>512</v>
       </c>
       <c r="Q198" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,29 +14676,29 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K199" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L199" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M199" t="n">
-        <v>12657</v>
+        <v>13460</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="Q199" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,20 +14757,20 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="K200" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L200" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M200" t="n">
-        <v>15561</v>
+        <v>12657</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>519</v>
+        <v>253</v>
       </c>
       <c r="Q200" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K201" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L201" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M201" t="n">
-        <v>13425</v>
+        <v>15561</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="Q201" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,16 +14892,16 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K202" t="n">
         <v>13000</v>
@@ -14910,11 +14910,11 @@
         <v>14000</v>
       </c>
       <c r="M202" t="n">
-        <v>13429</v>
+        <v>13425</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="Q202" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,20 +14973,20 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L203" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M203" t="n">
-        <v>16571</v>
+        <v>13429</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>552</v>
+        <v>269</v>
       </c>
       <c r="Q203" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L204" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M204" t="n">
-        <v>14867</v>
+        <v>16571</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="Q204" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,20 +15117,20 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="K205" t="n">
         <v>14000</v>
       </c>
       <c r="L205" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M205" t="n">
-        <v>14000</v>
+        <v>14867</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="Q205" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K206" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L206" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M206" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="Q206" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15252,29 +15252,29 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K207" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L207" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M207" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>15000</v>
+        <v>171</v>
       </c>
       <c r="Q207" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15329,11 +15329,11 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K208" t="n">
         <v>15000</v>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K209" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L209" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M209" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15468,25 +15468,25 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>460</v>
+        <v>130</v>
       </c>
       <c r="K210" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L210" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M210" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q210" t="n">
         <v>40</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,29 +15540,29 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="K211" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L211" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M211" t="n">
-        <v>19172</v>
+        <v>15000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>19172</v>
+        <v>375</v>
       </c>
       <c r="Q211" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15617,24 +15617,24 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="K212" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L212" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M212" t="n">
-        <v>16825</v>
+        <v>19172</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>561</v>
+        <v>19172</v>
       </c>
       <c r="Q212" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K213" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L213" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M213" t="n">
-        <v>15425</v>
+        <v>16825</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>386</v>
+        <v>561</v>
       </c>
       <c r="Q213" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15756,16 +15756,16 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K214" t="n">
         <v>15000</v>
@@ -15774,11 +15774,11 @@
         <v>16000</v>
       </c>
       <c r="M214" t="n">
-        <v>15413</v>
+        <v>15425</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="Q214" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15828,29 +15828,29 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="K215" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L215" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M215" t="n">
-        <v>17548</v>
+        <v>15413</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>17548</v>
+        <v>308</v>
       </c>
       <c r="Q215" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="K216" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L216" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M216" t="n">
-        <v>16531</v>
+        <v>17548</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>551</v>
+        <v>17548</v>
       </c>
       <c r="Q216" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>610</v>
+        <v>490</v>
       </c>
       <c r="K217" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L217" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M217" t="n">
-        <v>14148</v>
+        <v>16531</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>354</v>
+        <v>551</v>
       </c>
       <c r="Q217" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16044,25 +16044,25 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K218" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L218" t="n">
         <v>15000</v>
       </c>
       <c r="M218" t="n">
-        <v>14552</v>
+        <v>14148</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q218" t="n">
         <v>40</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,20 +16125,20 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="K219" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L219" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M219" t="n">
-        <v>13444</v>
+        <v>14552</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="Q219" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16197,20 +16197,20 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="K220" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L220" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M220" t="n">
-        <v>16474</v>
+        <v>13444</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>549</v>
+        <v>269</v>
       </c>
       <c r="Q220" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K221" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L221" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M221" t="n">
-        <v>14600</v>
+        <v>16474</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>365</v>
+        <v>549</v>
       </c>
       <c r="Q221" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,29 +16332,29 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="K222" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L222" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M222" t="n">
-        <v>17095</v>
+        <v>14600</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="Q222" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="K223" t="n">
         <v>16000</v>
       </c>
       <c r="L223" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M223" t="n">
-        <v>16622</v>
+        <v>17095</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="Q223" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16476,29 +16476,29 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K224" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L224" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>18548</v>
+        <v>16622</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>18548</v>
+        <v>237</v>
       </c>
       <c r="Q224" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="K225" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L225" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M225" t="n">
-        <v>17103</v>
+        <v>18548</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>570</v>
+        <v>18548</v>
       </c>
       <c r="Q225" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K226" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L226" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M226" t="n">
-        <v>15552</v>
+        <v>17103</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>389</v>
+        <v>570</v>
       </c>
       <c r="Q226" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16692,16 +16692,16 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="K227" t="n">
         <v>15000</v>
@@ -16710,7 +16710,7 @@
         <v>16000</v>
       </c>
       <c r="M227" t="n">
-        <v>15548</v>
+        <v>15552</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,29 +16764,29 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K228" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L228" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M228" t="n">
-        <v>14444</v>
+        <v>15548</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>14444</v>
+        <v>389</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>850</v>
+        <v>630</v>
       </c>
       <c r="K229" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L229" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M229" t="n">
-        <v>11106</v>
+        <v>14444</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>370</v>
+        <v>14444</v>
       </c>
       <c r="Q229" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="K230" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="n">
-        <v>8000</v>
+        <v>11106</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="Q230" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16980,29 +16980,29 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="K231" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L231" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M231" t="n">
-        <v>13556</v>
+        <v>8000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>452</v>
+        <v>200</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>910</v>
+        <v>630</v>
       </c>
       <c r="K232" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M232" t="n">
-        <v>10484</v>
+        <v>13556</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="Q232" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>260</v>
+        <v>910</v>
       </c>
       <c r="K233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>8000</v>
+        <v>10484</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="Q233" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,41 +17196,41 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K234" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L234" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M234" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="Q234" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44417</v>
+        <v>44292</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,36 +17273,36 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K235" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L235" t="n">
         <v>15000</v>
       </c>
       <c r="M235" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>14400</v>
+        <v>500</v>
       </c>
       <c r="Q235" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K236" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L236" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M236" t="n">
-        <v>13425</v>
+        <v>14400</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>448</v>
+        <v>14400</v>
       </c>
       <c r="Q236" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L237" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M237" t="n">
-        <v>12448</v>
+        <v>13425</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>249</v>
+        <v>448</v>
       </c>
       <c r="Q237" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17484,29 +17484,29 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="K238" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L238" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M238" t="n">
-        <v>14417</v>
+        <v>12448</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>14417</v>
+        <v>249</v>
       </c>
       <c r="Q238" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J239" t="n">
         <v>600</v>
       </c>
       <c r="K239" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L239" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M239" t="n">
-        <v>12583</v>
+        <v>14417</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>419</v>
+        <v>14417</v>
       </c>
       <c r="Q239" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L240" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M240" t="n">
-        <v>11571</v>
+        <v>12583</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="Q240" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,29 +17700,29 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="K241" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L241" t="n">
         <v>12000</v>
       </c>
-      <c r="L241" t="n">
-        <v>13000</v>
-      </c>
       <c r="M241" t="n">
-        <v>12448</v>
+        <v>11571</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="Q241" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>440</v>
+        <v>580</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L242" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M242" t="n">
-        <v>10727</v>
+        <v>12448</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="Q242" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17844,29 +17844,29 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="K243" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>15429</v>
+        <v>10727</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>15429</v>
+        <v>153</v>
       </c>
       <c r="Q243" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17921,24 +17921,24 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K244" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L244" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M244" t="n">
-        <v>13460</v>
+        <v>15429</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>449</v>
+        <v>15429</v>
       </c>
       <c r="Q244" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="K245" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L245" t="n">
         <v>14000</v>
       </c>
-      <c r="L245" t="n">
-        <v>15000</v>
-      </c>
       <c r="M245" t="n">
-        <v>14426</v>
+        <v>13460</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="Q245" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18060,25 +18060,25 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>510</v>
+        <v>610</v>
       </c>
       <c r="K246" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L246" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M246" t="n">
-        <v>10902</v>
+        <v>14426</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="Q246" t="n">
         <v>40</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="K247" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L247" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M247" t="n">
-        <v>18448</v>
+        <v>10902</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="Q247" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K248" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L248" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M248" t="n">
-        <v>16567</v>
+        <v>18448</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>237</v>
+        <v>369</v>
       </c>
       <c r="Q248" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,29 +18276,29 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L249" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M249" t="n">
-        <v>18575</v>
+        <v>16567</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>18575</v>
+        <v>237</v>
       </c>
       <c r="Q249" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J250" t="n">
         <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L250" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M250" t="n">
-        <v>17425</v>
+        <v>18575</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>581</v>
+        <v>18575</v>
       </c>
       <c r="Q250" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18425,11 +18425,11 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K251" t="n">
         <v>17000</v>
@@ -18438,11 +18438,11 @@
         <v>18000</v>
       </c>
       <c r="M251" t="n">
-        <v>17448</v>
+        <v>17425</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>436</v>
+        <v>581</v>
       </c>
       <c r="Q251" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,29 +18492,29 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K252" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L252" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M252" t="n">
-        <v>12395</v>
+        <v>17448</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>248</v>
+        <v>436</v>
       </c>
       <c r="Q252" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="K253" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L253" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M253" t="n">
-        <v>10540</v>
+        <v>12395</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="Q253" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,29 +18636,29 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
         <v>500</v>
       </c>
       <c r="K254" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L254" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M254" t="n">
-        <v>14460</v>
+        <v>10540</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>14460</v>
+        <v>151</v>
       </c>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K255" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L255" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M255" t="n">
-        <v>13448</v>
+        <v>14460</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>448</v>
+        <v>14460</v>
       </c>
       <c r="Q255" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L256" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M256" t="n">
-        <v>12575</v>
+        <v>13448</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="Q256" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,12 +18852,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="Q257" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,17 +18936,17 @@
         <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M258" t="n">
-        <v>14425</v>
+        <v>12575</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>481</v>
+        <v>252</v>
       </c>
       <c r="Q258" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
         <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L259" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M259" t="n">
-        <v>12575</v>
+        <v>14425</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>314</v>
+        <v>481</v>
       </c>
       <c r="Q259" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,29 +19068,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K260" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L260" t="n">
         <v>13000</v>
       </c>
-      <c r="L260" t="n">
-        <v>15000</v>
-      </c>
       <c r="M260" t="n">
-        <v>14164</v>
+        <v>12575</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Q260" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19140,29 +19140,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>370</v>
+        <v>550</v>
       </c>
       <c r="K261" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L261" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M261" t="n">
-        <v>17459</v>
+        <v>14164</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>17459</v>
+        <v>283</v>
       </c>
       <c r="Q261" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="K262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L262" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M262" t="n">
-        <v>16538</v>
+        <v>17459</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>551</v>
+        <v>17459</v>
       </c>
       <c r="Q262" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19293,20 +19293,20 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K263" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L263" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M263" t="n">
-        <v>13762</v>
+        <v>16538</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>344</v>
+        <v>551</v>
       </c>
       <c r="Q263" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44281</v>
+        <v>44344</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,20 +19365,20 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>11143</v>
+        <v>13762</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="Q264" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K265" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L265" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M265" t="n">
-        <v>15400</v>
+        <v>11143</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>513</v>
+        <v>371</v>
       </c>
       <c r="Q265" t="n">
         <v>30</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K266" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M266" t="n">
-        <v>11333</v>
+        <v>15400</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>283</v>
+        <v>513</v>
       </c>
       <c r="Q266" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19572,29 +19572,29 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L267" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M267" t="n">
-        <v>17425</v>
+        <v>11333</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="Q267" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19644,29 +19644,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K268" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L268" t="n">
         <v>18000</v>
       </c>
-      <c r="L268" t="n">
-        <v>19000</v>
-      </c>
       <c r="M268" t="n">
-        <v>18552</v>
+        <v>17425</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>18552</v>
+        <v>348</v>
       </c>
       <c r="Q268" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="K269" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L269" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M269" t="n">
-        <v>16489</v>
+        <v>18552</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>550</v>
+        <v>18552</v>
       </c>
       <c r="Q269" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="K270" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L270" t="n">
         <v>17000</v>
       </c>
-      <c r="L270" t="n">
-        <v>18000</v>
-      </c>
       <c r="M270" t="n">
-        <v>17552</v>
+        <v>16489</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="Q270" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19860,29 +19860,29 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L271" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M271" t="n">
-        <v>16417</v>
+        <v>17552</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="Q271" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19932,29 +19932,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L272" t="n">
         <v>17000</v>
       </c>
-      <c r="L272" t="n">
-        <v>18000</v>
-      </c>
       <c r="M272" t="n">
-        <v>17375</v>
+        <v>16417</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>17375</v>
+        <v>328</v>
       </c>
       <c r="Q272" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20009,24 +20009,24 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K273" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L273" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M273" t="n">
-        <v>15423</v>
+        <v>17375</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>514</v>
+        <v>17375</v>
       </c>
       <c r="Q273" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="K274" t="n">
         <v>15000</v>
       </c>
       <c r="L274" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M274" t="n">
-        <v>15000</v>
+        <v>15423</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>15000</v>
+        <v>514</v>
       </c>
       <c r="Q274" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="K275" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L275" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M275" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="Q275" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="K276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q276" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20292,25 +20292,25 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>930</v>
+        <v>380</v>
       </c>
       <c r="K277" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L277" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M277" t="n">
-        <v>14484</v>
+        <v>8000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="Q277" t="n">
         <v>40</v>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>370</v>
+        <v>930</v>
       </c>
       <c r="K278" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L278" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M278" t="n">
-        <v>12000</v>
+        <v>14484</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="Q278" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,25 +20436,25 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="K279" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L279" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M279" t="n">
-        <v>16448</v>
+        <v>12000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="Q279" t="n">
         <v>50</v>
@@ -20508,29 +20508,29 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K280" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L280" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M280" t="n">
-        <v>18884</v>
+        <v>16448</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>18884</v>
+        <v>329</v>
       </c>
       <c r="Q280" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K281" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L281" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M281" t="n">
-        <v>17548</v>
+        <v>18884</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>585</v>
+        <v>18884</v>
       </c>
       <c r="Q281" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M282" t="n">
-        <v>15404</v>
+        <v>17548</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>385</v>
+        <v>585</v>
       </c>
       <c r="Q282" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,25 +20724,25 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K283" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L283" t="n">
         <v>16000</v>
       </c>
-      <c r="L283" t="n">
-        <v>17000</v>
-      </c>
       <c r="M283" t="n">
-        <v>16586</v>
+        <v>15404</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="Q283" t="n">
         <v>40</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K284" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L284" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M284" t="n">
-        <v>15400</v>
+        <v>16586</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="Q284" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20873,24 +20873,24 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K285" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L285" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M285" t="n">
-        <v>13417</v>
+        <v>15400</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>335</v>
+        <v>513</v>
       </c>
       <c r="Q285" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20940,25 +20940,25 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>570</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L286" t="n">
         <v>14000</v>
       </c>
-      <c r="L286" t="n">
-        <v>15000</v>
-      </c>
       <c r="M286" t="n">
-        <v>14404</v>
+        <v>13417</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="Q286" t="n">
         <v>40</v>
@@ -21012,29 +21012,29 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="K287" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L287" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M287" t="n">
-        <v>17525</v>
+        <v>14404</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>17525</v>
+        <v>360</v>
       </c>
       <c r="Q287" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K288" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M288" t="n">
-        <v>15552</v>
+        <v>17525</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>518</v>
+        <v>17525</v>
       </c>
       <c r="Q288" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K289" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L289" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M289" t="n">
-        <v>13575</v>
+        <v>15552</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>339</v>
+        <v>518</v>
       </c>
       <c r="Q289" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21228,16 +21228,16 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K290" t="n">
         <v>13000</v>
@@ -21246,7 +21246,7 @@
         <v>14000</v>
       </c>
       <c r="M290" t="n">
-        <v>13478</v>
+        <v>13575</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q290" t="n">
         <v>40</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K291" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L291" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M291" t="n">
-        <v>17460</v>
+        <v>13478</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Q291" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K292" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M292" t="n">
-        <v>15575</v>
+        <v>17460</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="Q292" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K293" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L293" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M293" t="n">
-        <v>17552</v>
+        <v>15575</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>585</v>
+        <v>222</v>
       </c>
       <c r="Q293" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="K294" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L294" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M294" t="n">
-        <v>16429</v>
+        <v>17552</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="Q294" t="n">
         <v>30</v>
@@ -21593,11 +21593,11 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K295" t="n">
         <v>16000</v>
@@ -21606,11 +21606,11 @@
         <v>17000</v>
       </c>
       <c r="M295" t="n">
-        <v>16425</v>
+        <v>16429</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>411</v>
+        <v>548</v>
       </c>
       <c r="Q295" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,29 +21660,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
         <v>400</v>
       </c>
       <c r="K296" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L296" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M296" t="n">
-        <v>14575</v>
+        <v>16425</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="Q296" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K297" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L297" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M297" t="n">
-        <v>16520</v>
+        <v>14575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>551</v>
+        <v>292</v>
       </c>
       <c r="Q297" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K298" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L298" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M298" t="n">
-        <v>14472</v>
+        <v>16520</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>362</v>
+        <v>551</v>
       </c>
       <c r="Q298" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21876,29 +21876,29 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1400</v>
+        <v>360</v>
       </c>
       <c r="K299" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L299" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M299" t="n">
-        <v>13071</v>
+        <v>14472</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>580</v>
+        <v>1400</v>
       </c>
       <c r="K300" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L300" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M300" t="n">
-        <v>10897</v>
+        <v>13071</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="Q300" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22020,29 +22020,29 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="K301" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L301" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>14561</v>
+        <v>10897</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>14561</v>
+        <v>156</v>
       </c>
       <c r="Q301" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K302" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L302" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M302" t="n">
-        <v>12448</v>
+        <v>14561</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>415</v>
+        <v>14561</v>
       </c>
       <c r="Q302" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="K303" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L303" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M303" t="n">
-        <v>11243</v>
+        <v>12448</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="Q303" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="K304" t="n">
         <v>10000</v>
@@ -22254,7 +22254,7 @@
         <v>12000</v>
       </c>
       <c r="M304" t="n">
-        <v>11103</v>
+        <v>11243</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q304" t="n">
         <v>40</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
         <v>580</v>
       </c>
       <c r="K305" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M305" t="n">
-        <v>13448</v>
+        <v>11103</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q305" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K306" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L306" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M306" t="n">
-        <v>10425</v>
+        <v>13448</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="Q306" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22452,29 +22452,29 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K307" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M307" t="n">
-        <v>14583</v>
+        <v>10425</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>14583</v>
+        <v>149</v>
       </c>
       <c r="Q307" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22529,38 +22529,110 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>600</v>
+      </c>
+      <c r="K308" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L308" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M308" t="n">
+        <v>14583</v>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>14583</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>1</v>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>6</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E309" t="n">
+        <v>13</v>
+      </c>
+      <c r="F309" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J308" t="n">
+      <c r="J309" t="n">
         <v>650</v>
       </c>
-      <c r="K308" t="n">
+      <c r="K309" t="n">
         <v>12000</v>
       </c>
-      <c r="L308" t="n">
+      <c r="L309" t="n">
         <v>13000</v>
       </c>
-      <c r="M308" t="n">
+      <c r="M309" t="n">
         <v>12538</v>
       </c>
-      <c r="N308" t="inlineStr">
+      <c r="N309" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P308" t="n">
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
         <v>418</v>
       </c>
-      <c r="Q308" t="n">
+      <c r="Q309" t="n">
         <v>30</v>
       </c>
-      <c r="R308" t="inlineStr">
+      <c r="R309" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R330"/>
+  <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,17 +20592,17 @@
         <v>400</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L281" t="n">
         <v>12000</v>
       </c>
       <c r="M281" t="n">
-        <v>11150</v>
+        <v>11575</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>372</v>
+        <v>232</v>
       </c>
       <c r="Q281" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="K282" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L282" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M282" t="n">
-        <v>11583</v>
+        <v>9404</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="Q282" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20724,29 +20724,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="K283" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L283" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M283" t="n">
-        <v>11403</v>
+        <v>14850</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>163</v>
+        <v>14850</v>
       </c>
       <c r="Q283" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,24 +20801,24 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K284" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L284" t="n">
         <v>14000</v>
       </c>
-      <c r="L284" t="n">
-        <v>15000</v>
-      </c>
       <c r="M284" t="n">
-        <v>14575</v>
+        <v>13566</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>14575</v>
+        <v>452</v>
       </c>
       <c r="Q284" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="K285" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L285" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M285" t="n">
-        <v>14426</v>
+        <v>9433</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>481</v>
+        <v>236</v>
       </c>
       <c r="Q285" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L286" t="n">
         <v>12000</v>
       </c>
-      <c r="L286" t="n">
-        <v>13000</v>
-      </c>
       <c r="M286" t="n">
-        <v>12448</v>
+        <v>11150</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="Q286" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L287" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>10425</v>
+        <v>11583</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="Q287" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K288" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L288" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M288" t="n">
-        <v>14575</v>
+        <v>11403</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>14575</v>
+        <v>163</v>
       </c>
       <c r="Q288" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K289" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L289" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M289" t="n">
-        <v>12462</v>
+        <v>14575</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>415</v>
+        <v>14575</v>
       </c>
       <c r="Q289" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K290" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L290" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>9575</v>
+        <v>14426</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="Q290" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K291" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L291" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M291" t="n">
-        <v>7575</v>
+        <v>12448</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="Q291" t="n">
         <v>50</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>3240</v>
+        <v>400</v>
       </c>
       <c r="K292" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M292" t="n">
-        <v>10975</v>
+        <v>10425</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="Q292" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L293" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M293" t="n">
-        <v>7417</v>
+        <v>14575</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>106</v>
+        <v>14575</v>
       </c>
       <c r="Q293" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21516,29 +21516,29 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1510</v>
+        <v>800</v>
       </c>
       <c r="K294" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L294" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M294" t="n">
-        <v>9099</v>
+        <v>12462</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="Q294" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21588,29 +21588,29 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2110</v>
+        <v>400</v>
       </c>
       <c r="K295" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L295" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M295" t="n">
-        <v>14014</v>
+        <v>9575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>14014</v>
+        <v>239</v>
       </c>
       <c r="Q295" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,29 +21660,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2950</v>
+        <v>400</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L296" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M296" t="n">
-        <v>13071</v>
+        <v>7575</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>436</v>
+        <v>152</v>
       </c>
       <c r="Q296" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,29 +21732,29 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1200</v>
+        <v>3240</v>
       </c>
       <c r="K297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L297" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M297" t="n">
-        <v>12100</v>
+        <v>10975</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="Q297" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K298" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L298" t="n">
         <v>8000</v>
       </c>
-      <c r="L298" t="n">
-        <v>9000</v>
-      </c>
       <c r="M298" t="n">
-        <v>8511</v>
+        <v>7417</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="Q298" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>590</v>
+        <v>1510</v>
       </c>
       <c r="K299" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M299" t="n">
-        <v>6780</v>
+        <v>9099</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,29 +21948,29 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>500</v>
+        <v>2110</v>
       </c>
       <c r="K300" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L300" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M300" t="n">
-        <v>17460</v>
+        <v>14014</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>349</v>
+        <v>14014</v>
       </c>
       <c r="Q300" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,29 +22020,29 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>400</v>
+        <v>2950</v>
       </c>
       <c r="K301" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L301" t="n">
         <v>15000</v>
       </c>
-      <c r="L301" t="n">
-        <v>16000</v>
-      </c>
       <c r="M301" t="n">
-        <v>15575</v>
+        <v>13071</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>222</v>
+        <v>436</v>
       </c>
       <c r="Q301" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>580</v>
+        <v>1200</v>
       </c>
       <c r="K302" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L302" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M302" t="n">
-        <v>17552</v>
+        <v>12100</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>585</v>
+        <v>302</v>
       </c>
       <c r="Q302" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K303" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L303" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M303" t="n">
-        <v>16429</v>
+        <v>8511</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>548</v>
+        <v>213</v>
       </c>
       <c r="Q303" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,20 +22245,20 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="K304" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="L304" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M304" t="n">
-        <v>16425</v>
+        <v>6780</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>411</v>
+        <v>136</v>
       </c>
       <c r="Q304" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="K305" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L305" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M305" t="n">
-        <v>15850</v>
+        <v>17460</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>528</v>
+        <v>349</v>
       </c>
       <c r="Q305" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K306" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L306" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M306" t="n">
-        <v>11547</v>
+        <v>15575</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="Q306" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22452,29 +22452,29 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K307" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M307" t="n">
-        <v>9575</v>
+        <v>17552</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>137</v>
+        <v>585</v>
       </c>
       <c r="Q307" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1070</v>
+        <v>280</v>
       </c>
       <c r="K308" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L308" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M308" t="n">
-        <v>12607</v>
+        <v>16429</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>12607</v>
+        <v>548</v>
       </c>
       <c r="Q308" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22608,13 +22608,13 @@
         <v>400</v>
       </c>
       <c r="K309" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L309" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M309" t="n">
-        <v>9575</v>
+        <v>16425</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="Q309" t="n">
         <v>40</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22668,25 +22668,25 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K310" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L310" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M310" t="n">
-        <v>10850</v>
+        <v>15850</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>362</v>
+        <v>528</v>
       </c>
       <c r="Q310" t="n">
         <v>30</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K311" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L311" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M311" t="n">
-        <v>10425</v>
+        <v>11547</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="Q311" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22812,29 +22812,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K312" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L312" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M312" t="n">
-        <v>16439</v>
+        <v>9575</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>548</v>
+        <v>137</v>
       </c>
       <c r="Q312" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>430</v>
+        <v>1070</v>
       </c>
       <c r="K313" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L313" t="n">
         <v>13000</v>
       </c>
-      <c r="L313" t="n">
-        <v>14000</v>
-      </c>
       <c r="M313" t="n">
-        <v>13605</v>
+        <v>12607</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>340</v>
+        <v>12607</v>
       </c>
       <c r="Q313" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22956,29 +22956,29 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>730</v>
+        <v>400</v>
       </c>
       <c r="K314" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L314" t="n">
         <v>10000</v>
       </c>
-      <c r="L314" t="n">
-        <v>12000</v>
-      </c>
       <c r="M314" t="n">
-        <v>10959</v>
+        <v>9575</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Q314" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23028,29 +23028,29 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K315" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L315" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M315" t="n">
-        <v>9292</v>
+        <v>10850</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>133</v>
+        <v>362</v>
       </c>
       <c r="Q315" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23100,29 +23100,29 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K316" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M316" t="n">
-        <v>14652</v>
+        <v>10425</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>14652</v>
+        <v>261</v>
       </c>
       <c r="Q316" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K317" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L317" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M317" t="n">
-        <v>13567</v>
+        <v>16439</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>452</v>
+        <v>548</v>
       </c>
       <c r="Q317" t="n">
         <v>30</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23244,25 +23244,25 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>790</v>
+        <v>430</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L318" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M318" t="n">
-        <v>8911</v>
+        <v>13605</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="Q318" t="n">
         <v>40</v>
@@ -23316,25 +23316,25 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>290</v>
+        <v>730</v>
       </c>
       <c r="K319" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L319" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M319" t="n">
-        <v>8586</v>
+        <v>10959</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="Q319" t="n">
         <v>50</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23388,29 +23388,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="K320" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L320" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M320" t="n">
-        <v>14444</v>
+        <v>9292</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>14444</v>
+        <v>133</v>
       </c>
       <c r="Q320" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>850</v>
+        <v>660</v>
       </c>
       <c r="K321" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M321" t="n">
-        <v>11106</v>
+        <v>14652</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>370</v>
+        <v>14652</v>
       </c>
       <c r="Q321" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K322" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L322" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M322" t="n">
-        <v>8000</v>
+        <v>13567</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>200</v>
+        <v>452</v>
       </c>
       <c r="Q322" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="K323" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L323" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M323" t="n">
-        <v>13556</v>
+        <v>8911</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="Q323" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>910</v>
+        <v>290</v>
       </c>
       <c r="K324" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L324" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M324" t="n">
-        <v>10484</v>
+        <v>8586</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="Q324" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23748,29 +23748,29 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>260</v>
+        <v>630</v>
       </c>
       <c r="K325" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L325" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M325" t="n">
-        <v>8000</v>
+        <v>14444</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>160</v>
+        <v>14444</v>
       </c>
       <c r="Q325" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>280</v>
+        <v>850</v>
       </c>
       <c r="K326" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L326" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M326" t="n">
-        <v>15000</v>
+        <v>11106</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>15000</v>
+        <v>370</v>
       </c>
       <c r="Q326" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="K327" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L327" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M327" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q327" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,29 +23964,29 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>240</v>
+        <v>630</v>
       </c>
       <c r="K328" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L328" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M328" t="n">
-        <v>10000</v>
+        <v>13556</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>250</v>
+        <v>452</v>
       </c>
       <c r="Q328" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>560</v>
+        <v>910</v>
       </c>
       <c r="K329" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L329" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M329" t="n">
-        <v>14000</v>
+        <v>10484</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q329" t="n">
         <v>40</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24120,13 +24120,13 @@
         <v>260</v>
       </c>
       <c r="K330" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L330" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M330" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,12 +24139,372 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="Q330" t="n">
         <v>50</v>
       </c>
       <c r="R330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>6</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>280</v>
+      </c>
+      <c r="K331" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L331" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M331" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>1</v>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>6</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E332" t="n">
+        <v>13</v>
+      </c>
+      <c r="F332" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>440</v>
+      </c>
+      <c r="K332" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L332" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M332" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>30</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>6</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F333" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>240</v>
+      </c>
+      <c r="K333" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L333" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M333" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P333" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>40</v>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>6</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E334" t="n">
+        <v>13</v>
+      </c>
+      <c r="F334" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>560</v>
+      </c>
+      <c r="K334" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L334" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M334" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P334" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>40</v>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>6</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E335" t="n">
+        <v>13</v>
+      </c>
+      <c r="F335" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>260</v>
+      </c>
+      <c r="K335" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L335" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M335" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>50</v>
+      </c>
+      <c r="R335" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R335"/>
+  <dimension ref="A1:R336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L162" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M162" t="n">
-        <v>17095</v>
+        <v>9150</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="Q162" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="K163" t="n">
         <v>16000</v>
       </c>
       <c r="L163" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M163" t="n">
-        <v>16622</v>
+        <v>17095</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="Q163" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12156,29 +12156,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K164" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L164" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M164" t="n">
-        <v>18548</v>
+        <v>16622</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>18548</v>
+        <v>237</v>
       </c>
       <c r="Q164" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="K165" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L165" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M165" t="n">
-        <v>17103</v>
+        <v>18548</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>570</v>
+        <v>18548</v>
       </c>
       <c r="Q165" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12309,20 +12309,20 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K166" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L166" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M166" t="n">
-        <v>15552</v>
+        <v>17103</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>389</v>
+        <v>570</v>
       </c>
       <c r="Q166" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12372,16 +12372,16 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="K167" t="n">
         <v>15000</v>
@@ -12390,7 +12390,7 @@
         <v>16000</v>
       </c>
       <c r="M167" t="n">
-        <v>15548</v>
+        <v>15552</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,20 +12453,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K168" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L168" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M168" t="n">
-        <v>12395</v>
+        <v>15548</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="Q168" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L169" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M169" t="n">
-        <v>10540</v>
+        <v>12395</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="Q169" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12588,29 +12588,29 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
         <v>500</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L170" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M170" t="n">
-        <v>14460</v>
+        <v>10540</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>14460</v>
+        <v>151</v>
       </c>
       <c r="Q170" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K171" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>13448</v>
+        <v>14460</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>448</v>
+        <v>14460</v>
       </c>
       <c r="Q171" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12737,24 +12737,24 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K172" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L172" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M172" t="n">
-        <v>12575</v>
+        <v>13448</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="Q172" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="K173" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L173" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M173" t="n">
-        <v>16473</v>
+        <v>12575</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>16473</v>
+        <v>314</v>
       </c>
       <c r="Q173" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12881,24 +12881,24 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>680</v>
+        <v>275</v>
       </c>
       <c r="K174" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>15529</v>
+        <v>16473</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>518</v>
+        <v>16473</v>
       </c>
       <c r="Q174" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="K175" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L175" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M175" t="n">
-        <v>11611</v>
+        <v>15529</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>290</v>
+        <v>518</v>
       </c>
       <c r="Q175" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13020,25 +13020,25 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>570</v>
+        <v>180</v>
       </c>
       <c r="K176" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L176" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M176" t="n">
-        <v>14579</v>
+        <v>11611</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="Q176" t="n">
         <v>40</v>
@@ -13097,24 +13097,24 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>130</v>
+        <v>570</v>
       </c>
       <c r="K177" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>12000</v>
+        <v>14579</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>240</v>
+        <v>364</v>
       </c>
       <c r="Q177" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13164,29 +13164,29 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K178" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L178" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M178" t="n">
-        <v>16833</v>
+        <v>12000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>561</v>
+        <v>240</v>
       </c>
       <c r="Q178" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="K179" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L179" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M179" t="n">
-        <v>12552</v>
+        <v>16833</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>251</v>
+        <v>561</v>
       </c>
       <c r="Q179" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>1100</v>
+        <v>580</v>
       </c>
       <c r="K180" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L180" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M180" t="n">
-        <v>15409</v>
+        <v>12552</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>514</v>
+        <v>251</v>
       </c>
       <c r="Q180" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>620</v>
+        <v>1100</v>
       </c>
       <c r="K181" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L181" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M181" t="n">
-        <v>13581</v>
+        <v>15409</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="Q181" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,29 +13452,29 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="K182" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L182" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M182" t="n">
-        <v>15623</v>
+        <v>13581</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q182" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,20 +13533,20 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>580</v>
+        <v>690</v>
       </c>
       <c r="K183" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L183" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M183" t="n">
-        <v>17448</v>
+        <v>15623</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>582</v>
+        <v>312</v>
       </c>
       <c r="Q183" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="K184" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L184" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M184" t="n">
-        <v>15316</v>
+        <v>17448</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>383</v>
+        <v>582</v>
       </c>
       <c r="Q184" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13668,25 +13668,25 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K185" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L185" t="n">
         <v>16000</v>
       </c>
-      <c r="L185" t="n">
-        <v>17000</v>
-      </c>
       <c r="M185" t="n">
-        <v>16343</v>
+        <v>15316</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="Q185" t="n">
         <v>40</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,20 +13749,20 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K186" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L186" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M186" t="n">
-        <v>12425</v>
+        <v>16343</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>248</v>
+        <v>409</v>
       </c>
       <c r="Q186" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13817,24 +13817,24 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L187" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M187" t="n">
-        <v>10448</v>
+        <v>12425</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="Q187" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13884,29 +13884,29 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K188" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L188" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>14575</v>
+        <v>10448</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>14575</v>
+        <v>149</v>
       </c>
       <c r="Q188" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
         <v>400</v>
       </c>
       <c r="K189" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L189" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M189" t="n">
-        <v>13425</v>
+        <v>14575</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>448</v>
+        <v>14575</v>
       </c>
       <c r="Q189" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14040,17 +14040,17 @@
         <v>400</v>
       </c>
       <c r="K190" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L190" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M190" t="n">
-        <v>11450</v>
+        <v>13425</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>229</v>
+        <v>448</v>
       </c>
       <c r="Q190" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K191" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L191" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M191" t="n">
-        <v>10567</v>
+        <v>11450</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="Q191" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14172,29 +14172,29 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K192" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M192" t="n">
-        <v>14575</v>
+        <v>10567</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>14575</v>
+        <v>151</v>
       </c>
       <c r="Q192" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14249,24 +14249,24 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
         <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L193" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M193" t="n">
-        <v>12425</v>
+        <v>14575</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>414</v>
+        <v>14575</v>
       </c>
       <c r="Q193" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14321,24 +14321,24 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
         <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L194" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M194" t="n">
-        <v>10425</v>
+        <v>12425</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="Q194" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,16 +14388,16 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K195" t="n">
         <v>10000</v>
@@ -14406,11 +14406,11 @@
         <v>11000</v>
       </c>
       <c r="M195" t="n">
-        <v>10446</v>
+        <v>10425</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="Q195" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14469,20 +14469,20 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="K196" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L196" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M196" t="n">
-        <v>7417</v>
+        <v>10446</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="Q196" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14532,29 +14532,29 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="K197" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L197" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M197" t="n">
-        <v>13531</v>
+        <v>7417</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>13531</v>
+        <v>106</v>
       </c>
       <c r="Q197" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K198" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L198" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M198" t="n">
-        <v>12425</v>
+        <v>13531</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>414</v>
+        <v>13531</v>
       </c>
       <c r="Q198" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
         <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M199" t="n">
-        <v>11150</v>
+        <v>12425</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>279</v>
+        <v>414</v>
       </c>
       <c r="Q199" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L200" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M200" t="n">
-        <v>15000</v>
+        <v>11150</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>15000</v>
+        <v>279</v>
       </c>
       <c r="Q200" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="K201" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L201" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M201" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="Q201" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14897,24 +14897,24 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="K202" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L202" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M202" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q202" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14964,25 +14964,25 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>930</v>
+        <v>380</v>
       </c>
       <c r="K203" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L203" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M203" t="n">
-        <v>14484</v>
+        <v>8000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="Q203" t="n">
         <v>40</v>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>370</v>
+        <v>930</v>
       </c>
       <c r="K204" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L204" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M204" t="n">
-        <v>12000</v>
+        <v>14484</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="Q204" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15108,25 +15108,25 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="K205" t="n">
         <v>12000</v>
       </c>
       <c r="L205" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M205" t="n">
-        <v>12448</v>
+        <v>12000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Q205" t="n">
         <v>50</v>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>440</v>
+        <v>580</v>
       </c>
       <c r="K206" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L206" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M206" t="n">
-        <v>10727</v>
+        <v>12448</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="Q206" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15252,29 +15252,29 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="K207" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L207" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M207" t="n">
-        <v>15429</v>
+        <v>10727</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>15429</v>
+        <v>153</v>
       </c>
       <c r="Q207" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15329,24 +15329,24 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K208" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L208" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M208" t="n">
-        <v>13460</v>
+        <v>15429</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>449</v>
+        <v>15429</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="K209" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L209" t="n">
         <v>14000</v>
       </c>
-      <c r="L209" t="n">
-        <v>15000</v>
-      </c>
       <c r="M209" t="n">
-        <v>14426</v>
+        <v>13460</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15468,25 +15468,25 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>510</v>
+        <v>610</v>
       </c>
       <c r="K210" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L210" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M210" t="n">
-        <v>10902</v>
+        <v>14426</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="Q210" t="n">
         <v>40</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,20 +15549,20 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="K211" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L211" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M211" t="n">
-        <v>14525</v>
+        <v>10902</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Q211" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,20 +15621,20 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="K212" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L212" t="n">
         <v>15000</v>
       </c>
-      <c r="L212" t="n">
-        <v>16000</v>
-      </c>
       <c r="M212" t="n">
-        <v>15462</v>
+        <v>14525</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>515</v>
+        <v>290</v>
       </c>
       <c r="Q212" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K213" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L213" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M213" t="n">
-        <v>13850</v>
+        <v>15462</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>346</v>
+        <v>515</v>
       </c>
       <c r="Q213" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15756,16 +15756,16 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K214" t="n">
         <v>13000</v>
@@ -15774,7 +15774,7 @@
         <v>15000</v>
       </c>
       <c r="M214" t="n">
-        <v>14095</v>
+        <v>13850</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q214" t="n">
         <v>40</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,20 +15837,20 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="K215" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L215" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M215" t="n">
-        <v>12448</v>
+        <v>14095</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="Q215" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K216" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L216" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M216" t="n">
-        <v>11150</v>
+        <v>12448</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="Q216" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15972,29 +15972,29 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K217" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L217" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M217" t="n">
-        <v>14605</v>
+        <v>11150</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>14605</v>
+        <v>159</v>
       </c>
       <c r="Q217" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16049,24 +16049,24 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K218" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L218" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M218" t="n">
-        <v>13575</v>
+        <v>14605</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>452</v>
+        <v>14605</v>
       </c>
       <c r="Q218" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16128,17 +16128,17 @@
         <v>400</v>
       </c>
       <c r="K219" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L219" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M219" t="n">
-        <v>15425</v>
+        <v>13575</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>308</v>
+        <v>452</v>
       </c>
       <c r="Q219" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16188,29 +16188,29 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
         <v>400</v>
       </c>
       <c r="K220" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L220" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M220" t="n">
-        <v>17575</v>
+        <v>15425</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>17575</v>
+        <v>308</v>
       </c>
       <c r="Q220" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L221" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M221" t="n">
-        <v>15951</v>
+        <v>17575</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>532</v>
+        <v>17575</v>
       </c>
       <c r="Q221" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,24 +16337,24 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K222" t="n">
         <v>15000</v>
       </c>
       <c r="L222" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M222" t="n">
-        <v>15433</v>
+        <v>15951</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>386</v>
+        <v>532</v>
       </c>
       <c r="Q222" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16404,16 +16404,16 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K223" t="n">
         <v>15000</v>
@@ -16422,7 +16422,7 @@
         <v>16000</v>
       </c>
       <c r="M223" t="n">
-        <v>15552</v>
+        <v>15433</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q223" t="n">
         <v>40</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,20 +16485,20 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K224" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L224" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M224" t="n">
-        <v>12425</v>
+        <v>15552</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="Q224" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
         <v>400</v>
       </c>
       <c r="K225" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L225" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M225" t="n">
-        <v>10850</v>
+        <v>12425</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="Q225" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16620,29 +16620,29 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L226" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M226" t="n">
-        <v>14552</v>
+        <v>10850</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>14552</v>
+        <v>155</v>
       </c>
       <c r="Q226" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16697,11 +16697,11 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K227" t="n">
         <v>14000</v>
@@ -16710,11 +16710,11 @@
         <v>15000</v>
       </c>
       <c r="M227" t="n">
-        <v>14372</v>
+        <v>14552</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>479</v>
+        <v>14552</v>
       </c>
       <c r="Q227" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K228" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L228" t="n">
         <v>15000</v>
       </c>
-      <c r="L228" t="n">
-        <v>16000</v>
-      </c>
       <c r="M228" t="n">
-        <v>15400</v>
+        <v>14372</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="Q228" t="n">
         <v>30</v>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K229" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L229" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M229" t="n">
-        <v>11333</v>
+        <v>15400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>283</v>
+        <v>513</v>
       </c>
       <c r="Q229" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="n">
-        <v>14400</v>
+        <v>11333</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>14400</v>
+        <v>283</v>
       </c>
       <c r="Q230" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K231" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L231" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M231" t="n">
-        <v>13425</v>
+        <v>14400</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>448</v>
+        <v>14400</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K232" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L232" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M232" t="n">
-        <v>10920</v>
+        <v>13425</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>218</v>
+        <v>448</v>
       </c>
       <c r="Q232" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="K233" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M233" t="n">
-        <v>9452</v>
+        <v>10920</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="Q233" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17196,29 +17196,29 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>780</v>
+        <v>620</v>
       </c>
       <c r="K234" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L234" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M234" t="n">
-        <v>14577</v>
+        <v>9452</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>14577</v>
+        <v>135</v>
       </c>
       <c r="Q234" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="K235" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L235" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M235" t="n">
-        <v>13667</v>
+        <v>14577</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>456</v>
+        <v>14577</v>
       </c>
       <c r="Q235" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1010</v>
+        <v>690</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M236" t="n">
-        <v>11406</v>
+        <v>13667</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>285</v>
+        <v>456</v>
       </c>
       <c r="Q236" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>790</v>
+        <v>1010</v>
       </c>
       <c r="K237" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L237" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M237" t="n">
-        <v>9418</v>
+        <v>11406</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="Q237" t="n">
         <v>40</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>580</v>
+        <v>790</v>
       </c>
       <c r="K238" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L238" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M238" t="n">
-        <v>13448</v>
+        <v>9418</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="Q238" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M239" t="n">
-        <v>10425</v>
+        <v>13448</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="Q239" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17628,29 +17628,29 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L240" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>14583</v>
+        <v>10425</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>14583</v>
+        <v>149</v>
       </c>
       <c r="Q240" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L241" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M241" t="n">
-        <v>12538</v>
+        <v>14583</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>418</v>
+        <v>14583</v>
       </c>
       <c r="Q241" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L242" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M242" t="n">
-        <v>19172</v>
+        <v>12538</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>19172</v>
+        <v>418</v>
       </c>
       <c r="Q242" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="K243" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L243" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M243" t="n">
-        <v>16825</v>
+        <v>19172</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>561</v>
+        <v>19172</v>
       </c>
       <c r="Q243" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17921,24 +17921,24 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K244" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L244" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M244" t="n">
-        <v>15425</v>
+        <v>16825</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>386</v>
+        <v>561</v>
       </c>
       <c r="Q244" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17988,29 +17988,29 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L245" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M245" t="n">
-        <v>18448</v>
+        <v>15425</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="Q245" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K246" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L246" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M246" t="n">
-        <v>16567</v>
+        <v>18448</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>237</v>
+        <v>369</v>
       </c>
       <c r="Q246" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18132,29 +18132,29 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K247" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L247" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M247" t="n">
-        <v>18575</v>
+        <v>16567</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>18575</v>
+        <v>237</v>
       </c>
       <c r="Q247" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J248" t="n">
         <v>400</v>
       </c>
       <c r="K248" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L248" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M248" t="n">
-        <v>17425</v>
+        <v>18575</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>581</v>
+        <v>18575</v>
       </c>
       <c r="Q248" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18281,11 +18281,11 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
         <v>17000</v>
@@ -18294,11 +18294,11 @@
         <v>18000</v>
       </c>
       <c r="M249" t="n">
-        <v>17448</v>
+        <v>17425</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>436</v>
+        <v>581</v>
       </c>
       <c r="Q249" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="K250" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L250" t="n">
         <v>18000</v>
       </c>
       <c r="M250" t="n">
-        <v>16857</v>
+        <v>17448</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="Q250" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="K251" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L251" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M251" t="n">
-        <v>14491</v>
+        <v>16857</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>290</v>
+        <v>562</v>
       </c>
       <c r="Q251" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,20 +18501,20 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="K252" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L252" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M252" t="n">
-        <v>16540</v>
+        <v>14491</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>551</v>
+        <v>290</v>
       </c>
       <c r="Q252" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="K253" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L253" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M253" t="n">
-        <v>14509</v>
+        <v>16540</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="Q253" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,29 +18636,29 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="K254" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L254" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M254" t="n">
-        <v>16448</v>
+        <v>14509</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Q254" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,29 +18708,29 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K255" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L255" t="n">
         <v>17000</v>
       </c>
-      <c r="L255" t="n">
-        <v>18000</v>
-      </c>
       <c r="M255" t="n">
-        <v>17452</v>
+        <v>16448</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>17452</v>
+        <v>329</v>
       </c>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K256" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M256" t="n">
-        <v>15575</v>
+        <v>17452</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>519</v>
+        <v>17452</v>
       </c>
       <c r="Q256" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
         <v>15000</v>
@@ -18870,7 +18870,7 @@
         <v>16000</v>
       </c>
       <c r="M257" t="n">
-        <v>15400</v>
+        <v>15575</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="Q257" t="n">
         <v>30</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,20 +18933,20 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K258" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L258" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M258" t="n">
-        <v>13444</v>
+        <v>15400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>269</v>
+        <v>513</v>
       </c>
       <c r="Q258" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,20 +19005,20 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="K259" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L259" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M259" t="n">
-        <v>16474</v>
+        <v>13444</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>549</v>
+        <v>269</v>
       </c>
       <c r="Q259" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K260" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L260" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M260" t="n">
-        <v>14600</v>
+        <v>16474</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>365</v>
+        <v>549</v>
       </c>
       <c r="Q260" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,29 +19140,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K261" t="n">
         <v>14000</v>
       </c>
       <c r="L261" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M261" t="n">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="Q261" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L262" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M262" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="Q262" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,29 +19284,29 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K263" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L263" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M263" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>15000</v>
+        <v>171</v>
       </c>
       <c r="Q263" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19361,11 +19361,11 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K264" t="n">
         <v>15000</v>
@@ -19378,7 +19378,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="Q264" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K265" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L265" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q265" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19500,25 +19500,25 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>460</v>
+        <v>130</v>
       </c>
       <c r="K266" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M266" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q266" t="n">
         <v>40</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19572,29 +19572,29 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K267" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
         <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>14425</v>
+        <v>15000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>14425</v>
+        <v>375</v>
       </c>
       <c r="Q267" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L268" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M268" t="n">
-        <v>13460</v>
+        <v>14425</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>449</v>
+        <v>14425</v>
       </c>
       <c r="Q268" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>690</v>
+        <v>500</v>
       </c>
       <c r="K269" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L269" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M269" t="n">
-        <v>9377</v>
+        <v>13460</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>234</v>
+        <v>449</v>
       </c>
       <c r="Q269" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>400</v>
+        <v>690</v>
       </c>
       <c r="K270" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L270" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M270" t="n">
-        <v>7575</v>
+        <v>9377</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="Q270" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19860,25 +19860,25 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
         <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L271" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M271" t="n">
-        <v>9575</v>
+        <v>7575</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="Q271" t="n">
         <v>50</v>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
         <v>400</v>
       </c>
       <c r="K272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L272" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M272" t="n">
-        <v>8425</v>
+        <v>9575</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="Q272" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,29 +20004,29 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L273" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M273" t="n">
-        <v>13414</v>
+        <v>8425</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>13414</v>
+        <v>120</v>
       </c>
       <c r="Q273" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L274" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M274" t="n">
-        <v>12425</v>
+        <v>13414</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>414</v>
+        <v>13414</v>
       </c>
       <c r="Q274" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
         <v>12000</v>
@@ -20166,11 +20166,11 @@
         <v>13000</v>
       </c>
       <c r="M275" t="n">
-        <v>12657</v>
+        <v>12425</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>253</v>
+        <v>414</v>
       </c>
       <c r="Q275" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="K276" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L276" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M276" t="n">
-        <v>15561</v>
+        <v>12657</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>519</v>
+        <v>253</v>
       </c>
       <c r="Q276" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K277" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L277" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M277" t="n">
-        <v>13425</v>
+        <v>15561</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="Q277" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20364,12 +20364,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -20382,11 +20382,11 @@
         <v>14000</v>
       </c>
       <c r="M278" t="n">
-        <v>13575</v>
+        <v>13425</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="Q278" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K279" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L279" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M279" t="n">
-        <v>16440</v>
+        <v>13575</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>548</v>
+        <v>272</v>
       </c>
       <c r="Q279" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K280" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L280" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M280" t="n">
-        <v>14605</v>
+        <v>16440</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>365</v>
+        <v>548</v>
       </c>
       <c r="Q280" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20580,29 +20580,29 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K281" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L281" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M281" t="n">
-        <v>11575</v>
+        <v>14605</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="Q281" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L282" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M282" t="n">
-        <v>9404</v>
+        <v>11575</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="Q282" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,29 +20724,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K283" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L283" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M283" t="n">
-        <v>14850</v>
+        <v>9404</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>14850</v>
+        <v>134</v>
       </c>
       <c r="Q283" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20801,24 +20801,24 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="K284" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M284" t="n">
-        <v>13566</v>
+        <v>14850</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>452</v>
+        <v>14850</v>
       </c>
       <c r="Q284" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="K285" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L285" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M285" t="n">
-        <v>9433</v>
+        <v>13566</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>236</v>
+        <v>452</v>
       </c>
       <c r="Q285" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K286" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L286" t="n">
         <v>10000</v>
       </c>
-      <c r="L286" t="n">
-        <v>12000</v>
-      </c>
       <c r="M286" t="n">
-        <v>11150</v>
+        <v>9433</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="Q286" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K287" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
         <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>11583</v>
+        <v>11150</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="Q287" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21089,11 +21089,11 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="K288" t="n">
         <v>11000</v>
@@ -21102,11 +21102,11 @@
         <v>12000</v>
       </c>
       <c r="M288" t="n">
-        <v>11403</v>
+        <v>11583</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="Q288" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,29 +21156,29 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K289" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L289" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M289" t="n">
-        <v>14575</v>
+        <v>11403</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>14575</v>
+        <v>163</v>
       </c>
       <c r="Q289" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21233,11 +21233,11 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K290" t="n">
         <v>14000</v>
@@ -21246,11 +21246,11 @@
         <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>14426</v>
+        <v>14575</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>481</v>
+        <v>14575</v>
       </c>
       <c r="Q290" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K291" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L291" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M291" t="n">
-        <v>12448</v>
+        <v>14426</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>249</v>
+        <v>481</v>
       </c>
       <c r="Q291" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L292" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M292" t="n">
-        <v>10425</v>
+        <v>12448</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="Q292" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
         <v>400</v>
       </c>
       <c r="K293" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L293" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M293" t="n">
-        <v>14575</v>
+        <v>10425</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>14575</v>
+        <v>149</v>
       </c>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K294" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L294" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M294" t="n">
-        <v>12462</v>
+        <v>14575</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>415</v>
+        <v>14575</v>
       </c>
       <c r="Q294" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K295" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M295" t="n">
-        <v>9575</v>
+        <v>12462</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="Q295" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
         <v>400</v>
       </c>
       <c r="K296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L296" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M296" t="n">
-        <v>7575</v>
+        <v>9575</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="Q296" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,25 +21732,25 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>3240</v>
+        <v>400</v>
       </c>
       <c r="K297" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L297" t="n">
         <v>8000</v>
       </c>
-      <c r="L297" t="n">
-        <v>14000</v>
-      </c>
       <c r="M297" t="n">
-        <v>10975</v>
+        <v>7575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="Q297" t="n">
         <v>50</v>
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>600</v>
+        <v>3240</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L298" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M298" t="n">
-        <v>7417</v>
+        <v>10975</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="Q298" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1510</v>
+        <v>600</v>
       </c>
       <c r="K299" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L299" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M299" t="n">
-        <v>9099</v>
+        <v>7417</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="Q299" t="n">
         <v>70</v>
@@ -21948,29 +21948,29 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2110</v>
+        <v>1510</v>
       </c>
       <c r="K300" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M300" t="n">
-        <v>14014</v>
+        <v>9099</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>14014</v>
+        <v>130</v>
       </c>
       <c r="Q300" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2950</v>
+        <v>2110</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L301" t="n">
         <v>15000</v>
       </c>
       <c r="M301" t="n">
-        <v>13071</v>
+        <v>14014</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>436</v>
+        <v>14014</v>
       </c>
       <c r="Q301" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1200</v>
+        <v>2950</v>
       </c>
       <c r="K302" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L302" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M302" t="n">
-        <v>12100</v>
+        <v>13071</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="Q302" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22164,25 +22164,25 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="K303" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L303" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M303" t="n">
-        <v>8511</v>
+        <v>12100</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="Q303" t="n">
         <v>40</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>590</v>
+        <v>880</v>
       </c>
       <c r="K304" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M304" t="n">
-        <v>6780</v>
+        <v>8511</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="Q304" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,25 +22308,25 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="K305" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L305" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M305" t="n">
-        <v>17460</v>
+        <v>6780</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="Q305" t="n">
         <v>50</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K306" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L306" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M306" t="n">
-        <v>15575</v>
+        <v>17460</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="Q306" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22452,29 +22452,29 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K307" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L307" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M307" t="n">
-        <v>17552</v>
+        <v>15575</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>585</v>
+        <v>222</v>
       </c>
       <c r="Q307" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="K308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L308" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M308" t="n">
-        <v>16429</v>
+        <v>17552</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="Q308" t="n">
         <v>30</v>
@@ -22601,11 +22601,11 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K309" t="n">
         <v>16000</v>
@@ -22614,11 +22614,11 @@
         <v>17000</v>
       </c>
       <c r="M309" t="n">
-        <v>16425</v>
+        <v>16429</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>411</v>
+        <v>548</v>
       </c>
       <c r="Q309" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K310" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L310" t="n">
         <v>17000</v>
       </c>
       <c r="M310" t="n">
-        <v>15850</v>
+        <v>16425</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="Q310" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="K311" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M311" t="n">
-        <v>11547</v>
+        <v>15850</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>231</v>
+        <v>528</v>
       </c>
       <c r="Q311" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K312" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>9575</v>
+        <v>11547</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="Q312" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22884,29 +22884,29 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1070</v>
+        <v>400</v>
       </c>
       <c r="K313" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L313" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>12607</v>
+        <v>9575</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>12607</v>
+        <v>137</v>
       </c>
       <c r="Q313" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>400</v>
+        <v>1070</v>
       </c>
       <c r="K314" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L314" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M314" t="n">
-        <v>9575</v>
+        <v>12607</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>239</v>
+        <v>12607</v>
       </c>
       <c r="Q314" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23028,29 +23028,29 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
         <v>400</v>
       </c>
       <c r="K315" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L315" t="n">
         <v>10000</v>
       </c>
-      <c r="L315" t="n">
-        <v>12000</v>
-      </c>
       <c r="M315" t="n">
-        <v>10850</v>
+        <v>9575</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>362</v>
+        <v>239</v>
       </c>
       <c r="Q315" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J316" t="n">
@@ -23115,14 +23115,14 @@
         <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M316" t="n">
-        <v>10425</v>
+        <v>10850</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="Q316" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K317" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L317" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M317" t="n">
-        <v>16439</v>
+        <v>10425</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>548</v>
+        <v>261</v>
       </c>
       <c r="Q317" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="K318" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L318" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M318" t="n">
-        <v>13605</v>
+        <v>16439</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>340</v>
+        <v>548</v>
       </c>
       <c r="Q318" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23316,29 +23316,29 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>730</v>
+        <v>430</v>
       </c>
       <c r="K319" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L319" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M319" t="n">
-        <v>10959</v>
+        <v>13605</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="Q319" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="K320" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L320" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M320" t="n">
-        <v>9292</v>
+        <v>10959</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="Q320" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,29 +23460,29 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K321" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L321" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M321" t="n">
-        <v>14652</v>
+        <v>9292</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>14652</v>
+        <v>133</v>
       </c>
       <c r="Q321" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K322" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L322" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M322" t="n">
-        <v>13567</v>
+        <v>14652</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>452</v>
+        <v>14652</v>
       </c>
       <c r="Q322" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,20 +23613,20 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>790</v>
+        <v>600</v>
       </c>
       <c r="K323" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L323" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M323" t="n">
-        <v>8911</v>
+        <v>13567</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>223</v>
+        <v>452</v>
       </c>
       <c r="Q323" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>290</v>
+        <v>790</v>
       </c>
       <c r="K324" t="n">
         <v>8000</v>
       </c>
       <c r="L324" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M324" t="n">
-        <v>8586</v>
+        <v>8911</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="Q324" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23748,29 +23748,29 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="K325" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L325" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M325" t="n">
-        <v>14444</v>
+        <v>8586</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>14444</v>
+        <v>172</v>
       </c>
       <c r="Q325" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>850</v>
+        <v>630</v>
       </c>
       <c r="K326" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L326" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M326" t="n">
-        <v>11106</v>
+        <v>14444</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>370</v>
+        <v>14444</v>
       </c>
       <c r="Q326" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="K327" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L327" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M327" t="n">
-        <v>8000</v>
+        <v>11106</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="Q327" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23964,29 +23964,29 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="K328" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L328" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M328" t="n">
-        <v>13556</v>
+        <v>8000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>452</v>
+        <v>200</v>
       </c>
       <c r="Q328" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>910</v>
+        <v>630</v>
       </c>
       <c r="K329" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L329" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M329" t="n">
-        <v>10484</v>
+        <v>13556</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="Q329" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>260</v>
+        <v>910</v>
       </c>
       <c r="K330" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L330" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M330" t="n">
-        <v>8000</v>
+        <v>10484</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="Q330" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24180,29 +24180,29 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K331" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L331" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M331" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>15000</v>
+        <v>160</v>
       </c>
       <c r="Q331" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="K332" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L332" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M332" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="Q332" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="K333" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L333" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M333" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24396,25 +24396,25 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="K334" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L334" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M334" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q334" t="n">
         <v>40</v>
@@ -24473,38 +24473,110 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>560</v>
+      </c>
+      <c r="K335" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L335" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M335" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>40</v>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>6</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E336" t="n">
+        <v>13</v>
+      </c>
+      <c r="F336" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J335" t="n">
+      <c r="J336" t="n">
         <v>260</v>
       </c>
-      <c r="K335" t="n">
+      <c r="K336" t="n">
         <v>12000</v>
       </c>
-      <c r="L335" t="n">
+      <c r="L336" t="n">
         <v>12000</v>
       </c>
-      <c r="M335" t="n">
+      <c r="M336" t="n">
         <v>12000</v>
       </c>
-      <c r="N335" t="inlineStr">
+      <c r="N336" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P335" t="n">
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P336" t="n">
         <v>240</v>
       </c>
-      <c r="Q335" t="n">
+      <c r="Q336" t="n">
         <v>50</v>
       </c>
-      <c r="R335" t="inlineStr">
+      <c r="R336" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R347"/>
+  <dimension ref="A1:R351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1400</v>
+        <v>580</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L253" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M253" t="n">
-        <v>13071</v>
+        <v>7552</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q253" t="n">
         <v>50</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,29 +18636,29 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K254" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L254" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M254" t="n">
-        <v>10897</v>
+        <v>8477</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>156</v>
+        <v>8477</v>
       </c>
       <c r="Q254" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="K255" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>14561</v>
+        <v>7452</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>14561</v>
+        <v>248</v>
       </c>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,20 +18789,20 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L256" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>12448</v>
+        <v>6574</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="Q256" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18852,29 +18852,29 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>370</v>
+        <v>1400</v>
       </c>
       <c r="K257" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M257" t="n">
-        <v>11243</v>
+        <v>13071</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="Q257" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18942,11 +18942,11 @@
         <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>11103</v>
+        <v>10897</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="Q258" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -18996,29 +18996,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K259" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L259" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M259" t="n">
-        <v>12425</v>
+        <v>14561</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>248</v>
+        <v>14561</v>
       </c>
       <c r="Q259" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,29 +19068,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K260" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L260" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>10850</v>
+        <v>12448</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="Q260" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="K261" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L261" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M261" t="n">
-        <v>14552</v>
+        <v>11243</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>14552</v>
+        <v>281</v>
       </c>
       <c r="Q261" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19212,29 +19212,29 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K262" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M262" t="n">
-        <v>14372</v>
+        <v>11103</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>479</v>
+        <v>278</v>
       </c>
       <c r="Q262" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,7 +19293,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K263" t="n">
         <v>12000</v>
@@ -19302,7 +19302,7 @@
         <v>13000</v>
       </c>
       <c r="M263" t="n">
-        <v>12448</v>
+        <v>12425</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q263" t="n">
         <v>50</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19374,7 +19374,7 @@
         <v>12000</v>
       </c>
       <c r="M264" t="n">
-        <v>11150</v>
+        <v>10850</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q264" t="n">
         <v>70</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K265" t="n">
         <v>14000</v>
@@ -19446,7 +19446,7 @@
         <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>14605</v>
+        <v>14552</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>14605</v>
+        <v>14552</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K266" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>13575</v>
+        <v>14372</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="Q266" t="n">
         <v>30</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="K267" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L267" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M267" t="n">
-        <v>14404</v>
+        <v>12448</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="Q267" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19644,29 +19644,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>17525</v>
+        <v>11150</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>17525</v>
+        <v>159</v>
       </c>
       <c r="Q268" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L269" t="n">
         <v>15000</v>
       </c>
-      <c r="L269" t="n">
-        <v>16000</v>
-      </c>
       <c r="M269" t="n">
-        <v>15552</v>
+        <v>14605</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>518</v>
+        <v>14605</v>
       </c>
       <c r="Q269" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="Q270" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>230</v>
+        <v>570</v>
       </c>
       <c r="K271" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L271" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M271" t="n">
-        <v>13478</v>
+        <v>14404</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="Q271" t="n">
         <v>40</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,36 +19937,36 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>180</v>
+        <v>610</v>
       </c>
       <c r="K272" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L272" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M272" t="n">
-        <v>14444</v>
+        <v>17525</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>481</v>
+        <v>17525</v>
       </c>
       <c r="Q272" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K273" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L273" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M273" t="n">
-        <v>13150</v>
+        <v>15552</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>263</v>
+        <v>518</v>
       </c>
       <c r="Q273" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20085,20 +20085,20 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L274" t="n">
         <v>14000</v>
       </c>
       <c r="M274" t="n">
-        <v>12821</v>
+        <v>13575</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="Q274" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,29 +20148,29 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1080</v>
+        <v>230</v>
       </c>
       <c r="K275" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L275" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M275" t="n">
-        <v>15398</v>
+        <v>13478</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>15398</v>
+        <v>337</v>
       </c>
       <c r="Q275" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44390</v>
+        <v>44280</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>620</v>
+        <v>180</v>
       </c>
       <c r="K276" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L276" t="n">
         <v>15000</v>
       </c>
-      <c r="L276" t="n">
-        <v>16000</v>
-      </c>
       <c r="M276" t="n">
-        <v>15581</v>
+        <v>14444</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="Q276" t="n">
         <v>30</v>
@@ -20292,29 +20292,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K277" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L277" t="n">
         <v>14000</v>
       </c>
-      <c r="L277" t="n">
-        <v>15000</v>
-      </c>
       <c r="M277" t="n">
-        <v>14545</v>
+        <v>13150</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="Q277" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20364,29 +20364,29 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K278" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L278" t="n">
         <v>14000</v>
       </c>
-      <c r="L278" t="n">
-        <v>15000</v>
-      </c>
       <c r="M278" t="n">
-        <v>14590</v>
+        <v>12821</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="Q278" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,29 +20436,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>580</v>
+        <v>1080</v>
       </c>
       <c r="K279" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L279" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M279" t="n">
-        <v>11552</v>
+        <v>15398</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>231</v>
+        <v>15398</v>
       </c>
       <c r="Q279" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K280" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L280" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M280" t="n">
-        <v>13582</v>
+        <v>15581</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>13582</v>
+        <v>519</v>
       </c>
       <c r="Q280" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L281" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M281" t="n">
-        <v>11103</v>
+        <v>14545</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="Q281" t="n">
         <v>40</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44301</v>
+        <v>44390</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="K282" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L282" t="n">
         <v>15000</v>
       </c>
-      <c r="L282" t="n">
-        <v>16000</v>
-      </c>
       <c r="M282" t="n">
-        <v>15400</v>
+        <v>14590</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>513</v>
+        <v>365</v>
       </c>
       <c r="Q282" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20724,29 +20724,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="K283" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L283" t="n">
         <v>12000</v>
       </c>
       <c r="M283" t="n">
-        <v>11333</v>
+        <v>11552</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="Q283" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L284" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M284" t="n">
-        <v>18448</v>
+        <v>13582</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>369</v>
+        <v>13582</v>
       </c>
       <c r="Q284" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K285" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M285" t="n">
-        <v>16567</v>
+        <v>11103</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q285" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K286" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L286" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M286" t="n">
-        <v>18575</v>
+        <v>15400</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>18575</v>
+        <v>513</v>
       </c>
       <c r="Q286" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>17425</v>
+        <v>11333</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>581</v>
+        <v>283</v>
       </c>
       <c r="Q287" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>580</v>
       </c>
       <c r="K288" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L288" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M288" t="n">
-        <v>17448</v>
+        <v>18448</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="Q288" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K289" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L289" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M289" t="n">
-        <v>12395</v>
+        <v>16567</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="Q289" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,29 +21228,29 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M290" t="n">
-        <v>10540</v>
+        <v>18575</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>151</v>
+        <v>18575</v>
       </c>
       <c r="Q290" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K291" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L291" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M291" t="n">
-        <v>14460</v>
+        <v>17425</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>14460</v>
+        <v>581</v>
       </c>
       <c r="Q291" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
         <v>580</v>
       </c>
       <c r="K292" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L292" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M292" t="n">
-        <v>13448</v>
+        <v>17448</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q292" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,16 +21444,16 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K293" t="n">
         <v>12000</v>
@@ -21462,11 +21462,11 @@
         <v>13000</v>
       </c>
       <c r="M293" t="n">
-        <v>12575</v>
+        <v>12395</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="Q293" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21516,29 +21516,29 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="K294" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L294" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M294" t="n">
-        <v>15850</v>
+        <v>10540</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>528</v>
+        <v>151</v>
       </c>
       <c r="Q294" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="K295" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L295" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M295" t="n">
-        <v>16473</v>
+        <v>14460</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>16473</v>
+        <v>14460</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="K296" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L296" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M296" t="n">
-        <v>15529</v>
+        <v>13448</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="Q296" t="n">
         <v>30</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K297" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L297" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M297" t="n">
-        <v>11611</v>
+        <v>12575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="Q297" t="n">
         <v>40</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="K298" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L298" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M298" t="n">
-        <v>14579</v>
+        <v>15850</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>364</v>
+        <v>528</v>
       </c>
       <c r="Q298" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,29 +21876,29 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="K299" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L299" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M299" t="n">
-        <v>12000</v>
+        <v>16473</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>240</v>
+        <v>16473</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K300" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L300" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M300" t="n">
-        <v>17575</v>
+        <v>15529</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>352</v>
+        <v>518</v>
       </c>
       <c r="Q300" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K301" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L301" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>19435</v>
+        <v>11611</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>19435</v>
+        <v>290</v>
       </c>
       <c r="Q301" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>210</v>
+        <v>570</v>
       </c>
       <c r="K302" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L302" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M302" t="n">
-        <v>18619</v>
+        <v>14579</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>621</v>
+        <v>364</v>
       </c>
       <c r="Q302" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22164,29 +22164,29 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K303" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L303" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M303" t="n">
-        <v>16857</v>
+        <v>12000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>562</v>
+        <v>240</v>
       </c>
       <c r="Q303" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,17 +22248,17 @@
         <v>400</v>
       </c>
       <c r="K304" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L304" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M304" t="n">
-        <v>11150</v>
+        <v>17575</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="Q304" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="K305" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L305" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M305" t="n">
-        <v>18000</v>
+        <v>19435</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>600</v>
+        <v>19435</v>
       </c>
       <c r="Q305" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K306" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L306" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M306" t="n">
-        <v>17000</v>
+        <v>18619</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>425</v>
+        <v>621</v>
       </c>
       <c r="Q306" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K307" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L307" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M307" t="n">
-        <v>15400</v>
+        <v>16857</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="Q307" t="n">
         <v>30</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K308" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L308" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M308" t="n">
-        <v>13417</v>
+        <v>11150</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Q308" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,20 +22605,20 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="K309" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L309" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M309" t="n">
-        <v>15552</v>
+        <v>18000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>311</v>
+        <v>600</v>
       </c>
       <c r="Q309" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>590</v>
+        <v>180</v>
       </c>
       <c r="K310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L310" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M310" t="n">
-        <v>16915</v>
+        <v>17000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>16915</v>
+        <v>425</v>
       </c>
       <c r="Q310" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K311" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L311" t="n">
         <v>16000</v>
       </c>
-      <c r="L311" t="n">
-        <v>17000</v>
-      </c>
       <c r="M311" t="n">
-        <v>16540</v>
+        <v>15400</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="Q311" t="n">
         <v>30</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K312" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L312" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M312" t="n">
-        <v>15540</v>
+        <v>13417</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="Q312" t="n">
         <v>40</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K313" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L313" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M313" t="n">
-        <v>14460</v>
+        <v>15552</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="Q313" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="K314" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L314" t="n">
         <v>18000</v>
       </c>
-      <c r="L314" t="n">
-        <v>20000</v>
-      </c>
       <c r="M314" t="n">
-        <v>19172</v>
+        <v>16915</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>19172</v>
+        <v>16915</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="K315" t="n">
         <v>16000</v>
       </c>
       <c r="L315" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M315" t="n">
-        <v>16825</v>
+        <v>16540</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Q315" t="n">
         <v>30</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K316" t="n">
         <v>15000</v>
@@ -23118,7 +23118,7 @@
         <v>16000</v>
       </c>
       <c r="M316" t="n">
-        <v>15425</v>
+        <v>15540</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q316" t="n">
         <v>40</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K317" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L317" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M317" t="n">
-        <v>16575</v>
+        <v>14460</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="Q317" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K318" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L318" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M318" t="n">
-        <v>16850</v>
+        <v>19172</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>16850</v>
+        <v>19172</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K319" t="n">
         <v>16000</v>
       </c>
       <c r="L319" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M319" t="n">
-        <v>16596</v>
+        <v>16825</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="Q319" t="n">
         <v>30</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
         <v>400</v>
       </c>
       <c r="K320" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L320" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M320" t="n">
-        <v>14425</v>
+        <v>15425</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="Q320" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23460,29 +23460,29 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K321" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L321" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M321" t="n">
-        <v>13556</v>
+        <v>16575</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q321" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23532,29 +23532,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>770</v>
+        <v>400</v>
       </c>
       <c r="K322" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L322" t="n">
         <v>18000</v>
       </c>
       <c r="M322" t="n">
-        <v>17545</v>
+        <v>16850</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>351</v>
+        <v>16850</v>
       </c>
       <c r="Q322" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="K323" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L323" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M323" t="n">
-        <v>18568</v>
+        <v>16596</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>18568</v>
+        <v>553</v>
       </c>
       <c r="Q323" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K324" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L324" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M324" t="n">
-        <v>17236</v>
+        <v>14425</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="Q324" t="n">
         <v>30</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23748,25 +23748,25 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="K325" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L325" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M325" t="n">
-        <v>16395</v>
+        <v>13556</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="Q325" t="n">
         <v>40</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="K326" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L326" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M326" t="n">
-        <v>9575</v>
+        <v>17545</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="Q326" t="n">
         <v>50</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23892,29 +23892,29 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="K327" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L327" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M327" t="n">
-        <v>8425</v>
+        <v>18568</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>120</v>
+        <v>18568</v>
       </c>
       <c r="Q327" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K328" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L328" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M328" t="n">
-        <v>13414</v>
+        <v>17236</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>13414</v>
+        <v>575</v>
       </c>
       <c r="Q328" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,20 +24045,20 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K329" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L329" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M329" t="n">
-        <v>12425</v>
+        <v>16395</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q329" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K330" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L330" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M330" t="n">
-        <v>17460</v>
+        <v>9575</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="Q330" t="n">
         <v>50</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24192,13 +24192,13 @@
         <v>400</v>
       </c>
       <c r="K331" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L331" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M331" t="n">
-        <v>15575</v>
+        <v>8425</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="Q331" t="n">
         <v>70</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,20 +24261,20 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="K332" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L332" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M332" t="n">
-        <v>17552</v>
+        <v>13414</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>585</v>
+        <v>13414</v>
       </c>
       <c r="Q332" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K333" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L333" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M333" t="n">
-        <v>16429</v>
+        <v>12425</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>548</v>
+        <v>414</v>
       </c>
       <c r="Q333" t="n">
         <v>30</v>
@@ -24396,29 +24396,29 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K334" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L334" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M334" t="n">
-        <v>16425</v>
+        <v>17460</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="Q334" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,41 +24468,41 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K335" t="n">
         <v>15000</v>
       </c>
       <c r="L335" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M335" t="n">
-        <v>15000</v>
+        <v>15575</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q335" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24540,29 +24540,29 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K336" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L336" t="n">
         <v>18000</v>
       </c>
       <c r="M336" t="n">
-        <v>17095</v>
+        <v>17552</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>342</v>
+        <v>585</v>
       </c>
       <c r="Q336" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24612,16 +24612,16 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="K337" t="n">
         <v>16000</v>
@@ -24630,11 +24630,11 @@
         <v>17000</v>
       </c>
       <c r="M337" t="n">
-        <v>16622</v>
+        <v>16429</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>237</v>
+        <v>548</v>
       </c>
       <c r="Q337" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K338" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L338" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M338" t="n">
-        <v>18548</v>
+        <v>16425</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>18548</v>
+        <v>411</v>
       </c>
       <c r="Q338" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="K339" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L339" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M339" t="n">
-        <v>17103</v>
+        <v>15000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="Q339" t="n">
         <v>30</v>
@@ -24828,29 +24828,29 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="K340" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L340" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M340" t="n">
-        <v>15552</v>
+        <v>17095</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="Q340" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24900,29 +24900,29 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K341" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L341" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M341" t="n">
-        <v>15548</v>
+        <v>16622</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="Q341" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,29 +24972,29 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="K342" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L342" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M342" t="n">
-        <v>11452</v>
+        <v>18548</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>229</v>
+        <v>18548</v>
       </c>
       <c r="Q342" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="K343" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L343" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M343" t="n">
-        <v>14571</v>
+        <v>17103</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>14571</v>
+        <v>570</v>
       </c>
       <c r="Q343" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K344" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L344" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M344" t="n">
-        <v>12425</v>
+        <v>15552</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="Q344" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25188,25 +25188,25 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K345" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L345" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M345" t="n">
-        <v>11575</v>
+        <v>15548</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="Q345" t="n">
         <v>40</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,20 +25269,20 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K346" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L346" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M346" t="n">
-        <v>15575</v>
+        <v>11452</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>519</v>
+        <v>229</v>
       </c>
       <c r="Q346" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,58 +25317,346 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E347" t="n">
+        <v>13</v>
+      </c>
+      <c r="F347" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>630</v>
+      </c>
+      <c r="K347" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L347" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M347" t="n">
+        <v>14571</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
+        <v>14571</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>1</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>6</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E348" t="n">
+        <v>13</v>
+      </c>
+      <c r="F348" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>400</v>
+      </c>
+      <c r="K348" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L348" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M348" t="n">
+        <v>12425</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>30</v>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>6</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E349" t="n">
+        <v>13</v>
+      </c>
+      <c r="F349" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>400</v>
+      </c>
+      <c r="K349" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L349" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M349" t="n">
+        <v>11575</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>289</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>40</v>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>6</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E347" t="n">
-        <v>13</v>
-      </c>
-      <c r="F347" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H347" t="inlineStr">
+      <c r="E350" t="n">
+        <v>13</v>
+      </c>
+      <c r="F350" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr">
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>400</v>
+      </c>
+      <c r="K350" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L350" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M350" t="n">
+        <v>15575</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
+        <v>519</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>30</v>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>6</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E351" t="n">
+        <v>13</v>
+      </c>
+      <c r="F351" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J347" t="n">
+      <c r="J351" t="n">
         <v>400</v>
       </c>
-      <c r="K347" t="n">
+      <c r="K351" t="n">
         <v>13000</v>
       </c>
-      <c r="L347" t="n">
+      <c r="L351" t="n">
         <v>14000</v>
       </c>
-      <c r="M347" t="n">
+      <c r="M351" t="n">
         <v>13575</v>
       </c>
-      <c r="N347" t="inlineStr">
+      <c r="N351" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O347" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P347" t="n">
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P351" t="n">
         <v>339</v>
       </c>
-      <c r="Q347" t="n">
+      <c r="Q351" t="n">
         <v>40</v>
       </c>
-      <c r="R347" t="inlineStr">
+      <c r="R351" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19440,13 +19440,13 @@
         <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L265" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M265" t="n">
-        <v>12425</v>
+        <v>9575</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="Q265" t="n">
         <v>50</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19500,29 +19500,29 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M266" t="n">
-        <v>10850</v>
+        <v>12452</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>155</v>
+        <v>12452</v>
       </c>
       <c r="Q266" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,29 +19581,29 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K267" t="n">
-        <v>14000</v>
+        <v>450</v>
       </c>
       <c r="L267" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="M267" t="n">
-        <v>14552</v>
+        <v>471</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>14552</v>
+        <v>471</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>430</v>
+        <v>630</v>
       </c>
       <c r="K268" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>14372</v>
+        <v>11143</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>479</v>
+        <v>371</v>
       </c>
       <c r="Q268" t="n">
         <v>30</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K269" t="n">
-        <v>12000</v>
+        <v>350</v>
       </c>
       <c r="L269" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="M269" t="n">
-        <v>12448</v>
+        <v>370</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="Q269" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K270" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L270" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="M270" t="n">
-        <v>11150</v>
+        <v>275</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="Q270" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19860,41 +19860,41 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K271" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L271" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M271" t="n">
-        <v>14605</v>
+        <v>8583</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>14605</v>
+        <v>215</v>
       </c>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19944,17 +19944,17 @@
         <v>400</v>
       </c>
       <c r="K272" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L272" t="n">
         <v>13000</v>
       </c>
-      <c r="L272" t="n">
-        <v>14000</v>
-      </c>
       <c r="M272" t="n">
-        <v>13575</v>
+        <v>12425</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>452</v>
+        <v>248</v>
       </c>
       <c r="Q272" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44343</v>
+        <v>44414</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,24 +20009,24 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L273" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M273" t="n">
-        <v>14404</v>
+        <v>10850</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="Q273" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44343</v>
+        <v>44414</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="K274" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L274" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M274" t="n">
-        <v>17525</v>
+        <v>14552</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>17525</v>
+        <v>14552</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44343</v>
+        <v>44414</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K275" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L275" t="n">
         <v>15000</v>
       </c>
-      <c r="L275" t="n">
-        <v>16000</v>
-      </c>
       <c r="M275" t="n">
-        <v>15552</v>
+        <v>14372</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="Q275" t="n">
         <v>30</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20220,29 +20220,29 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K276" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L276" t="n">
         <v>13000</v>
       </c>
-      <c r="L276" t="n">
-        <v>14000</v>
-      </c>
       <c r="M276" t="n">
-        <v>13575</v>
+        <v>12448</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="Q276" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20292,29 +20292,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K277" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L277" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>13478</v>
+        <v>11150</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>337</v>
+        <v>159</v>
       </c>
       <c r="Q277" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44280</v>
+        <v>44427</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,11 +20369,11 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K278" t="n">
         <v>14000</v>
@@ -20382,23 +20382,23 @@
         <v>15000</v>
       </c>
       <c r="M278" t="n">
-        <v>14444</v>
+        <v>14605</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>481</v>
+        <v>14605</v>
       </c>
       <c r="Q278" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44390</v>
+        <v>44427</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,17 +20448,17 @@
         <v>400</v>
       </c>
       <c r="K279" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L279" t="n">
         <v>14000</v>
       </c>
       <c r="M279" t="n">
-        <v>13150</v>
+        <v>13575</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="Q279" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="K280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L280" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>12821</v>
+        <v>14404</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="Q280" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1080</v>
+        <v>610</v>
       </c>
       <c r="K281" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L281" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M281" t="n">
-        <v>15398</v>
+        <v>17525</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>15398</v>
+        <v>17525</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="K282" t="n">
         <v>15000</v>
@@ -20670,7 +20670,7 @@
         <v>16000</v>
       </c>
       <c r="M282" t="n">
-        <v>15581</v>
+        <v>15552</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q282" t="n">
         <v>30</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K283" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L283" t="n">
         <v>14000</v>
       </c>
-      <c r="L283" t="n">
-        <v>15000</v>
-      </c>
       <c r="M283" t="n">
-        <v>14545</v>
+        <v>13575</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="Q283" t="n">
         <v>40</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44390</v>
+        <v>44343</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>610</v>
+        <v>230</v>
       </c>
       <c r="K284" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L284" t="n">
         <v>14000</v>
       </c>
-      <c r="L284" t="n">
-        <v>15000</v>
-      </c>
       <c r="M284" t="n">
-        <v>14590</v>
+        <v>13478</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="Q284" t="n">
         <v>40</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44386</v>
+        <v>44280</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="K285" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L285" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M285" t="n">
-        <v>11552</v>
+        <v>14444</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>231</v>
+        <v>481</v>
       </c>
       <c r="Q285" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L286" t="n">
         <v>14000</v>
       </c>
       <c r="M286" t="n">
-        <v>13582</v>
+        <v>13150</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>13582</v>
+        <v>263</v>
       </c>
       <c r="Q286" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L287" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M287" t="n">
-        <v>11103</v>
+        <v>12821</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="Q287" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44301</v>
+        <v>44390</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,11 +21089,11 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>200</v>
+        <v>1080</v>
       </c>
       <c r="K288" t="n">
         <v>15000</v>
@@ -21102,11 +21102,11 @@
         <v>16000</v>
       </c>
       <c r="M288" t="n">
-        <v>15400</v>
+        <v>15398</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>513</v>
+        <v>15398</v>
       </c>
       <c r="Q288" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44301</v>
+        <v>44390</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="K289" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L289" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M289" t="n">
-        <v>11333</v>
+        <v>15581</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>283</v>
+        <v>519</v>
       </c>
       <c r="Q289" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44369</v>
+        <v>44390</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,29 +21228,29 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="K290" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L290" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>18448</v>
+        <v>14545</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q290" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44369</v>
+        <v>44390</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21300,29 +21300,29 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>300</v>
+        <v>610</v>
       </c>
       <c r="K291" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L291" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M291" t="n">
-        <v>16567</v>
+        <v>14590</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="Q291" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,29 +21372,29 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K292" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L292" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M292" t="n">
-        <v>18575</v>
+        <v>11552</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>18575</v>
+        <v>231</v>
       </c>
       <c r="Q292" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,20 +21453,20 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K293" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L293" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M293" t="n">
-        <v>17425</v>
+        <v>13582</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>581</v>
+        <v>13582</v>
       </c>
       <c r="Q293" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21528,13 +21528,13 @@
         <v>580</v>
       </c>
       <c r="K294" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L294" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M294" t="n">
-        <v>17448</v>
+        <v>11103</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>436</v>
+        <v>278</v>
       </c>
       <c r="Q294" t="n">
         <v>40</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L295" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M295" t="n">
-        <v>12395</v>
+        <v>15400</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>248</v>
+        <v>513</v>
       </c>
       <c r="Q295" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,20 +21669,20 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
         <v>10000</v>
       </c>
       <c r="L296" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M296" t="n">
-        <v>10540</v>
+        <v>11333</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="Q296" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,29 +21732,29 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K297" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L297" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M297" t="n">
-        <v>14460</v>
+        <v>18448</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>14460</v>
+        <v>369</v>
       </c>
       <c r="Q297" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21804,29 +21804,29 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K298" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L298" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M298" t="n">
-        <v>13448</v>
+        <v>16567</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>448</v>
+        <v>237</v>
       </c>
       <c r="Q298" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J299" t="n">
         <v>400</v>
       </c>
       <c r="K299" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L299" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M299" t="n">
-        <v>12575</v>
+        <v>18575</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>314</v>
+        <v>18575</v>
       </c>
       <c r="Q299" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44279</v>
+        <v>44369</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K300" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L300" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M300" t="n">
-        <v>15850</v>
+        <v>17425</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="Q300" t="n">
         <v>30</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44397</v>
+        <v>44369</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>275</v>
+        <v>580</v>
       </c>
       <c r="K301" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L301" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M301" t="n">
-        <v>16473</v>
+        <v>17448</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>16473</v>
+        <v>436</v>
       </c>
       <c r="Q301" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="K302" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L302" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M302" t="n">
-        <v>15529</v>
+        <v>12395</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>518</v>
+        <v>248</v>
       </c>
       <c r="Q302" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K303" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L303" t="n">
         <v>11000</v>
       </c>
-      <c r="L303" t="n">
-        <v>12000</v>
-      </c>
       <c r="M303" t="n">
-        <v>11611</v>
+        <v>10540</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="Q303" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,16 +22236,16 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="K304" t="n">
         <v>14000</v>
@@ -22254,11 +22254,11 @@
         <v>15000</v>
       </c>
       <c r="M304" t="n">
-        <v>14579</v>
+        <v>14460</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>364</v>
+        <v>14460</v>
       </c>
       <c r="Q304" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="K305" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M305" t="n">
-        <v>12000</v>
+        <v>13448</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>240</v>
+        <v>448</v>
       </c>
       <c r="Q305" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22380,29 +22380,29 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
         <v>400</v>
       </c>
       <c r="K306" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L306" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M306" t="n">
-        <v>17575</v>
+        <v>12575</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="Q306" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="K307" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L307" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M307" t="n">
-        <v>19435</v>
+        <v>15850</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>19435</v>
+        <v>528</v>
       </c>
       <c r="Q307" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="K308" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L308" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M308" t="n">
-        <v>18619</v>
+        <v>16473</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>621</v>
+        <v>16473</v>
       </c>
       <c r="Q308" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>70</v>
+        <v>680</v>
       </c>
       <c r="K309" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L309" t="n">
         <v>16000</v>
       </c>
-      <c r="L309" t="n">
-        <v>18000</v>
-      </c>
       <c r="M309" t="n">
-        <v>16857</v>
+        <v>15529</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="Q309" t="n">
         <v>30</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K310" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L310" t="n">
         <v>12000</v>
       </c>
       <c r="M310" t="n">
-        <v>11150</v>
+        <v>11611</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="Q310" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44372</v>
+        <v>44397</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K311" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L311" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M311" t="n">
-        <v>18000</v>
+        <v>14579</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>600</v>
+        <v>364</v>
       </c>
       <c r="Q311" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44372</v>
+        <v>44397</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="K312" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L312" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="Q312" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44286</v>
+        <v>44363</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K313" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L313" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M313" t="n">
-        <v>15400</v>
+        <v>17575</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>513</v>
+        <v>352</v>
       </c>
       <c r="Q313" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44286</v>
+        <v>44363</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K314" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L314" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M314" t="n">
-        <v>13417</v>
+        <v>19435</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>335</v>
+        <v>19435</v>
       </c>
       <c r="Q314" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K315" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L315" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M315" t="n">
-        <v>15552</v>
+        <v>18619</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>311</v>
+        <v>621</v>
       </c>
       <c r="Q315" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,11 +23105,11 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>590</v>
+        <v>70</v>
       </c>
       <c r="K316" t="n">
         <v>16000</v>
@@ -23118,11 +23118,11 @@
         <v>18000</v>
       </c>
       <c r="M316" t="n">
-        <v>16915</v>
+        <v>16857</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>16915</v>
+        <v>562</v>
       </c>
       <c r="Q316" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K317" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L317" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M317" t="n">
-        <v>16540</v>
+        <v>11150</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>551</v>
+        <v>372</v>
       </c>
       <c r="Q317" t="n">
         <v>30</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="K318" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L318" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M318" t="n">
-        <v>15540</v>
+        <v>18000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>388</v>
+        <v>600</v>
       </c>
       <c r="Q318" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23316,25 +23316,25 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K319" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L319" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M319" t="n">
-        <v>14460</v>
+        <v>17000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="Q319" t="n">
         <v>40</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="K320" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L320" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M320" t="n">
-        <v>19172</v>
+        <v>15400</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>19172</v>
+        <v>513</v>
       </c>
       <c r="Q320" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>630</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L321" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M321" t="n">
-        <v>16825</v>
+        <v>13417</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>561</v>
+        <v>335</v>
       </c>
       <c r="Q321" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23532,16 +23532,16 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K322" t="n">
         <v>15000</v>
@@ -23550,11 +23550,11 @@
         <v>16000</v>
       </c>
       <c r="M322" t="n">
-        <v>15425</v>
+        <v>15552</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="Q322" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,29 +23604,29 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="K323" t="n">
         <v>16000</v>
       </c>
       <c r="L323" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M323" t="n">
-        <v>16575</v>
+        <v>16915</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>332</v>
+        <v>16915</v>
       </c>
       <c r="Q323" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K324" t="n">
         <v>16000</v>
       </c>
       <c r="L324" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M324" t="n">
-        <v>16850</v>
+        <v>16540</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>16850</v>
+        <v>551</v>
       </c>
       <c r="Q324" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="K325" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L325" t="n">
         <v>16000</v>
       </c>
-      <c r="L325" t="n">
-        <v>17000</v>
-      </c>
       <c r="M325" t="n">
-        <v>16596</v>
+        <v>15540</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="Q325" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K326" t="n">
         <v>14000</v>
@@ -23838,11 +23838,11 @@
         <v>15000</v>
       </c>
       <c r="M326" t="n">
-        <v>14425</v>
+        <v>14460</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="Q326" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K327" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L327" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M327" t="n">
-        <v>13556</v>
+        <v>19172</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>339</v>
+        <v>19172</v>
       </c>
       <c r="Q327" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44357</v>
+        <v>44351</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,20 +23973,20 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>770</v>
+        <v>630</v>
       </c>
       <c r="K328" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L328" t="n">
         <v>18000</v>
       </c>
       <c r="M328" t="n">
-        <v>17545</v>
+        <v>16825</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>351</v>
+        <v>561</v>
       </c>
       <c r="Q328" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44357</v>
+        <v>44351</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K329" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L329" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M329" t="n">
-        <v>18568</v>
+        <v>15425</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>18568</v>
+        <v>386</v>
       </c>
       <c r="Q329" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24117,20 +24117,20 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K330" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L330" t="n">
         <v>17000</v>
       </c>
-      <c r="L330" t="n">
-        <v>18000</v>
-      </c>
       <c r="M330" t="n">
-        <v>17236</v>
+        <v>16575</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>575</v>
+        <v>332</v>
       </c>
       <c r="Q330" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24180,29 +24180,29 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K331" t="n">
         <v>16000</v>
       </c>
       <c r="L331" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M331" t="n">
-        <v>16395</v>
+        <v>16850</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>410</v>
+        <v>16850</v>
       </c>
       <c r="Q331" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44411</v>
+        <v>44365</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,20 +24261,20 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K332" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L332" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M332" t="n">
-        <v>9575</v>
+        <v>16596</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>192</v>
+        <v>553</v>
       </c>
       <c r="Q332" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44411</v>
+        <v>44306</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24324,29 +24324,29 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
         <v>400</v>
       </c>
       <c r="K333" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L333" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M333" t="n">
-        <v>8425</v>
+        <v>14425</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="Q333" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44411</v>
+        <v>44306</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,11 +24401,11 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K334" t="n">
         <v>13000</v>
@@ -24414,11 +24414,11 @@
         <v>14000</v>
       </c>
       <c r="M334" t="n">
-        <v>13414</v>
+        <v>13556</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>13414</v>
+        <v>339</v>
       </c>
       <c r="Q334" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,20 +24477,20 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="K335" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L335" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M335" t="n">
-        <v>12425</v>
+        <v>17545</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="Q335" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24540,29 +24540,29 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="K336" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L336" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M336" t="n">
-        <v>17460</v>
+        <v>18568</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>349</v>
+        <v>18568</v>
       </c>
       <c r="Q336" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24612,29 +24612,29 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K337" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L337" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M337" t="n">
-        <v>15575</v>
+        <v>17236</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>222</v>
+        <v>575</v>
       </c>
       <c r="Q337" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,29 +24684,29 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K338" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L338" t="n">
         <v>17000</v>
       </c>
-      <c r="L338" t="n">
-        <v>18000</v>
-      </c>
       <c r="M338" t="n">
-        <v>17552</v>
+        <v>16395</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>585</v>
+        <v>410</v>
       </c>
       <c r="Q338" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,20 +24765,20 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K339" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L339" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M339" t="n">
-        <v>16429</v>
+        <v>9575</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>548</v>
+        <v>192</v>
       </c>
       <c r="Q339" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,17 +24840,17 @@
         <v>400</v>
       </c>
       <c r="K340" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L340" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M340" t="n">
-        <v>16425</v>
+        <v>8425</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>411</v>
+        <v>120</v>
       </c>
       <c r="Q340" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24905,36 +24905,36 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K341" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L341" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M341" t="n">
-        <v>15000</v>
+        <v>13414</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>500</v>
+        <v>13414</v>
       </c>
       <c r="Q341" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,20 +24981,20 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K342" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L342" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M342" t="n">
-        <v>17095</v>
+        <v>12425</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="Q342" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K343" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L343" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M343" t="n">
-        <v>16622</v>
+        <v>17460</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="Q343" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25116,29 +25116,29 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K344" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L344" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M344" t="n">
-        <v>18548</v>
+        <v>15575</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>18548</v>
+        <v>222</v>
       </c>
       <c r="Q344" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J345" t="n">
         <v>580</v>
       </c>
       <c r="K345" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L345" t="n">
         <v>18000</v>
       </c>
       <c r="M345" t="n">
-        <v>17103</v>
+        <v>17552</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="Q345" t="n">
         <v>30</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K346" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L346" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M346" t="n">
-        <v>15552</v>
+        <v>16429</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>389</v>
+        <v>548</v>
       </c>
       <c r="Q346" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25332,25 +25332,25 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K347" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L347" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M347" t="n">
-        <v>15548</v>
+        <v>16425</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="Q347" t="n">
         <v>40</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,32 +25413,32 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="K348" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L348" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M348" t="n">
-        <v>11452</v>
+        <v>15000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>229</v>
+        <v>500</v>
       </c>
       <c r="Q348" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25476,29 +25476,29 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K349" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L349" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M349" t="n">
-        <v>14571</v>
+        <v>17095</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>14571</v>
+        <v>342</v>
       </c>
       <c r="Q349" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25548,29 +25548,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="K350" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L350" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M350" t="n">
-        <v>12425</v>
+        <v>16622</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>414</v>
+        <v>237</v>
       </c>
       <c r="Q350" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,24 +25625,24 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K351" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L351" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M351" t="n">
-        <v>11575</v>
+        <v>18548</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>289</v>
+        <v>18548</v>
       </c>
       <c r="Q351" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K352" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L352" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M352" t="n">
-        <v>15575</v>
+        <v>17103</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="Q352" t="n">
         <v>30</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K353" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L353" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M353" t="n">
-        <v>13575</v>
+        <v>15552</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,12 +25795,516 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="Q353" t="n">
         <v>40</v>
       </c>
       <c r="R353" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>6</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E354" t="n">
+        <v>13</v>
+      </c>
+      <c r="F354" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>420</v>
+      </c>
+      <c r="K354" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L354" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M354" t="n">
+        <v>15548</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>40</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>6</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E355" t="n">
+        <v>13</v>
+      </c>
+      <c r="F355" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>310</v>
+      </c>
+      <c r="K355" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L355" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M355" t="n">
+        <v>11452</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
+        <v>229</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>50</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>6</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E356" t="n">
+        <v>13</v>
+      </c>
+      <c r="F356" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>630</v>
+      </c>
+      <c r="K356" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L356" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M356" t="n">
+        <v>14571</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P356" t="n">
+        <v>14571</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>1</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>6</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E357" t="n">
+        <v>13</v>
+      </c>
+      <c r="F357" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>400</v>
+      </c>
+      <c r="K357" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L357" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M357" t="n">
+        <v>12425</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>30</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>6</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E358" t="n">
+        <v>13</v>
+      </c>
+      <c r="F358" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>400</v>
+      </c>
+      <c r="K358" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L358" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M358" t="n">
+        <v>11575</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>289</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>40</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>6</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E359" t="n">
+        <v>13</v>
+      </c>
+      <c r="F359" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>400</v>
+      </c>
+      <c r="K359" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L359" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M359" t="n">
+        <v>15575</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>519</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>30</v>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>6</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E360" t="n">
+        <v>13</v>
+      </c>
+      <c r="F360" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>400</v>
+      </c>
+      <c r="K360" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L360" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M360" t="n">
+        <v>13575</v>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P360" t="n">
+        <v>339</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>40</v>
+      </c>
+      <c r="R360" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,20 +21525,20 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K294" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L294" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M294" t="n">
-        <v>15400</v>
+        <v>9150</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>513</v>
+        <v>183</v>
       </c>
       <c r="Q294" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K295" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M295" t="n">
-        <v>11333</v>
+        <v>7575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="Q295" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,29 +21660,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="K296" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L296" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M296" t="n">
-        <v>18448</v>
+        <v>10836</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>369</v>
+        <v>10836</v>
       </c>
       <c r="Q296" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,29 +21732,29 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K297" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L297" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M297" t="n">
-        <v>16567</v>
+        <v>8425</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="Q297" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21804,41 +21804,41 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K298" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M298" t="n">
-        <v>18575</v>
+        <v>7469</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>18575</v>
+        <v>187</v>
       </c>
       <c r="Q298" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K299" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L299" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M299" t="n">
-        <v>17425</v>
+        <v>15400</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>581</v>
+        <v>513</v>
       </c>
       <c r="Q299" t="n">
         <v>30</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="K300" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L300" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M300" t="n">
-        <v>17448</v>
+        <v>11333</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="Q300" t="n">
         <v>40</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L301" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M301" t="n">
-        <v>12395</v>
+        <v>18448</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="Q301" t="n">
         <v>50</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K302" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L302" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M302" t="n">
-        <v>10540</v>
+        <v>16567</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="Q302" t="n">
         <v>70</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K303" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L303" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M303" t="n">
-        <v>14460</v>
+        <v>18575</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>14460</v>
+        <v>18575</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K304" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L304" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M304" t="n">
-        <v>13448</v>
+        <v>17425</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>448</v>
+        <v>581</v>
       </c>
       <c r="Q304" t="n">
         <v>30</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K305" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L305" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M305" t="n">
-        <v>12575</v>
+        <v>17448</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>314</v>
+        <v>436</v>
       </c>
       <c r="Q305" t="n">
         <v>40</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="K306" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L306" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M306" t="n">
-        <v>15850</v>
+        <v>12395</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>528</v>
+        <v>248</v>
       </c>
       <c r="Q306" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22452,29 +22452,29 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="K307" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M307" t="n">
-        <v>16473</v>
+        <v>10540</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>16473</v>
+        <v>151</v>
       </c>
       <c r="Q307" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="K308" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L308" t="n">
         <v>15000</v>
       </c>
-      <c r="L308" t="n">
-        <v>16000</v>
-      </c>
       <c r="M308" t="n">
-        <v>15529</v>
+        <v>14460</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>518</v>
+        <v>14460</v>
       </c>
       <c r="Q308" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="K309" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L309" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M309" t="n">
-        <v>11611</v>
+        <v>13448</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="Q309" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22668,25 +22668,25 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K310" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L310" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M310" t="n">
-        <v>14579</v>
+        <v>12575</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="Q310" t="n">
         <v>40</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,29 +22740,29 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K311" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M311" t="n">
-        <v>12000</v>
+        <v>15850</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>240</v>
+        <v>528</v>
       </c>
       <c r="Q311" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22812,29 +22812,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="K312" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L312" t="n">
         <v>17000</v>
       </c>
-      <c r="L312" t="n">
-        <v>18000</v>
-      </c>
       <c r="M312" t="n">
-        <v>17575</v>
+        <v>16473</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>352</v>
+        <v>16473</v>
       </c>
       <c r="Q312" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>230</v>
+        <v>680</v>
       </c>
       <c r="K313" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L313" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M313" t="n">
-        <v>19435</v>
+        <v>15529</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>19435</v>
+        <v>518</v>
       </c>
       <c r="Q313" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K314" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L314" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M314" t="n">
-        <v>18619</v>
+        <v>11611</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>621</v>
+        <v>290</v>
       </c>
       <c r="Q314" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>70</v>
+        <v>570</v>
       </c>
       <c r="K315" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L315" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M315" t="n">
-        <v>16857</v>
+        <v>14579</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>562</v>
+        <v>364</v>
       </c>
       <c r="Q315" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23100,29 +23100,29 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="K316" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L316" t="n">
         <v>12000</v>
       </c>
       <c r="M316" t="n">
-        <v>11150</v>
+        <v>12000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="Q316" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K317" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L317" t="n">
         <v>18000</v>
       </c>
       <c r="M317" t="n">
-        <v>18000</v>
+        <v>17575</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="Q317" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K318" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M318" t="n">
-        <v>17000</v>
+        <v>19435</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>425</v>
+        <v>19435</v>
       </c>
       <c r="Q318" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44286</v>
+        <v>44363</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K319" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L319" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M319" t="n">
-        <v>15400</v>
+        <v>18619</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>513</v>
+        <v>621</v>
       </c>
       <c r="Q319" t="n">
         <v>30</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K320" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L320" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M320" t="n">
-        <v>13417</v>
+        <v>16857</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>335</v>
+        <v>562</v>
       </c>
       <c r="Q320" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K321" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L321" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M321" t="n">
-        <v>15552</v>
+        <v>11150</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="Q321" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>590</v>
+        <v>290</v>
       </c>
       <c r="K322" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L322" t="n">
         <v>18000</v>
       </c>
       <c r="M322" t="n">
-        <v>16915</v>
+        <v>18000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>16915</v>
+        <v>600</v>
       </c>
       <c r="Q322" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K323" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L323" t="n">
         <v>17000</v>
       </c>
       <c r="M323" t="n">
-        <v>16540</v>
+        <v>17000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>551</v>
+        <v>425</v>
       </c>
       <c r="Q323" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,11 +23681,11 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K324" t="n">
         <v>15000</v>
@@ -23694,11 +23694,11 @@
         <v>16000</v>
       </c>
       <c r="M324" t="n">
-        <v>15540</v>
+        <v>15400</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>388</v>
+        <v>513</v>
       </c>
       <c r="Q324" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23748,25 +23748,25 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K325" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L325" t="n">
         <v>14000</v>
       </c>
-      <c r="L325" t="n">
-        <v>15000</v>
-      </c>
       <c r="M325" t="n">
-        <v>14460</v>
+        <v>13417</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="Q325" t="n">
         <v>40</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23820,29 +23820,29 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K326" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L326" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M326" t="n">
-        <v>19172</v>
+        <v>15552</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>19172</v>
+        <v>311</v>
       </c>
       <c r="Q326" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,11 +23897,11 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="K327" t="n">
         <v>16000</v>
@@ -23910,11 +23910,11 @@
         <v>18000</v>
       </c>
       <c r="M327" t="n">
-        <v>16825</v>
+        <v>16915</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>561</v>
+        <v>16915</v>
       </c>
       <c r="Q327" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K328" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L328" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M328" t="n">
-        <v>15425</v>
+        <v>16540</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="Q328" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,29 +24036,29 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K329" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L329" t="n">
         <v>16000</v>
       </c>
-      <c r="L329" t="n">
-        <v>17000</v>
-      </c>
       <c r="M329" t="n">
-        <v>16575</v>
+        <v>15540</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="Q329" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24108,29 +24108,29 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K330" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L330" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M330" t="n">
-        <v>16850</v>
+        <v>14460</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>16850</v>
+        <v>362</v>
       </c>
       <c r="Q330" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="K331" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L331" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M331" t="n">
-        <v>16596</v>
+        <v>19172</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>553</v>
+        <v>19172</v>
       </c>
       <c r="Q331" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K332" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L332" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M332" t="n">
-        <v>14425</v>
+        <v>16825</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="Q332" t="n">
         <v>30</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K333" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L333" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M333" t="n">
-        <v>13556</v>
+        <v>15425</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="Q333" t="n">
         <v>40</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K334" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L334" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M334" t="n">
-        <v>10897</v>
+        <v>16575</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="Q334" t="n">
         <v>50</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,29 +24468,29 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J335" t="n">
         <v>400</v>
       </c>
       <c r="K335" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L335" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M335" t="n">
-        <v>9150</v>
+        <v>16850</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>131</v>
+        <v>16850</v>
       </c>
       <c r="Q335" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="K336" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L336" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M336" t="n">
-        <v>12460</v>
+        <v>16596</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>12460</v>
+        <v>553</v>
       </c>
       <c r="Q336" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K337" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L337" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M337" t="n">
-        <v>10920</v>
+        <v>14425</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>364</v>
+        <v>481</v>
       </c>
       <c r="Q337" t="n">
         <v>30</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,25 +24684,25 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="K338" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L338" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M338" t="n">
-        <v>8452</v>
+        <v>13556</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="Q338" t="n">
         <v>40</v>
@@ -24756,25 +24756,25 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K339" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L339" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M339" t="n">
-        <v>6605</v>
+        <v>10897</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="Q339" t="n">
         <v>50</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>770</v>
+        <v>400</v>
       </c>
       <c r="K340" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L340" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M340" t="n">
-        <v>17545</v>
+        <v>9150</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c r="Q340" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>740</v>
+        <v>500</v>
       </c>
       <c r="K341" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L341" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M341" t="n">
-        <v>18568</v>
+        <v>12460</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>18568</v>
+        <v>12460</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K342" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L342" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M342" t="n">
-        <v>17236</v>
+        <v>10920</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>575</v>
+        <v>364</v>
       </c>
       <c r="Q342" t="n">
         <v>30</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K343" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L343" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M343" t="n">
-        <v>16395</v>
+        <v>8452</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>410</v>
+        <v>211</v>
       </c>
       <c r="Q343" t="n">
         <v>40</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44411</v>
+        <v>44461</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25116,25 +25116,25 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K344" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L344" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M344" t="n">
-        <v>9575</v>
+        <v>6605</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="Q344" t="n">
         <v>50</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="K345" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L345" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M345" t="n">
-        <v>8425</v>
+        <v>17545</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="Q345" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>290</v>
+        <v>740</v>
       </c>
       <c r="K346" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L346" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M346" t="n">
-        <v>13414</v>
+        <v>18568</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>13414</v>
+        <v>18568</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K347" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L347" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M347" t="n">
-        <v>12425</v>
+        <v>17236</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>414</v>
+        <v>575</v>
       </c>
       <c r="Q347" t="n">
         <v>30</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,20 +25413,20 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="K348" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L348" t="n">
         <v>17000</v>
       </c>
-      <c r="L348" t="n">
-        <v>18000</v>
-      </c>
       <c r="M348" t="n">
-        <v>17460</v>
+        <v>16395</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="Q348" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,24 +25481,24 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
         <v>400</v>
       </c>
       <c r="K349" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L349" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M349" t="n">
-        <v>15575</v>
+        <v>9575</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="Q349" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25548,29 +25548,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K350" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L350" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M350" t="n">
-        <v>17552</v>
+        <v>8425</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>585</v>
+        <v>120</v>
       </c>
       <c r="Q350" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,24 +25625,24 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K351" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L351" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M351" t="n">
-        <v>16429</v>
+        <v>13414</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>548</v>
+        <v>13414</v>
       </c>
       <c r="Q351" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,24 +25697,24 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
         <v>400</v>
       </c>
       <c r="K352" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L352" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M352" t="n">
-        <v>16425</v>
+        <v>12425</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q352" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,32 +25773,32 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K353" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L353" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M353" t="n">
-        <v>15000</v>
+        <v>17460</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>500</v>
+        <v>349</v>
       </c>
       <c r="Q353" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,24 +25841,24 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K354" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L354" t="n">
         <v>16000</v>
       </c>
-      <c r="L354" t="n">
-        <v>18000</v>
-      </c>
       <c r="M354" t="n">
-        <v>17095</v>
+        <v>15575</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c r="Q354" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,29 +25908,29 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="K355" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L355" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M355" t="n">
-        <v>16622</v>
+        <v>17552</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>237</v>
+        <v>585</v>
       </c>
       <c r="Q355" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,24 +25985,24 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="K356" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L356" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M356" t="n">
-        <v>18548</v>
+        <v>16429</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>18548</v>
+        <v>548</v>
       </c>
       <c r="Q356" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,20 +26061,20 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K357" t="n">
         <v>16000</v>
       </c>
       <c r="L357" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M357" t="n">
-        <v>17103</v>
+        <v>16425</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>570</v>
+        <v>411</v>
       </c>
       <c r="Q357" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,36 +26129,36 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K358" t="n">
         <v>15000</v>
       </c>
       <c r="L358" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M358" t="n">
-        <v>15552</v>
+        <v>15000</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q358" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26208,17 +26208,17 @@
         <v>420</v>
       </c>
       <c r="K359" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L359" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M359" t="n">
-        <v>15548</v>
+        <v>17095</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="Q359" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,24 +26273,24 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K360" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L360" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M360" t="n">
-        <v>11452</v>
+        <v>16622</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q360" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K361" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L361" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M361" t="n">
-        <v>14571</v>
+        <v>18548</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>14571</v>
+        <v>18548</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K362" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L362" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M362" t="n">
-        <v>12425</v>
+        <v>17103</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>414</v>
+        <v>570</v>
       </c>
       <c r="Q362" t="n">
         <v>30</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K363" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L363" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M363" t="n">
-        <v>11575</v>
+        <v>15552</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="Q363" t="n">
         <v>40</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,7 +26565,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K364" t="n">
         <v>15000</v>
@@ -26574,11 +26574,11 @@
         <v>16000</v>
       </c>
       <c r="M364" t="n">
-        <v>15575</v>
+        <v>15548</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>519</v>
+        <v>389</v>
       </c>
       <c r="Q364" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,58 +26613,418 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E365" t="n">
+        <v>13</v>
+      </c>
+      <c r="F365" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>310</v>
+      </c>
+      <c r="K365" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L365" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M365" t="n">
+        <v>11452</v>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P365" t="n">
+        <v>229</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>50</v>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>6</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E366" t="n">
+        <v>13</v>
+      </c>
+      <c r="F366" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>630</v>
+      </c>
+      <c r="K366" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L366" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M366" t="n">
+        <v>14571</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
+        <v>14571</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>1</v>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>6</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E367" t="n">
+        <v>13</v>
+      </c>
+      <c r="F367" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>400</v>
+      </c>
+      <c r="K367" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L367" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M367" t="n">
+        <v>12425</v>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>30</v>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>6</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E368" t="n">
+        <v>13</v>
+      </c>
+      <c r="F368" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>400</v>
+      </c>
+      <c r="K368" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L368" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M368" t="n">
+        <v>11575</v>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P368" t="n">
+        <v>289</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>40</v>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>6</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E365" t="n">
-        <v>13</v>
-      </c>
-      <c r="F365" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr">
+      <c r="E369" t="n">
+        <v>13</v>
+      </c>
+      <c r="F369" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I365" t="inlineStr">
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>400</v>
+      </c>
+      <c r="K369" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L369" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M369" t="n">
+        <v>15575</v>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P369" t="n">
+        <v>519</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>30</v>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>6</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E370" t="n">
+        <v>13</v>
+      </c>
+      <c r="F370" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J365" t="n">
+      <c r="J370" t="n">
         <v>400</v>
       </c>
-      <c r="K365" t="n">
+      <c r="K370" t="n">
         <v>13000</v>
       </c>
-      <c r="L365" t="n">
+      <c r="L370" t="n">
         <v>14000</v>
       </c>
-      <c r="M365" t="n">
+      <c r="M370" t="n">
         <v>13575</v>
       </c>
-      <c r="N365" t="inlineStr">
+      <c r="N370" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P365" t="n">
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P370" t="n">
         <v>339</v>
       </c>
-      <c r="Q365" t="n">
+      <c r="Q370" t="n">
         <v>40</v>
       </c>
-      <c r="R365" t="inlineStr">
+      <c r="R370" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R382"/>
+  <dimension ref="A1:R389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24333,20 +24333,20 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="K333" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L333" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M333" t="n">
-        <v>11150</v>
+        <v>12915</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="Q333" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K334" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L334" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M334" t="n">
-        <v>18000</v>
+        <v>12448</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>600</v>
+        <v>12448</v>
       </c>
       <c r="Q334" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K335" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L335" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M335" t="n">
-        <v>17000</v>
+        <v>11209</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="Q335" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44286</v>
+        <v>44474</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,32 +24549,32 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="K336" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>16000</v>
+        <v>550</v>
       </c>
       <c r="M336" t="n">
-        <v>15400</v>
+        <v>517</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q336" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44286</v>
+        <v>44474</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,32 +24621,32 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>120</v>
+        <v>5000</v>
       </c>
       <c r="K337" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="L337" t="n">
-        <v>14000</v>
+        <v>450</v>
       </c>
       <c r="M337" t="n">
-        <v>13417</v>
+        <v>420</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="Q337" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,41 +24684,41 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>580</v>
+        <v>3500</v>
       </c>
       <c r="K338" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L338" t="n">
-        <v>16000</v>
+        <v>350</v>
       </c>
       <c r="M338" t="n">
-        <v>15552</v>
+        <v>321</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q338" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24756,29 +24756,29 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="K339" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L339" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M339" t="n">
-        <v>16915</v>
+        <v>8941</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>16915</v>
+        <v>224</v>
       </c>
       <c r="Q339" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K340" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L340" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M340" t="n">
-        <v>16540</v>
+        <v>11150</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>551</v>
+        <v>372</v>
       </c>
       <c r="Q340" t="n">
         <v>30</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="K341" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L341" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M341" t="n">
-        <v>15540</v>
+        <v>18000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>388</v>
+        <v>600</v>
       </c>
       <c r="Q341" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,25 +24972,25 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K342" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L342" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M342" t="n">
-        <v>14460</v>
+        <v>17000</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="Q342" t="n">
         <v>40</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="K343" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L343" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M343" t="n">
-        <v>19172</v>
+        <v>15400</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>19172</v>
+        <v>513</v>
       </c>
       <c r="Q343" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>630</v>
+        <v>120</v>
       </c>
       <c r="K344" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L344" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M344" t="n">
-        <v>16825</v>
+        <v>13417</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>561</v>
+        <v>335</v>
       </c>
       <c r="Q344" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25188,16 +25188,16 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K345" t="n">
         <v>15000</v>
@@ -25206,11 +25206,11 @@
         <v>16000</v>
       </c>
       <c r="M345" t="n">
-        <v>15425</v>
+        <v>15552</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="Q345" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25260,29 +25260,29 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="K346" t="n">
         <v>16000</v>
       </c>
       <c r="L346" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M346" t="n">
-        <v>16575</v>
+        <v>16915</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>332</v>
+        <v>16915</v>
       </c>
       <c r="Q346" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,24 +25337,24 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K347" t="n">
         <v>16000</v>
       </c>
       <c r="L347" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M347" t="n">
-        <v>16850</v>
+        <v>16540</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>16850</v>
+        <v>551</v>
       </c>
       <c r="Q347" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,24 +25409,24 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="K348" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L348" t="n">
         <v>16000</v>
       </c>
-      <c r="L348" t="n">
-        <v>17000</v>
-      </c>
       <c r="M348" t="n">
-        <v>16596</v>
+        <v>15540</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="Q348" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K349" t="n">
         <v>14000</v>
@@ -25494,11 +25494,11 @@
         <v>15000</v>
       </c>
       <c r="M349" t="n">
-        <v>14425</v>
+        <v>14460</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="Q349" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,24 +25553,24 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K350" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L350" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M350" t="n">
-        <v>13556</v>
+        <v>19172</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>339</v>
+        <v>19172</v>
       </c>
       <c r="Q350" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44461</v>
+        <v>44351</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,20 +25629,20 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K351" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L351" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M351" t="n">
-        <v>10897</v>
+        <v>16825</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>218</v>
+        <v>561</v>
       </c>
       <c r="Q351" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44461</v>
+        <v>44351</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,17 +25704,17 @@
         <v>400</v>
       </c>
       <c r="K352" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L352" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M352" t="n">
-        <v>9150</v>
+        <v>15425</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="Q352" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25764,29 +25764,29 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K353" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L353" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M353" t="n">
-        <v>12460</v>
+        <v>16575</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>12460</v>
+        <v>332</v>
       </c>
       <c r="Q353" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,24 +25841,24 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K354" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L354" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M354" t="n">
-        <v>10920</v>
+        <v>16850</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>364</v>
+        <v>16850</v>
       </c>
       <c r="Q354" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,32 +25917,32 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="K355" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L355" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M355" t="n">
-        <v>8452</v>
+        <v>16596</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>211</v>
+        <v>553</v>
       </c>
       <c r="Q355" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,41 +25980,41 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K356" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L356" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M356" t="n">
-        <v>6605</v>
+        <v>14425</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>132</v>
+        <v>481</v>
       </c>
       <c r="Q356" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,29 +26052,29 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>770</v>
+        <v>270</v>
       </c>
       <c r="K357" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L357" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M357" t="n">
-        <v>17545</v>
+        <v>13556</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="Q357" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26124,29 +26124,29 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>740</v>
+        <v>580</v>
       </c>
       <c r="K358" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L358" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M358" t="n">
-        <v>18568</v>
+        <v>10897</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>18568</v>
+        <v>218</v>
       </c>
       <c r="Q358" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,29 +26196,29 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K359" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L359" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M359" t="n">
-        <v>17236</v>
+        <v>9150</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>575</v>
+        <v>131</v>
       </c>
       <c r="Q359" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,29 +26268,29 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K360" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L360" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M360" t="n">
-        <v>16395</v>
+        <v>12460</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>410</v>
+        <v>12460</v>
       </c>
       <c r="Q360" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44411</v>
+        <v>44461</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,20 +26349,20 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K361" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M361" t="n">
-        <v>9575</v>
+        <v>10920</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="Q361" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44411</v>
+        <v>44461</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26412,16 +26412,16 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K362" t="n">
         <v>8000</v>
@@ -26430,23 +26430,23 @@
         <v>9000</v>
       </c>
       <c r="M362" t="n">
-        <v>8425</v>
+        <v>8452</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="Q362" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44411</v>
+        <v>44461</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,41 +26484,41 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="K363" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L363" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M363" t="n">
-        <v>13414</v>
+        <v>6605</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>13414</v>
+        <v>132</v>
       </c>
       <c r="Q363" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,20 +26565,20 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="K364" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L364" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M364" t="n">
-        <v>12425</v>
+        <v>17545</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="Q364" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,29 +26628,29 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="K365" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L365" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M365" t="n">
-        <v>17460</v>
+        <v>18568</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>349</v>
+        <v>18568</v>
       </c>
       <c r="Q365" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26700,29 +26700,29 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K366" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L366" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M366" t="n">
-        <v>15575</v>
+        <v>17236</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>222</v>
+        <v>575</v>
       </c>
       <c r="Q366" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26772,29 +26772,29 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K367" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L367" t="n">
         <v>17000</v>
       </c>
-      <c r="L367" t="n">
-        <v>18000</v>
-      </c>
       <c r="M367" t="n">
-        <v>17552</v>
+        <v>16395</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>585</v>
+        <v>410</v>
       </c>
       <c r="Q367" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,20 +26853,20 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K368" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L368" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M368" t="n">
-        <v>16429</v>
+        <v>9575</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>548</v>
+        <v>192</v>
       </c>
       <c r="Q368" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,17 +26928,17 @@
         <v>400</v>
       </c>
       <c r="K369" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L369" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M369" t="n">
-        <v>16425</v>
+        <v>8425</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>411</v>
+        <v>120</v>
       </c>
       <c r="Q369" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,36 +26993,36 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K370" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L370" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M370" t="n">
-        <v>15000</v>
+        <v>13414</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>500</v>
+        <v>13414</v>
       </c>
       <c r="Q370" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,20 +27069,20 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K371" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L371" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M371" t="n">
-        <v>17095</v>
+        <v>12425</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="Q371" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,24 +27137,24 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K372" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L372" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M372" t="n">
-        <v>16622</v>
+        <v>17460</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="Q372" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27204,29 +27204,29 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K373" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L373" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M373" t="n">
-        <v>18548</v>
+        <v>15575</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>18548</v>
+        <v>222</v>
       </c>
       <c r="Q373" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J374" t="n">
         <v>580</v>
       </c>
       <c r="K374" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L374" t="n">
         <v>18000</v>
       </c>
       <c r="M374" t="n">
-        <v>17103</v>
+        <v>17552</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="Q374" t="n">
         <v>30</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,24 +27353,24 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K375" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L375" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M375" t="n">
-        <v>15552</v>
+        <v>16429</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>389</v>
+        <v>548</v>
       </c>
       <c r="Q375" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,25 +27420,25 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K376" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L376" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M376" t="n">
-        <v>15548</v>
+        <v>16425</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="Q376" t="n">
         <v>40</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,32 +27501,32 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="K377" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L377" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M377" t="n">
-        <v>11452</v>
+        <v>15000</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>229</v>
+        <v>500</v>
       </c>
       <c r="Q377" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K378" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L378" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M378" t="n">
-        <v>14571</v>
+        <v>17095</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>14571</v>
+        <v>342</v>
       </c>
       <c r="Q378" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,29 +27636,29 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="K379" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L379" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M379" t="n">
-        <v>12425</v>
+        <v>16622</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>414</v>
+        <v>237</v>
       </c>
       <c r="Q379" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K380" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L380" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M380" t="n">
-        <v>11575</v>
+        <v>18548</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>289</v>
+        <v>18548</v>
       </c>
       <c r="Q380" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K381" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L381" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M381" t="n">
-        <v>15575</v>
+        <v>17103</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="Q381" t="n">
         <v>30</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K382" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L382" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M382" t="n">
-        <v>13575</v>
+        <v>15552</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,12 +27883,516 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="Q382" t="n">
         <v>40</v>
       </c>
       <c r="R382" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>6</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D383" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E383" t="n">
+        <v>13</v>
+      </c>
+      <c r="F383" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>420</v>
+      </c>
+      <c r="K383" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L383" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M383" t="n">
+        <v>15548</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P383" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>40</v>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>6</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D384" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E384" t="n">
+        <v>13</v>
+      </c>
+      <c r="F384" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>310</v>
+      </c>
+      <c r="K384" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L384" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M384" t="n">
+        <v>11452</v>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
+        <v>229</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>50</v>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>6</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E385" t="n">
+        <v>13</v>
+      </c>
+      <c r="F385" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>630</v>
+      </c>
+      <c r="K385" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L385" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M385" t="n">
+        <v>14571</v>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P385" t="n">
+        <v>14571</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>1</v>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>6</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E386" t="n">
+        <v>13</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>400</v>
+      </c>
+      <c r="K386" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L386" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M386" t="n">
+        <v>12425</v>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>30</v>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>6</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E387" t="n">
+        <v>13</v>
+      </c>
+      <c r="F387" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>400</v>
+      </c>
+      <c r="K387" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L387" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M387" t="n">
+        <v>11575</v>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P387" t="n">
+        <v>289</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>40</v>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>6</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E388" t="n">
+        <v>13</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>400</v>
+      </c>
+      <c r="K388" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L388" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M388" t="n">
+        <v>15575</v>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
+        <v>519</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>30</v>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>6</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E389" t="n">
+        <v>13</v>
+      </c>
+      <c r="F389" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>400</v>
+      </c>
+      <c r="K389" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L389" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M389" t="n">
+        <v>13575</v>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P389" t="n">
+        <v>339</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>40</v>
+      </c>
+      <c r="R389" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19865,24 +19865,24 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>630</v>
+        <v>490</v>
       </c>
       <c r="K271" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L271" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M271" t="n">
-        <v>19429</v>
+        <v>17469</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>19429</v>
+        <v>582</v>
       </c>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,11 +19937,11 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K272" t="n">
         <v>17000</v>
@@ -19950,11 +19950,11 @@
         <v>18000</v>
       </c>
       <c r="M272" t="n">
-        <v>17469</v>
+        <v>17540</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="Q272" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44362</v>
+        <v>44300</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,24 +20009,24 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L273" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M273" t="n">
-        <v>17540</v>
+        <v>14575</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="Q273" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K274" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L274" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M274" t="n">
-        <v>14575</v>
+        <v>11583</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>486</v>
+        <v>290</v>
       </c>
       <c r="Q274" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44300</v>
+        <v>44349</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,29 +20148,29 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>790</v>
       </c>
       <c r="K275" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L275" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M275" t="n">
-        <v>11583</v>
+        <v>14532</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q275" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>790</v>
+        <v>510</v>
       </c>
       <c r="K276" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L276" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M276" t="n">
-        <v>14532</v>
+        <v>16294</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>291</v>
+        <v>543</v>
       </c>
       <c r="Q276" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="K277" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L277" t="n">
         <v>16000</v>
       </c>
-      <c r="L277" t="n">
-        <v>17000</v>
-      </c>
       <c r="M277" t="n">
-        <v>16294</v>
+        <v>15438</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>543</v>
+        <v>386</v>
       </c>
       <c r="Q277" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20364,25 +20364,25 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L278" t="n">
         <v>15000</v>
       </c>
-      <c r="L278" t="n">
-        <v>16000</v>
-      </c>
       <c r="M278" t="n">
-        <v>15438</v>
+        <v>14150</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="Q278" t="n">
         <v>40</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44349</v>
+        <v>44372</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K279" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L279" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M279" t="n">
-        <v>14150</v>
+        <v>18000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>354</v>
+        <v>600</v>
       </c>
       <c r="Q279" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K280" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L280" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M280" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="Q280" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20580,29 +20580,29 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="K281" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L281" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M281" t="n">
-        <v>17000</v>
+        <v>15413</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>425</v>
+        <v>308</v>
       </c>
       <c r="Q281" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,29 +20652,29 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M282" t="n">
-        <v>15413</v>
+        <v>17548</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>308</v>
+        <v>17548</v>
       </c>
       <c r="Q282" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20729,24 +20729,24 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="K283" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L283" t="n">
         <v>17000</v>
       </c>
-      <c r="L283" t="n">
-        <v>18000</v>
-      </c>
       <c r="M283" t="n">
-        <v>17548</v>
+        <v>16531</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>17548</v>
+        <v>551</v>
       </c>
       <c r="Q283" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20801,24 +20801,24 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="K284" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L284" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M284" t="n">
-        <v>16531</v>
+        <v>14148</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>551</v>
+        <v>354</v>
       </c>
       <c r="Q284" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20868,25 +20868,25 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="K285" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L285" t="n">
         <v>15000</v>
       </c>
       <c r="M285" t="n">
-        <v>14148</v>
+        <v>14552</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q285" t="n">
         <v>40</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44350</v>
+        <v>44448</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="K286" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M286" t="n">
-        <v>14552</v>
+        <v>10959</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="Q286" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>730</v>
+        <v>650</v>
       </c>
       <c r="K287" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L287" t="n">
         <v>10000</v>
       </c>
-      <c r="L287" t="n">
-        <v>12000</v>
-      </c>
       <c r="M287" t="n">
-        <v>10959</v>
+        <v>9292</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="Q287" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="K288" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L288" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M288" t="n">
-        <v>9292</v>
+        <v>14652</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>133</v>
+        <v>14652</v>
       </c>
       <c r="Q288" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K289" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L289" t="n">
         <v>14000</v>
       </c>
-      <c r="L289" t="n">
-        <v>15000</v>
-      </c>
       <c r="M289" t="n">
-        <v>14652</v>
+        <v>13567</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>14652</v>
+        <v>452</v>
       </c>
       <c r="Q289" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>600</v>
+        <v>790</v>
       </c>
       <c r="K290" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L290" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M290" t="n">
-        <v>13567</v>
+        <v>8911</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="Q290" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K291" t="n">
         <v>8000</v>
       </c>
       <c r="L291" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M291" t="n">
-        <v>8911</v>
+        <v>8586</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="Q291" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44448</v>
+        <v>44385</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,25 +21372,25 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K292" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L292" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M292" t="n">
-        <v>8586</v>
+        <v>11575</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="Q292" t="n">
         <v>50</v>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K293" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L293" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M293" t="n">
-        <v>11575</v>
+        <v>12448</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>232</v>
+        <v>12448</v>
       </c>
       <c r="Q293" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="K294" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L294" t="n">
         <v>12000</v>
       </c>
-      <c r="L294" t="n">
-        <v>13000</v>
-      </c>
       <c r="M294" t="n">
-        <v>12448</v>
+        <v>11471</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>12448</v>
+        <v>382</v>
       </c>
       <c r="Q294" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K295" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L295" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M295" t="n">
-        <v>11471</v>
+        <v>9575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="Q295" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44385</v>
+        <v>44452</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,25 +21660,25 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
         <v>400</v>
       </c>
       <c r="K296" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L296" t="n">
         <v>10000</v>
       </c>
       <c r="M296" t="n">
-        <v>9575</v>
+        <v>9150</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Q296" t="n">
         <v>40</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K297" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L297" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M297" t="n">
-        <v>9150</v>
+        <v>12417</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="Q297" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L298" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M298" t="n">
-        <v>12417</v>
+        <v>9575</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="Q298" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,29 +21876,29 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K299" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L299" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M299" t="n">
-        <v>9575</v>
+        <v>14475</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>137</v>
+        <v>14475</v>
       </c>
       <c r="Q299" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>610</v>
+        <v>1030</v>
       </c>
       <c r="K300" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L300" t="n">
         <v>14000</v>
       </c>
-      <c r="L300" t="n">
-        <v>15000</v>
-      </c>
       <c r="M300" t="n">
-        <v>14475</v>
+        <v>13243</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>14475</v>
+        <v>441</v>
       </c>
       <c r="Q300" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,20 +22029,20 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1030</v>
+        <v>600</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L301" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M301" t="n">
-        <v>13243</v>
+        <v>9167</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>441</v>
+        <v>229</v>
       </c>
       <c r="Q301" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>600</v>
+        <v>3240</v>
       </c>
       <c r="K302" t="n">
         <v>8000</v>
       </c>
       <c r="L302" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M302" t="n">
-        <v>9167</v>
+        <v>10975</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q302" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3240</v>
+        <v>600</v>
       </c>
       <c r="K303" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L303" t="n">
         <v>8000</v>
       </c>
-      <c r="L303" t="n">
-        <v>14000</v>
-      </c>
       <c r="M303" t="n">
-        <v>10975</v>
+        <v>7417</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="Q303" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>600</v>
+        <v>1510</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L304" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M304" t="n">
-        <v>7417</v>
+        <v>9099</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="Q304" t="n">
         <v>70</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1510</v>
+        <v>2110</v>
       </c>
       <c r="K305" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M305" t="n">
-        <v>9099</v>
+        <v>14014</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>130</v>
+        <v>14014</v>
       </c>
       <c r="Q305" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2110</v>
+        <v>2950</v>
       </c>
       <c r="K306" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L306" t="n">
         <v>15000</v>
       </c>
       <c r="M306" t="n">
-        <v>14014</v>
+        <v>13071</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>14014</v>
+        <v>436</v>
       </c>
       <c r="Q306" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2950</v>
+        <v>1200</v>
       </c>
       <c r="K307" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M307" t="n">
-        <v>13071</v>
+        <v>12100</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="Q307" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22524,25 +22524,25 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="K308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L308" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M308" t="n">
-        <v>12100</v>
+        <v>8511</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="Q308" t="n">
         <v>40</v>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>880</v>
+        <v>590</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L309" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M309" t="n">
-        <v>8511</v>
+        <v>6780</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="Q309" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44435</v>
+        <v>44377</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22668,25 +22668,25 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="K310" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L310" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M310" t="n">
-        <v>6780</v>
+        <v>15413</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="Q310" t="n">
         <v>50</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="K311" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L311" t="n">
         <v>15000</v>
       </c>
-      <c r="L311" t="n">
-        <v>16000</v>
-      </c>
       <c r="M311" t="n">
-        <v>15413</v>
+        <v>14605</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="Q311" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22812,29 +22812,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K312" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L312" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M312" t="n">
-        <v>14605</v>
+        <v>15920</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>209</v>
+        <v>15920</v>
       </c>
       <c r="Q312" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>500</v>
+        <v>810</v>
       </c>
       <c r="K313" t="n">
         <v>15000</v>
       </c>
       <c r="L313" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M313" t="n">
-        <v>15920</v>
+        <v>15568</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>15920</v>
+        <v>519</v>
       </c>
       <c r="Q313" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K314" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L314" t="n">
         <v>15000</v>
       </c>
-      <c r="L314" t="n">
-        <v>16000</v>
-      </c>
       <c r="M314" t="n">
-        <v>15568</v>
+        <v>14448</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>519</v>
+        <v>361</v>
       </c>
       <c r="Q314" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44377</v>
+        <v>44433</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23028,29 +23028,29 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K315" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L315" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M315" t="n">
-        <v>14448</v>
+        <v>12395</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="Q315" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K316" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M316" t="n">
-        <v>12395</v>
+        <v>10540</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="Q316" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23172,29 +23172,29 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J317" t="n">
         <v>500</v>
       </c>
       <c r="K317" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L317" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M317" t="n">
-        <v>10540</v>
+        <v>14460</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>151</v>
+        <v>14460</v>
       </c>
       <c r="Q317" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K318" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L318" t="n">
         <v>14000</v>
       </c>
-      <c r="L318" t="n">
-        <v>15000</v>
-      </c>
       <c r="M318" t="n">
-        <v>14460</v>
+        <v>13448</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>14460</v>
+        <v>448</v>
       </c>
       <c r="Q318" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K319" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L319" t="n">
         <v>13000</v>
       </c>
-      <c r="L319" t="n">
-        <v>14000</v>
-      </c>
       <c r="M319" t="n">
-        <v>13448</v>
+        <v>12575</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>448</v>
+        <v>314</v>
       </c>
       <c r="Q319" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44433</v>
+        <v>44334</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23388,29 +23388,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
         <v>400</v>
       </c>
       <c r="K320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L320" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M320" t="n">
-        <v>12575</v>
+        <v>14575</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="Q320" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K321" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L321" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M321" t="n">
-        <v>14575</v>
+        <v>16520</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>292</v>
+        <v>551</v>
       </c>
       <c r="Q321" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K322" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L322" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M322" t="n">
-        <v>16520</v>
+        <v>14472</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>551</v>
+        <v>362</v>
       </c>
       <c r="Q322" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44334</v>
+        <v>44476</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,29 +23604,29 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>360</v>
+        <v>830</v>
       </c>
       <c r="K323" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L323" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M323" t="n">
-        <v>14472</v>
+        <v>10916</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="Q323" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K324" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L324" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M324" t="n">
-        <v>11552</v>
+        <v>8650</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="Q324" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K325" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L325" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M325" t="n">
-        <v>13582</v>
+        <v>10920</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>13582</v>
+        <v>10920</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>580</v>
+        <v>990</v>
       </c>
       <c r="K326" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L326" t="n">
         <v>10000</v>
       </c>
-      <c r="L326" t="n">
-        <v>12000</v>
-      </c>
       <c r="M326" t="n">
-        <v>11103</v>
+        <v>9566</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="Q326" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>290</v>
+        <v>1100</v>
       </c>
       <c r="K327" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L327" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M327" t="n">
-        <v>13414</v>
+        <v>8409</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="Q327" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,32 +23973,32 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="K328" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L328" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M328" t="n">
-        <v>12556</v>
+        <v>6825</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="Q328" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,29 +24036,29 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="K329" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L329" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M329" t="n">
-        <v>13444</v>
+        <v>11552</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>13444</v>
+        <v>231</v>
       </c>
       <c r="Q329" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,20 +24117,20 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="K330" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L330" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M330" t="n">
-        <v>12419</v>
+        <v>13582</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>414</v>
+        <v>13582</v>
       </c>
       <c r="Q330" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,20 +24189,20 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K331" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L331" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M331" t="n">
-        <v>8545</v>
+        <v>11103</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="Q331" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K332" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L332" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M332" t="n">
-        <v>17575</v>
+        <v>13414</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="Q332" t="n">
         <v>50</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24324,29 +24324,29 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K333" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L333" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M333" t="n">
-        <v>19435</v>
+        <v>12556</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>19435</v>
+        <v>179</v>
       </c>
       <c r="Q333" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="K334" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L334" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M334" t="n">
-        <v>18619</v>
+        <v>13444</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>621</v>
+        <v>13444</v>
       </c>
       <c r="Q334" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K335" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L335" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M335" t="n">
-        <v>14425</v>
+        <v>12419</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="Q335" t="n">
         <v>30</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24549,20 +24549,20 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>270</v>
+        <v>550</v>
       </c>
       <c r="K336" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L336" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M336" t="n">
-        <v>13556</v>
+        <v>8545</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>339</v>
+        <v>171</v>
       </c>
       <c r="Q336" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K337" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L337" t="n">
         <v>18000</v>
       </c>
-      <c r="L337" t="n">
-        <v>19000</v>
-      </c>
       <c r="M337" t="n">
-        <v>18448</v>
+        <v>17575</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="Q337" t="n">
         <v>50</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,29 +24684,29 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="K338" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L338" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M338" t="n">
-        <v>16567</v>
+        <v>18619</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>237</v>
+        <v>621</v>
       </c>
       <c r="Q338" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
         <v>400</v>
       </c>
       <c r="K339" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L339" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M339" t="n">
-        <v>18575</v>
+        <v>14425</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>18575</v>
+        <v>481</v>
       </c>
       <c r="Q339" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K340" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L340" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M340" t="n">
-        <v>17425</v>
+        <v>13556</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>581</v>
+        <v>339</v>
       </c>
       <c r="Q340" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24900,29 +24900,29 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
         <v>580</v>
       </c>
       <c r="K341" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L341" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M341" t="n">
-        <v>17448</v>
+        <v>18448</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="Q341" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,29 +24972,29 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K342" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L342" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M342" t="n">
-        <v>15400</v>
+        <v>16567</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>513</v>
+        <v>237</v>
       </c>
       <c r="Q342" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K343" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L343" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M343" t="n">
-        <v>11333</v>
+        <v>18575</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>283</v>
+        <v>18575</v>
       </c>
       <c r="Q343" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>770</v>
+        <v>400</v>
       </c>
       <c r="K344" t="n">
         <v>17000</v>
@@ -25134,11 +25134,11 @@
         <v>18000</v>
       </c>
       <c r="M344" t="n">
-        <v>17545</v>
+        <v>17425</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>351</v>
+        <v>581</v>
       </c>
       <c r="Q344" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>740</v>
+        <v>580</v>
       </c>
       <c r="K345" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L345" t="n">
         <v>18000</v>
       </c>
-      <c r="L345" t="n">
-        <v>19000</v>
-      </c>
       <c r="M345" t="n">
-        <v>18568</v>
+        <v>17448</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>18568</v>
+        <v>436</v>
       </c>
       <c r="Q345" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K346" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L346" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M346" t="n">
-        <v>17236</v>
+        <v>15400</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="Q346" t="n">
         <v>30</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25332,25 +25332,25 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="K347" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L347" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M347" t="n">
-        <v>16395</v>
+        <v>11333</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="Q347" t="n">
         <v>40</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>550</v>
+        <v>770</v>
       </c>
       <c r="K348" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L348" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M348" t="n">
-        <v>13418</v>
+        <v>17545</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="Q348" t="n">
         <v>50</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,24 +25481,24 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>430</v>
+        <v>740</v>
       </c>
       <c r="K349" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L349" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M349" t="n">
-        <v>17395</v>
+        <v>18568</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>580</v>
+        <v>18568</v>
       </c>
       <c r="Q349" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,24 +25553,24 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="K350" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L350" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M350" t="n">
-        <v>13690</v>
+        <v>17236</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>342</v>
+        <v>575</v>
       </c>
       <c r="Q350" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,20 +25629,20 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K351" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L351" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M351" t="n">
-        <v>12552</v>
+        <v>16395</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>251</v>
+        <v>410</v>
       </c>
       <c r="Q351" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,20 +25701,20 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="K352" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L352" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M352" t="n">
-        <v>15409</v>
+        <v>13418</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>514</v>
+        <v>268</v>
       </c>
       <c r="Q352" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,24 +25769,24 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="K353" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L353" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M353" t="n">
-        <v>13581</v>
+        <v>17395</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q353" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,24 +25841,24 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>275</v>
+        <v>420</v>
       </c>
       <c r="K354" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L354" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M354" t="n">
-        <v>16473</v>
+        <v>13690</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>16473</v>
+        <v>342</v>
       </c>
       <c r="Q354" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,20 +25917,20 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="K355" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L355" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M355" t="n">
-        <v>15529</v>
+        <v>12552</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>518</v>
+        <v>251</v>
       </c>
       <c r="Q355" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,24 +25985,24 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>180</v>
+        <v>1100</v>
       </c>
       <c r="K356" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L356" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M356" t="n">
-        <v>11611</v>
+        <v>15409</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>290</v>
+        <v>514</v>
       </c>
       <c r="Q356" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,25 +26052,25 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="K357" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L357" t="n">
         <v>14000</v>
       </c>
-      <c r="L357" t="n">
-        <v>15000</v>
-      </c>
       <c r="M357" t="n">
-        <v>14579</v>
+        <v>13581</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="Q357" t="n">
         <v>40</v>
@@ -26124,29 +26124,29 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="K358" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L358" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M358" t="n">
-        <v>12000</v>
+        <v>16473</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>240</v>
+        <v>16473</v>
       </c>
       <c r="Q358" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,20 +26205,20 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K359" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L359" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M359" t="n">
-        <v>12425</v>
+        <v>15529</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>248</v>
+        <v>518</v>
       </c>
       <c r="Q359" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,20 +26277,20 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K360" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L360" t="n">
         <v>12000</v>
       </c>
       <c r="M360" t="n">
-        <v>10850</v>
+        <v>11611</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="Q360" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,16 +26340,16 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K361" t="n">
         <v>14000</v>
@@ -26358,11 +26358,11 @@
         <v>15000</v>
       </c>
       <c r="M361" t="n">
-        <v>14552</v>
+        <v>14579</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>14552</v>
+        <v>364</v>
       </c>
       <c r="Q361" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26412,29 +26412,29 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>430</v>
+        <v>130</v>
       </c>
       <c r="K362" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L362" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M362" t="n">
-        <v>14372</v>
+        <v>12000</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>479</v>
+        <v>240</v>
       </c>
       <c r="Q362" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,20 +26493,20 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K363" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L363" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M363" t="n">
-        <v>16439</v>
+        <v>12425</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>548</v>
+        <v>248</v>
       </c>
       <c r="Q363" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,20 +26565,20 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K364" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L364" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M364" t="n">
-        <v>13605</v>
+        <v>10850</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="Q364" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,16 +26628,16 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K365" t="n">
         <v>14000</v>
@@ -26646,11 +26646,11 @@
         <v>15000</v>
       </c>
       <c r="M365" t="n">
-        <v>14509</v>
+        <v>14552</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>290</v>
+        <v>14552</v>
       </c>
       <c r="Q365" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26700,29 +26700,29 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
         <v>430</v>
       </c>
       <c r="K366" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L366" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M366" t="n">
-        <v>10605</v>
+        <v>14372</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>152</v>
+        <v>479</v>
       </c>
       <c r="Q366" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,24 +26777,24 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>660</v>
+        <v>410</v>
       </c>
       <c r="K367" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L367" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M367" t="n">
-        <v>15000</v>
+        <v>16439</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>15000</v>
+        <v>548</v>
       </c>
       <c r="Q367" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,11 +26849,11 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1060</v>
+        <v>430</v>
       </c>
       <c r="K368" t="n">
         <v>13000</v>
@@ -26862,11 +26862,11 @@
         <v>14000</v>
       </c>
       <c r="M368" t="n">
-        <v>13406</v>
+        <v>13605</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>447</v>
+        <v>340</v>
       </c>
       <c r="Q368" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26916,29 +26916,29 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>190</v>
+        <v>550</v>
       </c>
       <c r="K369" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L369" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M369" t="n">
-        <v>9684</v>
+        <v>14509</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="Q369" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26988,29 +26988,29 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="K370" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L370" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M370" t="n">
-        <v>15000</v>
+        <v>10605</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="Q370" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27060,29 +27060,29 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>320</v>
+        <v>660</v>
       </c>
       <c r="K371" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L371" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M371" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>240</v>
+        <v>15000</v>
       </c>
       <c r="Q371" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,20 +27141,20 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>310</v>
+        <v>1060</v>
       </c>
       <c r="K372" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L372" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M372" t="n">
-        <v>11452</v>
+        <v>13406</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>229</v>
+        <v>447</v>
       </c>
       <c r="Q372" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,24 +27209,24 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>630</v>
+        <v>190</v>
       </c>
       <c r="K373" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L373" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M373" t="n">
-        <v>14571</v>
+        <v>9684</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>14571</v>
+        <v>242</v>
       </c>
       <c r="Q373" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,20 +27285,20 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K374" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L374" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M374" t="n">
-        <v>12425</v>
+        <v>15000</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="Q374" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,20 +27357,20 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K375" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L375" t="n">
         <v>12000</v>
       </c>
       <c r="M375" t="n">
-        <v>11575</v>
+        <v>12000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="Q375" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K376" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L376" t="n">
         <v>12000</v>
       </c>
-      <c r="L376" t="n">
-        <v>14000</v>
-      </c>
       <c r="M376" t="n">
-        <v>13150</v>
+        <v>11452</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="Q376" t="n">
         <v>50</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,29 +27492,29 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>390</v>
+        <v>630</v>
       </c>
       <c r="K377" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L377" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M377" t="n">
-        <v>12821</v>
+        <v>14571</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>183</v>
+        <v>14571</v>
       </c>
       <c r="Q377" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,24 +27569,24 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="K378" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L378" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M378" t="n">
-        <v>15398</v>
+        <v>12425</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>15398</v>
+        <v>414</v>
       </c>
       <c r="Q378" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="K379" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L379" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M379" t="n">
-        <v>15581</v>
+        <v>11575</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>519</v>
+        <v>289</v>
       </c>
       <c r="Q379" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27708,29 +27708,29 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K380" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L380" t="n">
         <v>14000</v>
       </c>
-      <c r="L380" t="n">
-        <v>15000</v>
-      </c>
       <c r="M380" t="n">
-        <v>14545</v>
+        <v>13150</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="Q380" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27780,29 +27780,29 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K381" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L381" t="n">
         <v>14000</v>
       </c>
-      <c r="L381" t="n">
-        <v>15000</v>
-      </c>
       <c r="M381" t="n">
-        <v>14590</v>
+        <v>12821</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="Q381" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K382" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L382" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M382" t="n">
-        <v>11150</v>
+        <v>15398</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>372</v>
+        <v>15398</v>
       </c>
       <c r="Q382" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,20 +27933,20 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="K383" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L383" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M383" t="n">
-        <v>10897</v>
+        <v>15581</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>218</v>
+        <v>519</v>
       </c>
       <c r="Q383" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,20 +28005,20 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K384" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L384" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M384" t="n">
-        <v>9150</v>
+        <v>14545</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="Q384" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,29 +28068,29 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="K385" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L385" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M385" t="n">
-        <v>12460</v>
+        <v>14590</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>12460</v>
+        <v>365</v>
       </c>
       <c r="Q385" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,7 +28149,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K386" t="n">
         <v>10000</v>
@@ -28158,7 +28158,7 @@
         <v>12000</v>
       </c>
       <c r="M386" t="n">
-        <v>10920</v>
+        <v>11150</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q386" t="n">
         <v>30</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,32 +28221,32 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K387" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L387" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M387" t="n">
-        <v>8452</v>
+        <v>10897</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q387" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,32 +28293,32 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K388" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L388" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M388" t="n">
-        <v>6605</v>
+        <v>9150</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q388" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K389" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L389" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M389" t="n">
-        <v>15400</v>
+        <v>12460</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>513</v>
+        <v>12460</v>
       </c>
       <c r="Q389" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,24 +28433,24 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K390" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L390" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M390" t="n">
-        <v>13417</v>
+        <v>10920</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="Q390" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,32 +28509,32 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="K391" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L391" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M391" t="n">
-        <v>13448</v>
+        <v>8452</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="Q391" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,32 +28581,32 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K392" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L392" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M392" t="n">
-        <v>10425</v>
+        <v>6605</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q392" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K393" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L393" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M393" t="n">
-        <v>14583</v>
+        <v>15400</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>14583</v>
+        <v>513</v>
       </c>
       <c r="Q393" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,58 +28701,346 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E394" t="n">
+        <v>13</v>
+      </c>
+      <c r="F394" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J394" t="n">
+        <v>120</v>
+      </c>
+      <c r="K394" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L394" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M394" t="n">
+        <v>13417</v>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>40</v>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>6</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E394" t="n">
-        <v>13</v>
-      </c>
-      <c r="F394" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H394" t="inlineStr">
+      <c r="E395" t="n">
+        <v>13</v>
+      </c>
+      <c r="F395" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>580</v>
+      </c>
+      <c r="K395" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L395" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M395" t="n">
+        <v>13448</v>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P395" t="n">
+        <v>269</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>50</v>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>6</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E396" t="n">
+        <v>13</v>
+      </c>
+      <c r="F396" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J396" t="n">
+        <v>400</v>
+      </c>
+      <c r="K396" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L396" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M396" t="n">
+        <v>10425</v>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>$/caja 70 unidades</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P396" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>70</v>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>6</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E397" t="n">
+        <v>13</v>
+      </c>
+      <c r="F397" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I394" t="inlineStr">
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>600</v>
+      </c>
+      <c r="K397" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L397" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M397" t="n">
+        <v>14583</v>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P397" t="n">
+        <v>14583</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>1</v>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>6</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E398" t="n">
+        <v>13</v>
+      </c>
+      <c r="F398" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J394" t="n">
+      <c r="J398" t="n">
         <v>650</v>
       </c>
-      <c r="K394" t="n">
+      <c r="K398" t="n">
         <v>12000</v>
       </c>
-      <c r="L394" t="n">
+      <c r="L398" t="n">
         <v>13000</v>
       </c>
-      <c r="M394" t="n">
+      <c r="M398" t="n">
         <v>12538</v>
       </c>
-      <c r="N394" t="inlineStr">
+      <c r="N398" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P394" t="n">
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
         <v>418</v>
       </c>
-      <c r="Q394" t="n">
+      <c r="Q398" t="n">
         <v>30</v>
       </c>
-      <c r="R394" t="inlineStr">
+      <c r="R398" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R451"/>
+  <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,20 +29157,20 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K400" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L400" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M400" t="n">
-        <v>15400</v>
+        <v>6552</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>513</v>
+        <v>131</v>
       </c>
       <c r="Q400" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="K401" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L401" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M401" t="n">
-        <v>11333</v>
+        <v>5410</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Q401" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,29 +29292,29 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>770</v>
+        <v>1010</v>
       </c>
       <c r="K402" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L402" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M402" t="n">
-        <v>17545</v>
+        <v>8446</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>351</v>
+        <v>8446</v>
       </c>
       <c r="Q402" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>550</v>
+        <v>810</v>
       </c>
       <c r="K403" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L403" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M403" t="n">
-        <v>17236</v>
+        <v>7469</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>575</v>
+        <v>249</v>
       </c>
       <c r="Q403" t="n">
         <v>30</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K404" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L404" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M404" t="n">
-        <v>16395</v>
+        <v>6574</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>410</v>
+        <v>164</v>
       </c>
       <c r="Q404" t="n">
         <v>40</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44328</v>
+        <v>44491</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,25 +29508,25 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K405" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L405" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M405" t="n">
-        <v>13418</v>
+        <v>5475</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="Q405" t="n">
         <v>50</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="K406" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L406" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M406" t="n">
-        <v>17395</v>
+        <v>15400</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="Q406" t="n">
         <v>30</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="K407" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M407" t="n">
-        <v>13690</v>
+        <v>11333</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="Q407" t="n">
         <v>40</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>580</v>
+        <v>770</v>
       </c>
       <c r="K408" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L408" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M408" t="n">
-        <v>12552</v>
+        <v>17545</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="Q408" t="n">
         <v>50</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="K409" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L409" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M409" t="n">
-        <v>15409</v>
+        <v>17236</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="Q409" t="n">
         <v>30</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="K410" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L410" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M410" t="n">
-        <v>13581</v>
+        <v>16395</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q410" t="n">
         <v>40</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,29 +29940,29 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>275</v>
+        <v>550</v>
       </c>
       <c r="K411" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L411" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M411" t="n">
-        <v>16473</v>
+        <v>13418</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>16473</v>
+        <v>268</v>
       </c>
       <c r="Q411" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="K412" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L412" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M412" t="n">
-        <v>15529</v>
+        <v>17395</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="Q412" t="n">
         <v>30</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="K413" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M413" t="n">
-        <v>11611</v>
+        <v>13690</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="Q413" t="n">
         <v>40</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,20 +30165,20 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="K414" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L414" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M414" t="n">
-        <v>14579</v>
+        <v>12552</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="Q414" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,29 +30228,29 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>130</v>
+        <v>1100</v>
       </c>
       <c r="K415" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L415" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M415" t="n">
-        <v>12000</v>
+        <v>15409</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>240</v>
+        <v>514</v>
       </c>
       <c r="Q415" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44414</v>
+        <v>44321</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,29 +30300,29 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K416" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L416" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M416" t="n">
-        <v>12425</v>
+        <v>13581</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="Q416" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,29 +30372,29 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="K417" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L417" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M417" t="n">
-        <v>10850</v>
+        <v>16473</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>155</v>
+        <v>16473</v>
       </c>
       <c r="Q417" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="K418" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L418" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M418" t="n">
-        <v>14552</v>
+        <v>15529</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>14552</v>
+        <v>518</v>
       </c>
       <c r="Q418" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,24 +30521,24 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="K419" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L419" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M419" t="n">
-        <v>14372</v>
+        <v>11611</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>479</v>
+        <v>290</v>
       </c>
       <c r="Q419" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,20 +30597,20 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>410</v>
+        <v>570</v>
       </c>
       <c r="K420" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L420" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M420" t="n">
-        <v>16439</v>
+        <v>14579</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>548</v>
+        <v>364</v>
       </c>
       <c r="Q420" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,20 +30669,20 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>430</v>
+        <v>130</v>
       </c>
       <c r="K421" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L421" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M421" t="n">
-        <v>13605</v>
+        <v>12000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="Q421" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K422" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L422" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M422" t="n">
-        <v>14509</v>
+        <v>12425</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Q422" t="n">
         <v>50</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K423" t="n">
         <v>10000</v>
       </c>
       <c r="L423" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M423" t="n">
-        <v>10605</v>
+        <v>10850</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q423" t="n">
         <v>70</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="K424" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L424" t="n">
         <v>15000</v>
       </c>
       <c r="M424" t="n">
-        <v>15000</v>
+        <v>14552</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>15000</v>
+        <v>14552</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>1060</v>
+        <v>430</v>
       </c>
       <c r="K425" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L425" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M425" t="n">
-        <v>13406</v>
+        <v>14372</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="Q425" t="n">
         <v>30</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31025,24 +31025,24 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="K426" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L426" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M426" t="n">
-        <v>9684</v>
+        <v>16439</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>242</v>
+        <v>548</v>
       </c>
       <c r="Q426" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,25 +31092,25 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="K427" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L427" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M427" t="n">
-        <v>15000</v>
+        <v>13605</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="Q427" t="n">
         <v>40</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="K428" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L428" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M428" t="n">
-        <v>12000</v>
+        <v>14509</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="Q428" t="n">
         <v>50</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,24 +31241,24 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="K429" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L429" t="n">
         <v>11000</v>
       </c>
-      <c r="L429" t="n">
-        <v>12000</v>
-      </c>
       <c r="M429" t="n">
-        <v>11452</v>
+        <v>10605</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="Q429" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="K430" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L430" t="n">
         <v>15000</v>
       </c>
       <c r="M430" t="n">
-        <v>14571</v>
+        <v>15000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>14571</v>
+        <v>15000</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>400</v>
+        <v>1060</v>
       </c>
       <c r="K431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L431" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M431" t="n">
-        <v>12425</v>
+        <v>13406</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="Q431" t="n">
         <v>30</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="K432" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M432" t="n">
-        <v>11575</v>
+        <v>9684</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="Q432" t="n">
         <v>40</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,20 +31533,20 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K433" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L433" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M433" t="n">
-        <v>13150</v>
+        <v>15000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="Q433" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,20 +31605,20 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="K434" t="n">
         <v>12000</v>
       </c>
       <c r="L434" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M434" t="n">
-        <v>12821</v>
+        <v>12000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="Q434" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,29 +31668,29 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>1080</v>
+        <v>310</v>
       </c>
       <c r="K435" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L435" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M435" t="n">
-        <v>15398</v>
+        <v>11452</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>15398</v>
+        <v>229</v>
       </c>
       <c r="Q435" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31745,24 +31745,24 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="K436" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L436" t="n">
         <v>15000</v>
       </c>
-      <c r="L436" t="n">
-        <v>16000</v>
-      </c>
       <c r="M436" t="n">
-        <v>15581</v>
+        <v>14571</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>519</v>
+        <v>14571</v>
       </c>
       <c r="Q436" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31817,24 +31817,24 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K437" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L437" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M437" t="n">
-        <v>14545</v>
+        <v>12425</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="Q437" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K438" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L438" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M438" t="n">
-        <v>14590</v>
+        <v>11575</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="Q438" t="n">
         <v>40</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31968,17 +31968,17 @@
         <v>400</v>
       </c>
       <c r="K439" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L439" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M439" t="n">
-        <v>11150</v>
+        <v>13150</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="Q439" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32033,24 +32033,24 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="K440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L440" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M440" t="n">
-        <v>10897</v>
+        <v>12821</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="Q440" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,29 +32100,29 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K441" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L441" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M441" t="n">
-        <v>9150</v>
+        <v>15398</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>131</v>
+        <v>15398</v>
       </c>
       <c r="Q441" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,24 +32177,24 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="K442" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L442" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M442" t="n">
-        <v>12460</v>
+        <v>15581</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>12460</v>
+        <v>519</v>
       </c>
       <c r="Q442" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32249,24 +32249,24 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="K443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L443" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M443" t="n">
-        <v>10920</v>
+        <v>14545</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32278,7 +32278,7 @@
         <v>364</v>
       </c>
       <c r="Q443" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>420</v>
+        <v>610</v>
       </c>
       <c r="K444" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L444" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M444" t="n">
-        <v>8452</v>
+        <v>14590</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>211</v>
+        <v>365</v>
       </c>
       <c r="Q444" t="n">
         <v>40</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,41 +32388,41 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M445" t="n">
-        <v>6605</v>
+        <v>11150</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="Q445" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,20 +32469,20 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K446" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L446" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M446" t="n">
-        <v>15400</v>
+        <v>10897</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>513</v>
+        <v>218</v>
       </c>
       <c r="Q446" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,20 +32541,20 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K447" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M447" t="n">
-        <v>13417</v>
+        <v>9150</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="Q447" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,29 +32604,29 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K448" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L448" t="n">
         <v>13000</v>
       </c>
-      <c r="L448" t="n">
-        <v>14000</v>
-      </c>
       <c r="M448" t="n">
-        <v>13448</v>
+        <v>12460</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>269</v>
+        <v>12460</v>
       </c>
       <c r="Q448" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32676,29 +32676,29 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K449" t="n">
         <v>10000</v>
       </c>
       <c r="L449" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M449" t="n">
-        <v>10425</v>
+        <v>10920</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="Q449" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32748,41 +32748,41 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="K450" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L450" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M450" t="n">
-        <v>14583</v>
+        <v>8452</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>14583</v>
+        <v>211</v>
       </c>
       <c r="Q450" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,58 +32805,490 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E451" t="n">
+        <v>13</v>
+      </c>
+      <c r="F451" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>430</v>
+      </c>
+      <c r="K451" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L451" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M451" t="n">
+        <v>6605</v>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P451" t="n">
+        <v>132</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>50</v>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>6</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E452" t="n">
+        <v>13</v>
+      </c>
+      <c r="F452" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>200</v>
+      </c>
+      <c r="K452" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L452" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M452" t="n">
+        <v>15400</v>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P452" t="n">
+        <v>513</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>30</v>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>6</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E453" t="n">
+        <v>13</v>
+      </c>
+      <c r="F453" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>120</v>
+      </c>
+      <c r="K453" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L453" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M453" t="n">
+        <v>13417</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P453" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>40</v>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>6</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E451" t="n">
-        <v>13</v>
-      </c>
-      <c r="F451" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
+      <c r="E454" t="n">
+        <v>13</v>
+      </c>
+      <c r="F454" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>580</v>
+      </c>
+      <c r="K454" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L454" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M454" t="n">
+        <v>13448</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P454" t="n">
+        <v>269</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>50</v>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>6</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E455" t="n">
+        <v>13</v>
+      </c>
+      <c r="F455" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>400</v>
+      </c>
+      <c r="K455" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L455" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M455" t="n">
+        <v>10425</v>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>$/caja 70 unidades</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P455" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>70</v>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>6</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E456" t="n">
+        <v>13</v>
+      </c>
+      <c r="F456" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I451" t="inlineStr">
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>600</v>
+      </c>
+      <c r="K456" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L456" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M456" t="n">
+        <v>14583</v>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P456" t="n">
+        <v>14583</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>1</v>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>6</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E457" t="n">
+        <v>13</v>
+      </c>
+      <c r="F457" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J451" t="n">
+      <c r="J457" t="n">
         <v>650</v>
       </c>
-      <c r="K451" t="n">
+      <c r="K457" t="n">
         <v>12000</v>
       </c>
-      <c r="L451" t="n">
+      <c r="L457" t="n">
         <v>13000</v>
       </c>
-      <c r="M451" t="n">
+      <c r="M457" t="n">
         <v>12538</v>
       </c>
-      <c r="N451" t="inlineStr">
+      <c r="N457" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O451" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P451" t="n">
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P457" t="n">
         <v>418</v>
       </c>
-      <c r="Q451" t="n">
+      <c r="Q457" t="n">
         <v>30</v>
       </c>
-      <c r="R451" t="inlineStr">
+      <c r="R457" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R479"/>
+  <dimension ref="A1:R481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,20 +28149,20 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K386" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L386" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M386" t="n">
-        <v>8545</v>
+        <v>6583</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q386" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,29 +28212,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="K387" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M387" t="n">
-        <v>10939</v>
+        <v>6676</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>10939</v>
+        <v>167</v>
       </c>
       <c r="Q387" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="K388" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L388" t="n">
         <v>9000</v>
       </c>
-      <c r="L388" t="n">
-        <v>10000</v>
-      </c>
       <c r="M388" t="n">
-        <v>9543</v>
+        <v>8545</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="Q388" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28361,33 +28361,33 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>7000</v>
+        <v>490</v>
       </c>
       <c r="K389" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="L389" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="M389" t="n">
-        <v>318</v>
+        <v>10939</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>318</v>
+        <v>10939</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28433,36 +28433,36 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="K390" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="L390" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="M390" t="n">
-        <v>219</v>
+        <v>9543</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="Q390" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="K391" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L391" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="M391" t="n">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28572,41 +28572,41 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="K392" t="n">
-        <v>7000</v>
+        <v>200</v>
       </c>
       <c r="L392" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="M392" t="n">
-        <v>7467</v>
+        <v>219</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="Q392" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28644,41 +28644,41 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>580</v>
+        <v>2500</v>
       </c>
       <c r="K393" t="n">
-        <v>6000</v>
+        <v>150</v>
       </c>
       <c r="L393" t="n">
-        <v>7000</v>
+        <v>170</v>
       </c>
       <c r="M393" t="n">
-        <v>6448</v>
+        <v>158</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="Q393" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,20 +28725,20 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K394" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L394" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M394" t="n">
-        <v>13414</v>
+        <v>7467</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="Q394" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,20 +28797,20 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="K395" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L395" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M395" t="n">
-        <v>12556</v>
+        <v>6448</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="Q395" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28860,16 +28860,16 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="K396" t="n">
         <v>13000</v>
@@ -28878,11 +28878,11 @@
         <v>14000</v>
       </c>
       <c r="M396" t="n">
-        <v>13444</v>
+        <v>13414</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>13444</v>
+        <v>268</v>
       </c>
       <c r="Q396" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28932,16 +28932,16 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K397" t="n">
         <v>12000</v>
@@ -28950,11 +28950,11 @@
         <v>13000</v>
       </c>
       <c r="M397" t="n">
-        <v>12419</v>
+        <v>12556</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="Q397" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -29004,29 +29004,29 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K398" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L398" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M398" t="n">
-        <v>8545</v>
+        <v>13444</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>171</v>
+        <v>13444</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,20 +29085,20 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="K399" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L399" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M399" t="n">
-        <v>7561</v>
+        <v>12419</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="Q399" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,29 +29148,29 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="K400" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L400" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M400" t="n">
-        <v>7439</v>
+        <v>8545</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>7439</v>
+        <v>171</v>
       </c>
       <c r="Q400" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>880</v>
+        <v>410</v>
       </c>
       <c r="K401" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L401" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M401" t="n">
-        <v>6261</v>
+        <v>7561</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="Q401" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,16 +29292,16 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>1100</v>
+        <v>410</v>
       </c>
       <c r="K402" t="n">
         <v>7000</v>
@@ -29310,23 +29310,23 @@
         <v>8000</v>
       </c>
       <c r="M402" t="n">
-        <v>7427</v>
+        <v>7439</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>186</v>
+        <v>7439</v>
       </c>
       <c r="Q402" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,20 +29373,20 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>310</v>
+        <v>880</v>
       </c>
       <c r="K403" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L403" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M403" t="n">
-        <v>11452</v>
+        <v>6261</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="Q403" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29436,41 +29436,41 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>630</v>
+        <v>1100</v>
       </c>
       <c r="K404" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L404" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>14571</v>
+        <v>7427</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>14571</v>
+        <v>186</v>
       </c>
       <c r="Q404" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,20 +29517,20 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K405" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L405" t="n">
         <v>12000</v>
       </c>
-      <c r="L405" t="n">
-        <v>13000</v>
-      </c>
       <c r="M405" t="n">
-        <v>12425</v>
+        <v>11452</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q405" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K406" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L406" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M406" t="n">
-        <v>11575</v>
+        <v>14571</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>289</v>
+        <v>14571</v>
       </c>
       <c r="Q406" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,20 +29661,20 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L407" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M407" t="n">
-        <v>14404</v>
+        <v>12425</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="Q407" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,24 +29729,24 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K408" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L408" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M408" t="n">
-        <v>17525</v>
+        <v>11575</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>17525</v>
+        <v>289</v>
       </c>
       <c r="Q408" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,20 +29805,20 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K409" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L409" t="n">
         <v>15000</v>
       </c>
-      <c r="L409" t="n">
-        <v>16000</v>
-      </c>
       <c r="M409" t="n">
-        <v>15552</v>
+        <v>14404</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>518</v>
+        <v>360</v>
       </c>
       <c r="Q409" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29873,24 +29873,24 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K410" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L410" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M410" t="n">
-        <v>13575</v>
+        <v>17525</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>339</v>
+        <v>17525</v>
       </c>
       <c r="Q410" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="K411" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L411" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M411" t="n">
-        <v>13478</v>
+        <v>15552</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>337</v>
+        <v>518</v>
       </c>
       <c r="Q411" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,29 +30012,29 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
         <v>400</v>
       </c>
       <c r="K412" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L412" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M412" t="n">
-        <v>17425</v>
+        <v>13575</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q412" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,20 +30093,20 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="K413" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L413" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M413" t="n">
-        <v>16489</v>
+        <v>13478</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>550</v>
+        <v>337</v>
       </c>
       <c r="Q413" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30156,16 +30156,16 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K414" t="n">
         <v>17000</v>
@@ -30174,11 +30174,11 @@
         <v>18000</v>
       </c>
       <c r="M414" t="n">
-        <v>17552</v>
+        <v>17425</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="Q414" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K415" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L415" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M415" t="n">
-        <v>11575</v>
+        <v>16489</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>232</v>
+        <v>550</v>
       </c>
       <c r="Q415" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="K416" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L416" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M416" t="n">
-        <v>9404</v>
+        <v>17552</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="Q416" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30372,29 +30372,29 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
         <v>400</v>
       </c>
       <c r="K417" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L417" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M417" t="n">
-        <v>14850</v>
+        <v>11575</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>14850</v>
+        <v>232</v>
       </c>
       <c r="Q417" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30444,29 +30444,29 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="K418" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L418" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M418" t="n">
-        <v>13566</v>
+        <v>9404</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>452</v>
+        <v>134</v>
       </c>
       <c r="Q418" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30516,29 +30516,29 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K419" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L419" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M419" t="n">
-        <v>9433</v>
+        <v>14850</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>236</v>
+        <v>14850</v>
       </c>
       <c r="Q419" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,20 +30597,20 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="K420" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L420" t="n">
         <v>14000</v>
       </c>
-      <c r="L420" t="n">
-        <v>15000</v>
-      </c>
       <c r="M420" t="n">
-        <v>14509</v>
+        <v>13566</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>290</v>
+        <v>452</v>
       </c>
       <c r="Q420" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,29 +30660,29 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K421" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L421" t="n">
         <v>10000</v>
       </c>
-      <c r="L421" t="n">
-        <v>11000</v>
-      </c>
       <c r="M421" t="n">
-        <v>10605</v>
+        <v>9433</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="Q421" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30732,29 +30732,29 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="K422" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L422" t="n">
         <v>15000</v>
       </c>
       <c r="M422" t="n">
-        <v>15000</v>
+        <v>14509</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="Q422" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,29 +30804,29 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>1060</v>
+        <v>430</v>
       </c>
       <c r="K423" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L423" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M423" t="n">
-        <v>13406</v>
+        <v>10605</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="Q423" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30881,24 +30881,24 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>190</v>
+        <v>660</v>
       </c>
       <c r="K424" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L424" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M424" t="n">
-        <v>9684</v>
+        <v>15000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>242</v>
+        <v>15000</v>
       </c>
       <c r="Q424" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,20 +30957,20 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>540</v>
+        <v>1060</v>
       </c>
       <c r="K425" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L425" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M425" t="n">
-        <v>15000</v>
+        <v>13406</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="Q425" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,20 +31029,20 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="K426" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M426" t="n">
-        <v>12000</v>
+        <v>9684</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q426" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,20 +31101,20 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K427" t="n">
         <v>15000</v>
       </c>
       <c r="L427" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M427" t="n">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>513</v>
+        <v>375</v>
       </c>
       <c r="Q427" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,20 +31173,20 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="K428" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L428" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M428" t="n">
-        <v>13417</v>
+        <v>12000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="Q428" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,24 +31241,24 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K429" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L429" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M429" t="n">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>14400</v>
+        <v>513</v>
       </c>
       <c r="Q429" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,24 +31313,24 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K430" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L430" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M430" t="n">
-        <v>11575</v>
+        <v>13417</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="Q430" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31380,29 +31380,29 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L431" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M431" t="n">
-        <v>9491</v>
+        <v>14400</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>237</v>
+        <v>14400</v>
       </c>
       <c r="Q431" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31457,24 +31457,24 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K432" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L432" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M432" t="n">
-        <v>15000</v>
+        <v>11575</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>15000</v>
+        <v>386</v>
       </c>
       <c r="Q432" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,20 +31533,20 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="K433" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L433" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M433" t="n">
-        <v>12000</v>
+        <v>9491</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="Q433" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31601,24 +31601,24 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="K434" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L434" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M434" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="Q434" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,20 +31677,20 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K435" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L435" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M435" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q435" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,20 +31749,20 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="K436" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L436" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M436" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q436" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="K437" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L437" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M437" t="n">
-        <v>7574</v>
+        <v>14000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="Q437" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,20 +31893,20 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="K438" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L438" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M438" t="n">
-        <v>6589</v>
+        <v>12000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="Q438" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31956,16 +31956,16 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K439" t="n">
         <v>7000</v>
@@ -31974,11 +31974,11 @@
         <v>8000</v>
       </c>
       <c r="M439" t="n">
-        <v>7425</v>
+        <v>7574</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>7425</v>
+        <v>151</v>
       </c>
       <c r="Q439" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32028,41 +32028,41 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>7200</v>
+        <v>900</v>
       </c>
       <c r="K440" t="n">
-        <v>350</v>
+        <v>6000</v>
       </c>
       <c r="L440" t="n">
-        <v>370</v>
+        <v>7000</v>
       </c>
       <c r="M440" t="n">
-        <v>357</v>
+        <v>6589</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="Q440" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32105,24 +32105,24 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="K441" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L441" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M441" t="n">
-        <v>6451</v>
+        <v>7425</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>215</v>
+        <v>7425</v>
       </c>
       <c r="Q441" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>4000</v>
+        <v>7200</v>
       </c>
       <c r="K442" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L442" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M442" t="n">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,36 +32249,36 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>3200</v>
+        <v>510</v>
       </c>
       <c r="K443" t="n">
-        <v>250</v>
+        <v>6000</v>
       </c>
       <c r="L443" t="n">
-        <v>250</v>
+        <v>7000</v>
       </c>
       <c r="M443" t="n">
-        <v>250</v>
+        <v>6451</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q443" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,20 +32325,20 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>750</v>
+        <v>4000</v>
       </c>
       <c r="K444" t="n">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="L444" t="n">
-        <v>7000</v>
+        <v>330</v>
       </c>
       <c r="M444" t="n">
-        <v>6427</v>
+        <v>311</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="Q444" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>590</v>
+        <v>3200</v>
       </c>
       <c r="K445" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="L445" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="M445" t="n">
-        <v>7542</v>
+        <v>250</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q445" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,32 +32469,32 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="K446" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L446" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M446" t="n">
-        <v>14491</v>
+        <v>6427</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="Q446" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,32 +32541,32 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="K447" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L447" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M447" t="n">
-        <v>16540</v>
+        <v>7542</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>551</v>
+        <v>189</v>
       </c>
       <c r="Q447" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32604,12 +32604,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
@@ -32622,11 +32622,11 @@
         <v>15000</v>
       </c>
       <c r="M448" t="n">
-        <v>14509</v>
+        <v>14491</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="Q448" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,20 +32685,20 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K449" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L449" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M449" t="n">
-        <v>13418</v>
+        <v>16540</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>268</v>
+        <v>551</v>
       </c>
       <c r="Q449" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32753,24 +32753,24 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="K450" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L450" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M450" t="n">
-        <v>17395</v>
+        <v>14509</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>580</v>
+        <v>363</v>
       </c>
       <c r="Q450" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32820,16 +32820,16 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="K451" t="n">
         <v>13000</v>
@@ -32838,11 +32838,11 @@
         <v>14000</v>
       </c>
       <c r="M451" t="n">
-        <v>13690</v>
+        <v>13418</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="Q451" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K452" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L452" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M452" t="n">
-        <v>15400</v>
+        <v>17395</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="Q452" t="n">
         <v>30</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="K453" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L453" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M453" t="n">
-        <v>11333</v>
+        <v>13690</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="Q453" t="n">
         <v>40</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,20 +33045,20 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K454" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L454" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M454" t="n">
-        <v>13429</v>
+        <v>15400</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>269</v>
+        <v>513</v>
       </c>
       <c r="Q454" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,24 +33113,24 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K455" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L455" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M455" t="n">
-        <v>16571</v>
+        <v>11333</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>552</v>
+        <v>283</v>
       </c>
       <c r="Q455" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,20 +33189,20 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="K456" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L456" t="n">
         <v>14000</v>
       </c>
-      <c r="L456" t="n">
-        <v>15000</v>
-      </c>
       <c r="M456" t="n">
-        <v>14867</v>
+        <v>13429</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="Q456" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K457" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L457" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M457" t="n">
-        <v>14412</v>
+        <v>16571</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="Q457" t="n">
         <v>30</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L458" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M458" t="n">
-        <v>11373</v>
+        <v>14867</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="Q458" t="n">
         <v>40</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,20 +33405,20 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="K459" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L459" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M459" t="n">
-        <v>11450</v>
+        <v>14412</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>229</v>
+        <v>480</v>
       </c>
       <c r="Q459" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,20 +33477,20 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="K460" t="n">
         <v>10000</v>
       </c>
       <c r="L460" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M460" t="n">
-        <v>10567</v>
+        <v>11373</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="Q460" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33540,29 +33540,29 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
         <v>400</v>
       </c>
       <c r="K461" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L461" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M461" t="n">
-        <v>14575</v>
+        <v>11450</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>14575</v>
+        <v>229</v>
       </c>
       <c r="Q461" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33612,29 +33612,29 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K462" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L462" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M462" t="n">
-        <v>12425</v>
+        <v>10567</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>414</v>
+        <v>151</v>
       </c>
       <c r="Q462" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33689,24 +33689,24 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J463" t="n">
         <v>400</v>
       </c>
       <c r="K463" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L463" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M463" t="n">
-        <v>10425</v>
+        <v>14575</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>261</v>
+        <v>14575</v>
       </c>
       <c r="Q463" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33768,17 +33768,17 @@
         <v>400</v>
       </c>
       <c r="K464" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L464" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M464" t="n">
-        <v>15425</v>
+        <v>12425</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="Q464" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,24 +33833,24 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K465" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L465" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M465" t="n">
-        <v>15448</v>
+        <v>10425</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>15448</v>
+        <v>261</v>
       </c>
       <c r="Q465" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,7 +33909,7 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K466" t="n">
         <v>15000</v>
@@ -33918,11 +33918,11 @@
         <v>16000</v>
       </c>
       <c r="M466" t="n">
-        <v>15407</v>
+        <v>15425</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>514</v>
+        <v>308</v>
       </c>
       <c r="Q466" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,24 +33977,24 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="K467" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L467" t="n">
         <v>16000</v>
       </c>
-      <c r="L467" t="n">
-        <v>18000</v>
-      </c>
       <c r="M467" t="n">
-        <v>16857</v>
+        <v>15448</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>562</v>
+        <v>15448</v>
       </c>
       <c r="Q467" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,20 +34053,20 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="K468" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L468" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M468" t="n">
-        <v>12395</v>
+        <v>15407</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>248</v>
+        <v>514</v>
       </c>
       <c r="Q468" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,29 +34116,29 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K469" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L469" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M469" t="n">
-        <v>10540</v>
+        <v>16857</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>151</v>
+        <v>562</v>
       </c>
       <c r="Q469" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34188,29 +34188,29 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="K470" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L470" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M470" t="n">
-        <v>14460</v>
+        <v>12395</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>14460</v>
+        <v>248</v>
       </c>
       <c r="Q470" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34260,29 +34260,29 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K471" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L471" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M471" t="n">
-        <v>13448</v>
+        <v>10540</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>448</v>
+        <v>151</v>
       </c>
       <c r="Q471" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34337,24 +34337,24 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K472" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L472" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M472" t="n">
-        <v>12575</v>
+        <v>14460</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>314</v>
+        <v>14460</v>
       </c>
       <c r="Q472" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K473" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L473" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M473" t="n">
-        <v>15400</v>
+        <v>13448</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>513</v>
+        <v>448</v>
       </c>
       <c r="Q473" t="n">
         <v>30</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,29 +34476,29 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K474" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L474" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M474" t="n">
-        <v>6552</v>
+        <v>12575</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="Q474" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,29 +34548,29 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="K475" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L475" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M475" t="n">
-        <v>5410</v>
+        <v>15400</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="Q475" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34620,29 +34620,29 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>1010</v>
+        <v>580</v>
       </c>
       <c r="K476" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L476" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M476" t="n">
-        <v>8446</v>
+        <v>6552</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>8446</v>
+        <v>131</v>
       </c>
       <c r="Q476" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34692,29 +34692,29 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>810</v>
+        <v>390</v>
       </c>
       <c r="K477" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L477" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>7469</v>
+        <v>5410</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Q477" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34764,41 +34764,41 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>610</v>
+        <v>1010</v>
       </c>
       <c r="K478" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L478" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M478" t="n">
-        <v>6574</v>
+        <v>8446</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>164</v>
+        <v>8446</v>
       </c>
       <c r="Q478" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34836,43 +34836,187 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>810</v>
+      </c>
+      <c r="K479" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L479" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M479" t="n">
+        <v>7469</v>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P479" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>30</v>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>6</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E480" t="n">
+        <v>13</v>
+      </c>
+      <c r="F480" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I479" t="inlineStr">
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>610</v>
+      </c>
+      <c r="K480" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L480" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M480" t="n">
+        <v>6574</v>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P480" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>40</v>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>6</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E481" t="n">
+        <v>13</v>
+      </c>
+      <c r="F481" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J479" t="n">
+      <c r="J481" t="n">
         <v>800</v>
       </c>
-      <c r="K479" t="n">
+      <c r="K481" t="n">
         <v>5000</v>
       </c>
-      <c r="L479" t="n">
+      <c r="L481" t="n">
         <v>6000</v>
       </c>
-      <c r="M479" t="n">
+      <c r="M481" t="n">
         <v>5475</v>
       </c>
-      <c r="N479" t="inlineStr">
+      <c r="N481" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O479" t="inlineStr">
+      <c r="O481" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P479" t="n">
+      <c r="P481" t="n">
         <v>110</v>
       </c>
-      <c r="Q479" t="n">
+      <c r="Q481" t="n">
         <v>50</v>
       </c>
-      <c r="R479" t="inlineStr">
+      <c r="R481" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R481"/>
+  <dimension ref="A1:R484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,41 +29220,41 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>410</v>
+        <v>6500</v>
       </c>
       <c r="K401" t="n">
-        <v>7000</v>
+        <v>270</v>
       </c>
       <c r="L401" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="M401" t="n">
-        <v>7561</v>
+        <v>289</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="Q401" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,33 +29297,33 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>410</v>
+        <v>5300</v>
       </c>
       <c r="K402" t="n">
-        <v>7000</v>
+        <v>230</v>
       </c>
       <c r="L402" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="M402" t="n">
-        <v>7439</v>
+        <v>244</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>7439</v>
+        <v>244</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,36 +29369,36 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>880</v>
+        <v>3800</v>
       </c>
       <c r="K403" t="n">
-        <v>6000</v>
+        <v>150</v>
       </c>
       <c r="L403" t="n">
-        <v>7000</v>
+        <v>200</v>
       </c>
       <c r="M403" t="n">
-        <v>6261</v>
+        <v>183</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="Q403" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,7 +29445,7 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>1100</v>
+        <v>410</v>
       </c>
       <c r="K404" t="n">
         <v>7000</v>
@@ -29454,23 +29454,23 @@
         <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>7427</v>
+        <v>7561</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q404" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,29 +29508,29 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="K405" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L405" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M405" t="n">
-        <v>11452</v>
+        <v>7439</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>229</v>
+        <v>7439</v>
       </c>
       <c r="Q405" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>630</v>
+        <v>880</v>
       </c>
       <c r="K406" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L406" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M406" t="n">
-        <v>14571</v>
+        <v>6261</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>14571</v>
+        <v>209</v>
       </c>
       <c r="Q406" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,32 +29661,32 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K407" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L407" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M407" t="n">
-        <v>12425</v>
+        <v>7427</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="Q407" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29724,16 +29724,16 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K408" t="n">
         <v>11000</v>
@@ -29742,11 +29742,11 @@
         <v>12000</v>
       </c>
       <c r="M408" t="n">
-        <v>11575</v>
+        <v>11452</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="Q408" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,16 +29796,16 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K409" t="n">
         <v>14000</v>
@@ -29814,11 +29814,11 @@
         <v>15000</v>
       </c>
       <c r="M409" t="n">
-        <v>14404</v>
+        <v>14571</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>360</v>
+        <v>14571</v>
       </c>
       <c r="Q409" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,24 +29873,24 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K410" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L410" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M410" t="n">
-        <v>17525</v>
+        <v>12425</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>17525</v>
+        <v>414</v>
       </c>
       <c r="Q410" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,24 +29945,24 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K411" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L411" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M411" t="n">
-        <v>15552</v>
+        <v>11575</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>518</v>
+        <v>289</v>
       </c>
       <c r="Q411" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -30012,25 +30012,25 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K412" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L412" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M412" t="n">
-        <v>13575</v>
+        <v>14404</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="Q412" t="n">
         <v>40</v>
@@ -30084,29 +30084,29 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="K413" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L413" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M413" t="n">
-        <v>13478</v>
+        <v>17525</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>337</v>
+        <v>17525</v>
       </c>
       <c r="Q413" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,20 +30165,20 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K414" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L414" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M414" t="n">
-        <v>17425</v>
+        <v>15552</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>348</v>
+        <v>518</v>
       </c>
       <c r="Q414" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="K415" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L415" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M415" t="n">
-        <v>16489</v>
+        <v>13575</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>550</v>
+        <v>339</v>
       </c>
       <c r="Q415" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,25 +30300,25 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="K416" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L416" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M416" t="n">
-        <v>17552</v>
+        <v>13478</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="Q416" t="n">
         <v>40</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30384,13 +30384,13 @@
         <v>400</v>
       </c>
       <c r="K417" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L417" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M417" t="n">
-        <v>11575</v>
+        <v>17425</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="Q417" t="n">
         <v>50</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,29 +30444,29 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="K418" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L418" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M418" t="n">
-        <v>9404</v>
+        <v>16489</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>134</v>
+        <v>550</v>
       </c>
       <c r="Q418" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,24 +30521,24 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K419" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L419" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M419" t="n">
-        <v>14850</v>
+        <v>17552</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>14850</v>
+        <v>439</v>
       </c>
       <c r="Q419" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,20 +30597,20 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="K420" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L420" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M420" t="n">
-        <v>13566</v>
+        <v>11575</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="Q420" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30660,29 +30660,29 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="K421" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L421" t="n">
         <v>10000</v>
       </c>
       <c r="M421" t="n">
-        <v>9433</v>
+        <v>9404</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="Q421" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,29 +30732,29 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K422" t="n">
         <v>14000</v>
       </c>
       <c r="L422" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M422" t="n">
-        <v>14509</v>
+        <v>14850</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>290</v>
+        <v>14850</v>
       </c>
       <c r="Q422" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,29 +30804,29 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="K423" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L423" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M423" t="n">
-        <v>10605</v>
+        <v>13566</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="Q423" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,29 +30876,29 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K424" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L424" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M424" t="n">
-        <v>15000</v>
+        <v>9433</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>15000</v>
+        <v>236</v>
       </c>
       <c r="Q424" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,20 +30957,20 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>1060</v>
+        <v>550</v>
       </c>
       <c r="K425" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L425" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M425" t="n">
-        <v>13406</v>
+        <v>14509</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="Q425" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,20 +31029,20 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K426" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L426" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M426" t="n">
-        <v>9684</v>
+        <v>10605</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="Q426" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31092,16 +31092,16 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K427" t="n">
         <v>15000</v>
@@ -31114,7 +31114,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="Q427" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31164,29 +31164,29 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>320</v>
+        <v>1060</v>
       </c>
       <c r="K428" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L428" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M428" t="n">
-        <v>12000</v>
+        <v>13406</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>240</v>
+        <v>447</v>
       </c>
       <c r="Q428" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,24 +31241,24 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K429" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L429" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M429" t="n">
-        <v>15400</v>
+        <v>9684</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>513</v>
+        <v>242</v>
       </c>
       <c r="Q429" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31308,25 +31308,25 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="K430" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L430" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M430" t="n">
-        <v>13417</v>
+        <v>15000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Q430" t="n">
         <v>40</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,29 +31380,29 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="K431" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L431" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M431" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>14400</v>
+        <v>240</v>
       </c>
       <c r="Q431" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K432" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L432" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M432" t="n">
-        <v>11575</v>
+        <v>15400</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="Q432" t="n">
         <v>30</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,25 +31524,25 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="K433" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L433" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M433" t="n">
-        <v>9491</v>
+        <v>13417</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="Q433" t="n">
         <v>40</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L434" t="n">
         <v>15000</v>
       </c>
       <c r="M434" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K435" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L435" t="n">
         <v>12000</v>
       </c>
       <c r="M435" t="n">
-        <v>12000</v>
+        <v>11575</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q435" t="n">
         <v>30</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K436" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L436" t="n">
         <v>10000</v>
       </c>
       <c r="M436" t="n">
-        <v>10000</v>
+        <v>9491</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q436" t="n">
         <v>40</v>
@@ -31812,29 +31812,29 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K437" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L437" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M437" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="Q437" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31884,16 +31884,16 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K438" t="n">
         <v>12000</v>
@@ -31906,7 +31906,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q438" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,29 +31956,29 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>610</v>
+        <v>240</v>
       </c>
       <c r="K439" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L439" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M439" t="n">
-        <v>7574</v>
+        <v>10000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="Q439" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,29 +32028,29 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K440" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L440" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M440" t="n">
-        <v>6589</v>
+        <v>14000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="Q440" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,29 +32100,29 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K441" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L441" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M441" t="n">
-        <v>7425</v>
+        <v>12000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>7425</v>
+        <v>240</v>
       </c>
       <c r="Q441" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32172,41 +32172,41 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>7200</v>
+        <v>610</v>
       </c>
       <c r="K442" t="n">
-        <v>350</v>
+        <v>7000</v>
       </c>
       <c r="L442" t="n">
-        <v>370</v>
+        <v>8000</v>
       </c>
       <c r="M442" t="n">
-        <v>357</v>
+        <v>7574</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="Q442" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32244,16 +32244,16 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>510</v>
+        <v>900</v>
       </c>
       <c r="K443" t="n">
         <v>6000</v>
@@ -32262,11 +32262,11 @@
         <v>7000</v>
       </c>
       <c r="M443" t="n">
-        <v>6451</v>
+        <v>6589</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="Q443" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32321,33 +32321,33 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="K444" t="n">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="L444" t="n">
-        <v>330</v>
+        <v>8000</v>
       </c>
       <c r="M444" t="n">
-        <v>311</v>
+        <v>7425</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>311</v>
+        <v>7425</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="K445" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L445" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="M445" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>750</v>
+        <v>510</v>
       </c>
       <c r="K446" t="n">
         <v>6000</v>
@@ -32478,23 +32478,23 @@
         <v>7000</v>
       </c>
       <c r="M446" t="n">
-        <v>6427</v>
+        <v>6451</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="Q446" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,20 +32541,20 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>590</v>
+        <v>4000</v>
       </c>
       <c r="K447" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="L447" t="n">
-        <v>8000</v>
+        <v>330</v>
       </c>
       <c r="M447" t="n">
-        <v>7542</v>
+        <v>311</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="Q447" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,41 +32604,41 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>530</v>
+        <v>3200</v>
       </c>
       <c r="K448" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L448" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M448" t="n">
-        <v>14491</v>
+        <v>250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q448" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,32 +32685,32 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K449" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L449" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M449" t="n">
-        <v>16540</v>
+        <v>6427</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>551</v>
+        <v>161</v>
       </c>
       <c r="Q449" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="K450" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L450" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M450" t="n">
-        <v>14509</v>
+        <v>7542</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="Q450" t="n">
         <v>40</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="K451" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L451" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M451" t="n">
-        <v>13418</v>
+        <v>14491</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="Q451" t="n">
         <v>50</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K452" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L452" t="n">
         <v>17000</v>
       </c>
-      <c r="L452" t="n">
-        <v>18000</v>
-      </c>
       <c r="M452" t="n">
-        <v>17395</v>
+        <v>16540</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="Q452" t="n">
         <v>30</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K453" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L453" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M453" t="n">
-        <v>13690</v>
+        <v>14509</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="Q453" t="n">
         <v>40</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,20 +33045,20 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K454" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L454" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M454" t="n">
-        <v>15400</v>
+        <v>13418</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>513</v>
+        <v>268</v>
       </c>
       <c r="Q454" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,24 +33113,24 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K455" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L455" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M455" t="n">
-        <v>11333</v>
+        <v>17395</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>283</v>
+        <v>580</v>
       </c>
       <c r="Q455" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,16 +33180,16 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K456" t="n">
         <v>13000</v>
@@ -33198,11 +33198,11 @@
         <v>14000</v>
       </c>
       <c r="M456" t="n">
-        <v>13429</v>
+        <v>13690</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="Q456" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K457" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L457" t="n">
         <v>16000</v>
       </c>
-      <c r="L457" t="n">
-        <v>17000</v>
-      </c>
       <c r="M457" t="n">
-        <v>16571</v>
+        <v>15400</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="Q457" t="n">
         <v>30</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="K458" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L458" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M458" t="n">
-        <v>14867</v>
+        <v>11333</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="Q458" t="n">
         <v>40</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,20 +33405,20 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="K459" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L459" t="n">
         <v>14000</v>
       </c>
-      <c r="L459" t="n">
-        <v>15000</v>
-      </c>
       <c r="M459" t="n">
-        <v>14412</v>
+        <v>13429</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="Q459" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,24 +33473,24 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="K460" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L460" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M460" t="n">
-        <v>11373</v>
+        <v>16571</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>284</v>
+        <v>552</v>
       </c>
       <c r="Q460" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,20 +33549,20 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="K461" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L461" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M461" t="n">
-        <v>11450</v>
+        <v>14867</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="Q461" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33612,29 +33612,29 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="K462" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L462" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M462" t="n">
-        <v>10567</v>
+        <v>14412</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>151</v>
+        <v>480</v>
       </c>
       <c r="Q462" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,24 +33689,24 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="K463" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L463" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M463" t="n">
-        <v>14575</v>
+        <v>11373</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>14575</v>
+        <v>284</v>
       </c>
       <c r="Q463" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33768,17 +33768,17 @@
         <v>400</v>
       </c>
       <c r="K464" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L464" t="n">
         <v>12000</v>
       </c>
-      <c r="L464" t="n">
-        <v>13000</v>
-      </c>
       <c r="M464" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q464" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,7 +33837,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K465" t="n">
         <v>10000</v>
@@ -33846,11 +33846,11 @@
         <v>11000</v>
       </c>
       <c r="M465" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q465" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,29 +33900,29 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J466" t="n">
         <v>400</v>
       </c>
       <c r="K466" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L466" t="n">
         <v>15000</v>
       </c>
-      <c r="L466" t="n">
-        <v>16000</v>
-      </c>
       <c r="M466" t="n">
-        <v>15425</v>
+        <v>14575</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>308</v>
+        <v>14575</v>
       </c>
       <c r="Q466" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,24 +33977,24 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K467" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L467" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M467" t="n">
-        <v>15448</v>
+        <v>12425</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>15448</v>
+        <v>414</v>
       </c>
       <c r="Q467" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K468" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L468" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M468" t="n">
-        <v>15407</v>
+        <v>10425</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="Q468" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,20 +34125,20 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K469" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L469" t="n">
         <v>16000</v>
       </c>
-      <c r="L469" t="n">
-        <v>18000</v>
-      </c>
       <c r="M469" t="n">
-        <v>16857</v>
+        <v>15425</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>562</v>
+        <v>308</v>
       </c>
       <c r="Q469" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,29 +34188,29 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K470" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L470" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M470" t="n">
-        <v>12395</v>
+        <v>15448</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>248</v>
+        <v>15448</v>
       </c>
       <c r="Q470" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,29 +34260,29 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K471" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L471" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M471" t="n">
-        <v>10540</v>
+        <v>15407</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="Q471" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,24 +34337,24 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K472" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L472" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M472" t="n">
-        <v>14460</v>
+        <v>16857</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>14460</v>
+        <v>562</v>
       </c>
       <c r="Q472" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,20 +34413,20 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K473" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L473" t="n">
         <v>13000</v>
       </c>
-      <c r="L473" t="n">
-        <v>14000</v>
-      </c>
       <c r="M473" t="n">
-        <v>13448</v>
+        <v>12395</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="Q473" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,20 +34485,20 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L474" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M474" t="n">
-        <v>12575</v>
+        <v>10540</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="Q474" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K475" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L475" t="n">
         <v>15000</v>
       </c>
-      <c r="L475" t="n">
-        <v>16000</v>
-      </c>
       <c r="M475" t="n">
-        <v>15400</v>
+        <v>14460</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>513</v>
+        <v>14460</v>
       </c>
       <c r="Q475" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34632,17 +34632,17 @@
         <v>580</v>
       </c>
       <c r="K476" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L476" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M476" t="n">
-        <v>6552</v>
+        <v>13448</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="Q476" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,20 +34701,20 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K477" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L477" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M477" t="n">
-        <v>5410</v>
+        <v>12575</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Q477" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="K478" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L478" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M478" t="n">
-        <v>8446</v>
+        <v>15400</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>8446</v>
+        <v>513</v>
       </c>
       <c r="Q478" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,20 +34845,20 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K479" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L479" t="n">
         <v>7000</v>
       </c>
-      <c r="L479" t="n">
-        <v>8000</v>
-      </c>
       <c r="M479" t="n">
-        <v>7469</v>
+        <v>6552</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="Q479" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34908,41 +34908,41 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K480" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L480" t="n">
         <v>6000</v>
       </c>
-      <c r="L480" t="n">
-        <v>7000</v>
-      </c>
       <c r="M480" t="n">
-        <v>6574</v>
+        <v>5410</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Q480" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34980,43 +34980,259 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J481" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K481" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L481" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M481" t="n">
+        <v>8446</v>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P481" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>1</v>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>6</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E482" t="n">
+        <v>13</v>
+      </c>
+      <c r="F482" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J482" t="n">
+        <v>810</v>
+      </c>
+      <c r="K482" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L482" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M482" t="n">
+        <v>7469</v>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P482" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>30</v>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>6</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D483" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E483" t="n">
+        <v>13</v>
+      </c>
+      <c r="F483" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I481" t="inlineStr">
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>610</v>
+      </c>
+      <c r="K483" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L483" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M483" t="n">
+        <v>6574</v>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P483" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>40</v>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>6</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E484" t="n">
+        <v>13</v>
+      </c>
+      <c r="F484" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J481" t="n">
+      <c r="J484" t="n">
         <v>800</v>
       </c>
-      <c r="K481" t="n">
+      <c r="K484" t="n">
         <v>5000</v>
       </c>
-      <c r="L481" t="n">
+      <c r="L484" t="n">
         <v>6000</v>
       </c>
-      <c r="M481" t="n">
+      <c r="M484" t="n">
         <v>5475</v>
       </c>
-      <c r="N481" t="inlineStr">
+      <c r="N484" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O481" t="inlineStr">
+      <c r="O484" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P481" t="n">
+      <c r="P484" t="n">
         <v>110</v>
       </c>
-      <c r="Q481" t="n">
+      <c r="Q484" t="n">
         <v>50</v>
       </c>
-      <c r="R481" t="inlineStr">
+      <c r="R484" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R484"/>
+  <dimension ref="A1:R487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26916,41 +26916,41 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>580</v>
+        <v>3700</v>
       </c>
       <c r="K369" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L369" t="n">
-        <v>16000</v>
+        <v>320</v>
       </c>
       <c r="M369" t="n">
-        <v>15552</v>
+        <v>306</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q369" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,33 +26993,33 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>590</v>
+        <v>2500</v>
       </c>
       <c r="K370" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="L370" t="n">
-        <v>18000</v>
+        <v>270</v>
       </c>
       <c r="M370" t="n">
-        <v>16915</v>
+        <v>258</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>16915</v>
+        <v>258</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,36 +27065,36 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K371" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="L371" t="n">
-        <v>17000</v>
+        <v>230</v>
       </c>
       <c r="M371" t="n">
-        <v>16540</v>
+        <v>212</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>551</v>
+        <v>212</v>
       </c>
       <c r="Q371" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27132,16 +27132,16 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K372" t="n">
         <v>15000</v>
@@ -27150,11 +27150,11 @@
         <v>16000</v>
       </c>
       <c r="M372" t="n">
-        <v>15540</v>
+        <v>15552</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="Q372" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27204,29 +27204,29 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="K373" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L373" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M373" t="n">
-        <v>14460</v>
+        <v>16915</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>362</v>
+        <v>16915</v>
       </c>
       <c r="Q373" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K374" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L374" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M374" t="n">
-        <v>15575</v>
+        <v>16540</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="Q374" t="n">
         <v>30</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K375" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L375" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M375" t="n">
-        <v>13575</v>
+        <v>15540</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="Q375" t="n">
         <v>40</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K376" t="n">
         <v>14000</v>
@@ -27438,11 +27438,11 @@
         <v>15000</v>
       </c>
       <c r="M376" t="n">
-        <v>14425</v>
+        <v>14460</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="Q376" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,24 +27497,24 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K377" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L377" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M377" t="n">
-        <v>13556</v>
+        <v>15575</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>339</v>
+        <v>519</v>
       </c>
       <c r="Q377" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44469</v>
+        <v>44323</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="K378" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L378" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M378" t="n">
-        <v>10549</v>
+        <v>13575</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="Q378" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,29 +27636,29 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K379" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L379" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M379" t="n">
-        <v>7561</v>
+        <v>14425</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>108</v>
+        <v>481</v>
       </c>
       <c r="Q379" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K380" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L380" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M380" t="n">
-        <v>12000</v>
+        <v>13556</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>339</v>
       </c>
       <c r="Q380" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,20 +27789,20 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>1070</v>
+        <v>510</v>
       </c>
       <c r="K381" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L381" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M381" t="n">
-        <v>7607</v>
+        <v>10549</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="Q381" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K382" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L382" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M382" t="n">
-        <v>11103</v>
+        <v>7561</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="Q382" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,29 +27924,29 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K383" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L383" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M383" t="n">
-        <v>9575</v>
+        <v>12000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>137</v>
+        <v>12000</v>
       </c>
       <c r="Q383" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,29 +27996,29 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>500</v>
+        <v>1070</v>
       </c>
       <c r="K384" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L384" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M384" t="n">
-        <v>13480</v>
+        <v>7607</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>13480</v>
+        <v>190</v>
       </c>
       <c r="Q384" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,20 +28077,20 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="K385" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L385" t="n">
         <v>12000</v>
       </c>
-      <c r="L385" t="n">
-        <v>14000</v>
-      </c>
       <c r="M385" t="n">
-        <v>13303</v>
+        <v>11103</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="Q385" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,29 +28140,29 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K386" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L386" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M386" t="n">
-        <v>6583</v>
+        <v>9575</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="Q386" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,29 +28212,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L387" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M387" t="n">
-        <v>6676</v>
+        <v>13480</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>167</v>
+        <v>13480</v>
       </c>
       <c r="Q387" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="K388" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L388" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M388" t="n">
-        <v>8545</v>
+        <v>13303</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>214</v>
+        <v>443</v>
       </c>
       <c r="Q388" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="K389" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L389" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M389" t="n">
-        <v>10939</v>
+        <v>6583</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>10939</v>
+        <v>219</v>
       </c>
       <c r="Q389" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,20 +28437,20 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="K390" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L390" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M390" t="n">
-        <v>9543</v>
+        <v>6676</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="Q390" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,32 +28509,32 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>7000</v>
+        <v>220</v>
       </c>
       <c r="K391" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="L391" t="n">
-        <v>350</v>
+        <v>9000</v>
       </c>
       <c r="M391" t="n">
-        <v>318</v>
+        <v>8545</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="Q391" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28577,33 +28577,33 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>4000</v>
+        <v>490</v>
       </c>
       <c r="K392" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L392" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M392" t="n">
-        <v>219</v>
+        <v>10939</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>219</v>
+        <v>10939</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28649,36 +28649,36 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K393" t="n">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="L393" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="M393" t="n">
-        <v>158</v>
+        <v>9543</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="Q393" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,32 +28725,32 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="K394" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="L394" t="n">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="M394" t="n">
-        <v>7467</v>
+        <v>318</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="Q394" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,32 +28797,32 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>580</v>
+        <v>4000</v>
       </c>
       <c r="K395" t="n">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="L395" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="M395" t="n">
-        <v>6448</v>
+        <v>219</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="Q395" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,41 +28860,41 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>290</v>
+        <v>2500</v>
       </c>
       <c r="K396" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L396" t="n">
-        <v>14000</v>
+        <v>170</v>
       </c>
       <c r="M396" t="n">
-        <v>13414</v>
+        <v>158</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="Q396" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,29 +28932,29 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="K397" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L397" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M397" t="n">
-        <v>12556</v>
+        <v>7467</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q397" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,29 +29004,29 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="K398" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L398" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M398" t="n">
-        <v>13444</v>
+        <v>6448</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>13444</v>
+        <v>129</v>
       </c>
       <c r="Q398" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,20 +29085,20 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K399" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L399" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M399" t="n">
-        <v>12419</v>
+        <v>13414</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="Q399" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,20 +29157,20 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="K400" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L400" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M400" t="n">
-        <v>8545</v>
+        <v>12556</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q400" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,29 +29229,29 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>6500</v>
+        <v>450</v>
       </c>
       <c r="K401" t="n">
-        <v>270</v>
+        <v>13000</v>
       </c>
       <c r="L401" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M401" t="n">
-        <v>289</v>
+        <v>13444</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>289</v>
+        <v>13444</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,32 +29301,32 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>5300</v>
+        <v>310</v>
       </c>
       <c r="K402" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="L402" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M402" t="n">
-        <v>244</v>
+        <v>12419</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>244</v>
+        <v>414</v>
       </c>
       <c r="Q402" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,32 +29373,32 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>3800</v>
+        <v>550</v>
       </c>
       <c r="K403" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="L403" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="M403" t="n">
-        <v>183</v>
+        <v>8545</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q403" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29436,41 +29436,41 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>410</v>
+        <v>6500</v>
       </c>
       <c r="K404" t="n">
-        <v>7000</v>
+        <v>270</v>
       </c>
       <c r="L404" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="M404" t="n">
-        <v>7561</v>
+        <v>289</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="Q404" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,33 +29513,33 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>410</v>
+        <v>5300</v>
       </c>
       <c r="K405" t="n">
-        <v>7000</v>
+        <v>230</v>
       </c>
       <c r="L405" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="M405" t="n">
-        <v>7439</v>
+        <v>244</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>7439</v>
+        <v>244</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,36 +29585,36 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>880</v>
+        <v>3800</v>
       </c>
       <c r="K406" t="n">
-        <v>6000</v>
+        <v>150</v>
       </c>
       <c r="L406" t="n">
-        <v>7000</v>
+        <v>200</v>
       </c>
       <c r="M406" t="n">
-        <v>6261</v>
+        <v>183</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="Q406" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,7 +29661,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>1100</v>
+        <v>410</v>
       </c>
       <c r="K407" t="n">
         <v>7000</v>
@@ -29670,23 +29670,23 @@
         <v>8000</v>
       </c>
       <c r="M407" t="n">
-        <v>7427</v>
+        <v>7561</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q407" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,29 +29724,29 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="K408" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L408" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M408" t="n">
-        <v>11452</v>
+        <v>7439</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>229</v>
+        <v>7439</v>
       </c>
       <c r="Q408" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,24 +29801,24 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>630</v>
+        <v>880</v>
       </c>
       <c r="K409" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L409" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M409" t="n">
-        <v>14571</v>
+        <v>6261</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>14571</v>
+        <v>209</v>
       </c>
       <c r="Q409" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,32 +29877,32 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K410" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L410" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M410" t="n">
-        <v>12425</v>
+        <v>7427</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="Q410" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29940,16 +29940,16 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K411" t="n">
         <v>11000</v>
@@ -29958,11 +29958,11 @@
         <v>12000</v>
       </c>
       <c r="M411" t="n">
-        <v>11575</v>
+        <v>11452</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="Q411" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,16 +30012,16 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K412" t="n">
         <v>14000</v>
@@ -30030,11 +30030,11 @@
         <v>15000</v>
       </c>
       <c r="M412" t="n">
-        <v>14404</v>
+        <v>14571</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>360</v>
+        <v>14571</v>
       </c>
       <c r="Q412" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,24 +30089,24 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K413" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L413" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M413" t="n">
-        <v>17525</v>
+        <v>12425</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>17525</v>
+        <v>414</v>
       </c>
       <c r="Q413" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K414" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L414" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M414" t="n">
-        <v>15552</v>
+        <v>11575</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>518</v>
+        <v>289</v>
       </c>
       <c r="Q414" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30228,25 +30228,25 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K415" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L415" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M415" t="n">
-        <v>13575</v>
+        <v>14404</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="Q415" t="n">
         <v>40</v>
@@ -30300,29 +30300,29 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="K416" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L416" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M416" t="n">
-        <v>13478</v>
+        <v>17525</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>337</v>
+        <v>17525</v>
       </c>
       <c r="Q416" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,20 +30381,20 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K417" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L417" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M417" t="n">
-        <v>17425</v>
+        <v>15552</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>348</v>
+        <v>518</v>
       </c>
       <c r="Q417" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="K418" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L418" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M418" t="n">
-        <v>16489</v>
+        <v>13575</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>550</v>
+        <v>339</v>
       </c>
       <c r="Q418" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30516,25 +30516,25 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="K419" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L419" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M419" t="n">
-        <v>17552</v>
+        <v>13478</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="Q419" t="n">
         <v>40</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30600,13 +30600,13 @@
         <v>400</v>
       </c>
       <c r="K420" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L420" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M420" t="n">
-        <v>11575</v>
+        <v>17425</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="Q420" t="n">
         <v>50</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,29 +30660,29 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="K421" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L421" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M421" t="n">
-        <v>9404</v>
+        <v>16489</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>134</v>
+        <v>550</v>
       </c>
       <c r="Q421" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K422" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L422" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M422" t="n">
-        <v>14850</v>
+        <v>17552</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>14850</v>
+        <v>439</v>
       </c>
       <c r="Q422" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,20 +30813,20 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="K423" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M423" t="n">
-        <v>13566</v>
+        <v>11575</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="Q423" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30876,29 +30876,29 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="K424" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L424" t="n">
         <v>10000</v>
       </c>
       <c r="M424" t="n">
-        <v>9433</v>
+        <v>9404</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="Q424" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,29 +30948,29 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K425" t="n">
         <v>14000</v>
       </c>
       <c r="L425" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M425" t="n">
-        <v>14509</v>
+        <v>14850</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>290</v>
+        <v>14850</v>
       </c>
       <c r="Q425" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,29 +31020,29 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="K426" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L426" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M426" t="n">
-        <v>10605</v>
+        <v>13566</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="Q426" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,29 +31092,29 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K427" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L427" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M427" t="n">
-        <v>15000</v>
+        <v>9433</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>15000</v>
+        <v>236</v>
       </c>
       <c r="Q427" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,20 +31173,20 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>1060</v>
+        <v>550</v>
       </c>
       <c r="K428" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L428" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M428" t="n">
-        <v>13406</v>
+        <v>14509</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="Q428" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,20 +31245,20 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K429" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L429" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M429" t="n">
-        <v>9684</v>
+        <v>10605</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="Q429" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31308,16 +31308,16 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K430" t="n">
         <v>15000</v>
@@ -31330,7 +31330,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="Q430" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31380,29 +31380,29 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>320</v>
+        <v>1060</v>
       </c>
       <c r="K431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L431" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M431" t="n">
-        <v>12000</v>
+        <v>13406</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>240</v>
+        <v>447</v>
       </c>
       <c r="Q431" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31457,24 +31457,24 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K432" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L432" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M432" t="n">
-        <v>15400</v>
+        <v>9684</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>513</v>
+        <v>242</v>
       </c>
       <c r="Q432" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,25 +31524,25 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="K433" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L433" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M433" t="n">
-        <v>13417</v>
+        <v>15000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Q433" t="n">
         <v>40</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,29 +31596,29 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="K434" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L434" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M434" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>14400</v>
+        <v>240</v>
       </c>
       <c r="Q434" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K435" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L435" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M435" t="n">
-        <v>11575</v>
+        <v>15400</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="Q435" t="n">
         <v>30</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="K436" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L436" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M436" t="n">
-        <v>9491</v>
+        <v>13417</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="Q436" t="n">
         <v>40</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K437" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L437" t="n">
         <v>15000</v>
       </c>
       <c r="M437" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K438" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L438" t="n">
         <v>12000</v>
       </c>
       <c r="M438" t="n">
-        <v>12000</v>
+        <v>11575</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q438" t="n">
         <v>30</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,25 +31956,25 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K439" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L439" t="n">
         <v>10000</v>
       </c>
       <c r="M439" t="n">
-        <v>10000</v>
+        <v>9491</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q439" t="n">
         <v>40</v>
@@ -32028,29 +32028,29 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K440" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L440" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M440" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="Q440" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32100,16 +32100,16 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K441" t="n">
         <v>12000</v>
@@ -32122,7 +32122,7 @@
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q441" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,29 +32172,29 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>610</v>
+        <v>240</v>
       </c>
       <c r="K442" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L442" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M442" t="n">
-        <v>7574</v>
+        <v>10000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="Q442" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,29 +32244,29 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K443" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L443" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M443" t="n">
-        <v>6589</v>
+        <v>14000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="Q443" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32316,29 +32316,29 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K444" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M444" t="n">
-        <v>7425</v>
+        <v>12000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>7425</v>
+        <v>240</v>
       </c>
       <c r="Q444" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32388,41 +32388,41 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>7200</v>
+        <v>610</v>
       </c>
       <c r="K445" t="n">
-        <v>350</v>
+        <v>7000</v>
       </c>
       <c r="L445" t="n">
-        <v>370</v>
+        <v>8000</v>
       </c>
       <c r="M445" t="n">
-        <v>357</v>
+        <v>7574</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="Q445" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32460,16 +32460,16 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>510</v>
+        <v>900</v>
       </c>
       <c r="K446" t="n">
         <v>6000</v>
@@ -32478,11 +32478,11 @@
         <v>7000</v>
       </c>
       <c r="M446" t="n">
-        <v>6451</v>
+        <v>6589</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="Q446" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32537,33 +32537,33 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="K447" t="n">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="L447" t="n">
-        <v>330</v>
+        <v>8000</v>
       </c>
       <c r="M447" t="n">
-        <v>311</v>
+        <v>7425</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>311</v>
+        <v>7425</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="K448" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L448" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="M448" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>750</v>
+        <v>510</v>
       </c>
       <c r="K449" t="n">
         <v>6000</v>
@@ -32694,23 +32694,23 @@
         <v>7000</v>
       </c>
       <c r="M449" t="n">
-        <v>6427</v>
+        <v>6451</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="Q449" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,20 +32757,20 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>590</v>
+        <v>4000</v>
       </c>
       <c r="K450" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="L450" t="n">
-        <v>8000</v>
+        <v>330</v>
       </c>
       <c r="M450" t="n">
-        <v>7542</v>
+        <v>311</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="Q450" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,41 +32820,41 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>530</v>
+        <v>3200</v>
       </c>
       <c r="K451" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L451" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M451" t="n">
-        <v>14491</v>
+        <v>250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q451" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,32 +32901,32 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K452" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L452" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M452" t="n">
-        <v>16540</v>
+        <v>6427</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>551</v>
+        <v>161</v>
       </c>
       <c r="Q452" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="K453" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L453" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M453" t="n">
-        <v>14509</v>
+        <v>7542</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="Q453" t="n">
         <v>40</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="K454" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L454" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M454" t="n">
-        <v>13418</v>
+        <v>14491</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="Q454" t="n">
         <v>50</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K455" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L455" t="n">
         <v>17000</v>
       </c>
-      <c r="L455" t="n">
-        <v>18000</v>
-      </c>
       <c r="M455" t="n">
-        <v>17395</v>
+        <v>16540</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="Q455" t="n">
         <v>30</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K456" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L456" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M456" t="n">
-        <v>13690</v>
+        <v>14509</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="Q456" t="n">
         <v>40</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,20 +33261,20 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K457" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L457" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M457" t="n">
-        <v>15400</v>
+        <v>13418</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>513</v>
+        <v>268</v>
       </c>
       <c r="Q457" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,24 +33329,24 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L458" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M458" t="n">
-        <v>11333</v>
+        <v>17395</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>283</v>
+        <v>580</v>
       </c>
       <c r="Q458" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33396,16 +33396,16 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K459" t="n">
         <v>13000</v>
@@ -33414,11 +33414,11 @@
         <v>14000</v>
       </c>
       <c r="M459" t="n">
-        <v>13429</v>
+        <v>13690</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="Q459" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K460" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L460" t="n">
         <v>16000</v>
       </c>
-      <c r="L460" t="n">
-        <v>17000</v>
-      </c>
       <c r="M460" t="n">
-        <v>16571</v>
+        <v>15400</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="Q460" t="n">
         <v>30</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="K461" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L461" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M461" t="n">
-        <v>14867</v>
+        <v>11333</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="Q461" t="n">
         <v>40</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,20 +33621,20 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="K462" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L462" t="n">
         <v>14000</v>
       </c>
-      <c r="L462" t="n">
-        <v>15000</v>
-      </c>
       <c r="M462" t="n">
-        <v>14412</v>
+        <v>13429</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="Q462" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,24 +33689,24 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="K463" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L463" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M463" t="n">
-        <v>11373</v>
+        <v>16571</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>284</v>
+        <v>552</v>
       </c>
       <c r="Q463" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,20 +33765,20 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="K464" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L464" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M464" t="n">
-        <v>11450</v>
+        <v>14867</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="Q464" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33828,29 +33828,29 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="K465" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L465" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M465" t="n">
-        <v>10567</v>
+        <v>14412</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>151</v>
+        <v>480</v>
       </c>
       <c r="Q465" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,24 +33905,24 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="K466" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M466" t="n">
-        <v>14575</v>
+        <v>11373</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>14575</v>
+        <v>284</v>
       </c>
       <c r="Q466" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33984,17 +33984,17 @@
         <v>400</v>
       </c>
       <c r="K467" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L467" t="n">
         <v>12000</v>
       </c>
-      <c r="L467" t="n">
-        <v>13000</v>
-      </c>
       <c r="M467" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q467" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,7 +34053,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K468" t="n">
         <v>10000</v>
@@ -34062,11 +34062,11 @@
         <v>11000</v>
       </c>
       <c r="M468" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q468" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,29 +34116,29 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J469" t="n">
         <v>400</v>
       </c>
       <c r="K469" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L469" t="n">
         <v>15000</v>
       </c>
-      <c r="L469" t="n">
-        <v>16000</v>
-      </c>
       <c r="M469" t="n">
-        <v>15425</v>
+        <v>14575</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>308</v>
+        <v>14575</v>
       </c>
       <c r="Q469" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,24 +34193,24 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K470" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L470" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M470" t="n">
-        <v>15448</v>
+        <v>12425</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>15448</v>
+        <v>414</v>
       </c>
       <c r="Q470" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,24 +34265,24 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K471" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L471" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M471" t="n">
-        <v>15407</v>
+        <v>10425</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="Q471" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,20 +34341,20 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K472" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L472" t="n">
         <v>16000</v>
       </c>
-      <c r="L472" t="n">
-        <v>18000</v>
-      </c>
       <c r="M472" t="n">
-        <v>16857</v>
+        <v>15425</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>562</v>
+        <v>308</v>
       </c>
       <c r="Q472" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,29 +34404,29 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K473" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L473" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M473" t="n">
-        <v>12395</v>
+        <v>15448</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>248</v>
+        <v>15448</v>
       </c>
       <c r="Q473" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,29 +34476,29 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K474" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L474" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M474" t="n">
-        <v>10540</v>
+        <v>15407</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="Q474" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K475" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L475" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M475" t="n">
-        <v>14460</v>
+        <v>16857</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>14460</v>
+        <v>562</v>
       </c>
       <c r="Q475" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,20 +34629,20 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K476" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L476" t="n">
         <v>13000</v>
       </c>
-      <c r="L476" t="n">
-        <v>14000</v>
-      </c>
       <c r="M476" t="n">
-        <v>13448</v>
+        <v>12395</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="Q476" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,20 +34701,20 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K477" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L477" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M477" t="n">
-        <v>12575</v>
+        <v>10540</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="Q477" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K478" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L478" t="n">
         <v>15000</v>
       </c>
-      <c r="L478" t="n">
-        <v>16000</v>
-      </c>
       <c r="M478" t="n">
-        <v>15400</v>
+        <v>14460</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>513</v>
+        <v>14460</v>
       </c>
       <c r="Q478" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34848,17 +34848,17 @@
         <v>580</v>
       </c>
       <c r="K479" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L479" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M479" t="n">
-        <v>6552</v>
+        <v>13448</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="Q479" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,20 +34917,20 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M480" t="n">
-        <v>5410</v>
+        <v>12575</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Q480" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,24 +34985,24 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="K481" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L481" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M481" t="n">
-        <v>8446</v>
+        <v>15400</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>8446</v>
+        <v>513</v>
       </c>
       <c r="Q481" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,20 +35061,20 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K482" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L482" t="n">
         <v>7000</v>
       </c>
-      <c r="L482" t="n">
-        <v>8000</v>
-      </c>
       <c r="M482" t="n">
-        <v>7469</v>
+        <v>6552</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="Q482" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35124,41 +35124,41 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K483" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L483" t="n">
         <v>6000</v>
       </c>
-      <c r="L483" t="n">
-        <v>7000</v>
-      </c>
       <c r="M483" t="n">
-        <v>6574</v>
+        <v>5410</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Q483" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35196,43 +35196,259 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J484" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K484" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L484" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M484" t="n">
+        <v>8446</v>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P484" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>1</v>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>6</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E485" t="n">
+        <v>13</v>
+      </c>
+      <c r="F485" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J485" t="n">
+        <v>810</v>
+      </c>
+      <c r="K485" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L485" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M485" t="n">
+        <v>7469</v>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P485" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>30</v>
+      </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>6</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E486" t="n">
+        <v>13</v>
+      </c>
+      <c r="F486" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I484" t="inlineStr">
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>610</v>
+      </c>
+      <c r="K486" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L486" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M486" t="n">
+        <v>6574</v>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P486" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>40</v>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>6</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E487" t="n">
+        <v>13</v>
+      </c>
+      <c r="F487" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J484" t="n">
+      <c r="J487" t="n">
         <v>800</v>
       </c>
-      <c r="K484" t="n">
+      <c r="K487" t="n">
         <v>5000</v>
       </c>
-      <c r="L484" t="n">
+      <c r="L487" t="n">
         <v>6000</v>
       </c>
-      <c r="M484" t="n">
+      <c r="M487" t="n">
         <v>5475</v>
       </c>
-      <c r="N484" t="inlineStr">
+      <c r="N487" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O484" t="inlineStr">
+      <c r="O487" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P484" t="n">
+      <c r="P487" t="n">
         <v>110</v>
       </c>
-      <c r="Q484" t="n">
+      <c r="Q487" t="n">
         <v>50</v>
       </c>
-      <c r="R484" t="inlineStr">
+      <c r="R487" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R487"/>
+  <dimension ref="A1:R490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,41 +33972,41 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="K467" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L467" t="n">
-        <v>12000</v>
+        <v>320</v>
       </c>
       <c r="M467" t="n">
-        <v>11450</v>
+        <v>307</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="Q467" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,41 +34044,41 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K468" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L468" t="n">
-        <v>11000</v>
+        <v>270</v>
       </c>
       <c r="M468" t="n">
-        <v>10567</v>
+        <v>260</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="Q468" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,33 +34121,33 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K469" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="L469" t="n">
-        <v>15000</v>
+        <v>230</v>
       </c>
       <c r="M469" t="n">
-        <v>14575</v>
+        <v>214</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>14575</v>
+        <v>214</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34200,17 +34200,17 @@
         <v>400</v>
       </c>
       <c r="K470" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L470" t="n">
         <v>12000</v>
       </c>
-      <c r="L470" t="n">
-        <v>13000</v>
-      </c>
       <c r="M470" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q470" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K471" t="n">
         <v>10000</v>
@@ -34278,11 +34278,11 @@
         <v>11000</v>
       </c>
       <c r="M471" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q471" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,29 +34332,29 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J472" t="n">
         <v>400</v>
       </c>
       <c r="K472" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L472" t="n">
         <v>15000</v>
       </c>
-      <c r="L472" t="n">
-        <v>16000</v>
-      </c>
       <c r="M472" t="n">
-        <v>15425</v>
+        <v>14575</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>308</v>
+        <v>14575</v>
       </c>
       <c r="Q472" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,24 +34409,24 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K473" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L473" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M473" t="n">
-        <v>15448</v>
+        <v>12425</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>15448</v>
+        <v>414</v>
       </c>
       <c r="Q473" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,24 +34481,24 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K474" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L474" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M474" t="n">
-        <v>15407</v>
+        <v>10425</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="Q474" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,20 +34557,20 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K475" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L475" t="n">
         <v>16000</v>
       </c>
-      <c r="L475" t="n">
-        <v>18000</v>
-      </c>
       <c r="M475" t="n">
-        <v>16857</v>
+        <v>15425</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>562</v>
+        <v>308</v>
       </c>
       <c r="Q475" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,29 +34620,29 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K476" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L476" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M476" t="n">
-        <v>12395</v>
+        <v>15448</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>248</v>
+        <v>15448</v>
       </c>
       <c r="Q476" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,29 +34692,29 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K477" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L477" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M477" t="n">
-        <v>10540</v>
+        <v>15407</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="Q477" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K478" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L478" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M478" t="n">
-        <v>14460</v>
+        <v>16857</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>14460</v>
+        <v>562</v>
       </c>
       <c r="Q478" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,20 +34845,20 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K479" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L479" t="n">
         <v>13000</v>
       </c>
-      <c r="L479" t="n">
-        <v>14000</v>
-      </c>
       <c r="M479" t="n">
-        <v>13448</v>
+        <v>12395</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="Q479" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,20 +34917,20 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K480" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L480" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>12575</v>
+        <v>10540</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="Q480" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,24 +34985,24 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K481" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L481" t="n">
         <v>15000</v>
       </c>
-      <c r="L481" t="n">
-        <v>16000</v>
-      </c>
       <c r="M481" t="n">
-        <v>15400</v>
+        <v>14460</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>513</v>
+        <v>14460</v>
       </c>
       <c r="Q481" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35064,17 +35064,17 @@
         <v>580</v>
       </c>
       <c r="K482" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L482" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M482" t="n">
-        <v>6552</v>
+        <v>13448</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="Q482" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K483" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L483" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M483" t="n">
-        <v>5410</v>
+        <v>12575</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Q483" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,24 +35201,24 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="K484" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L484" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M484" t="n">
-        <v>8446</v>
+        <v>15400</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>8446</v>
+        <v>513</v>
       </c>
       <c r="Q484" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K485" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L485" t="n">
         <v>7000</v>
       </c>
-      <c r="L485" t="n">
-        <v>8000</v>
-      </c>
       <c r="M485" t="n">
-        <v>7469</v>
+        <v>6552</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="Q485" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35340,41 +35340,41 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K486" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L486" t="n">
         <v>6000</v>
       </c>
-      <c r="L486" t="n">
-        <v>7000</v>
-      </c>
       <c r="M486" t="n">
-        <v>6574</v>
+        <v>5410</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Q486" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35412,43 +35412,259 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K487" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L487" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M487" t="n">
+        <v>8446</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P487" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>1</v>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>6</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E488" t="n">
+        <v>13</v>
+      </c>
+      <c r="F488" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>810</v>
+      </c>
+      <c r="K488" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L488" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M488" t="n">
+        <v>7469</v>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P488" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>30</v>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>6</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E489" t="n">
+        <v>13</v>
+      </c>
+      <c r="F489" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I487" t="inlineStr">
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>610</v>
+      </c>
+      <c r="K489" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L489" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M489" t="n">
+        <v>6574</v>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P489" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>40</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>6</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E490" t="n">
+        <v>13</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J487" t="n">
+      <c r="J490" t="n">
         <v>800</v>
       </c>
-      <c r="K487" t="n">
+      <c r="K490" t="n">
         <v>5000</v>
       </c>
-      <c r="L487" t="n">
+      <c r="L490" t="n">
         <v>6000</v>
       </c>
-      <c r="M487" t="n">
+      <c r="M490" t="n">
         <v>5475</v>
       </c>
-      <c r="N487" t="inlineStr">
+      <c r="N490" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O487" t="inlineStr">
+      <c r="O490" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P487" t="n">
+      <c r="P490" t="n">
         <v>110</v>
       </c>
-      <c r="Q487" t="n">
+      <c r="Q490" t="n">
         <v>50</v>
       </c>
-      <c r="R487" t="inlineStr">
+      <c r="R490" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R490"/>
+  <dimension ref="A1:R493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,36 +27641,36 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="K379" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L379" t="n">
-        <v>15000</v>
+        <v>320</v>
       </c>
       <c r="M379" t="n">
-        <v>14425</v>
+        <v>308</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>481</v>
+        <v>308</v>
       </c>
       <c r="Q379" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,36 +27713,36 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K380" t="n">
+        <v>250</v>
+      </c>
+      <c r="L380" t="n">
         <v>270</v>
       </c>
-      <c r="K380" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L380" t="n">
-        <v>14000</v>
-      </c>
       <c r="M380" t="n">
-        <v>13556</v>
+        <v>257</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="Q380" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44469</v>
+        <v>44511</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,41 +27780,41 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>510</v>
+        <v>2000</v>
       </c>
       <c r="K381" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="L381" t="n">
-        <v>11000</v>
+        <v>230</v>
       </c>
       <c r="M381" t="n">
-        <v>10549</v>
+        <v>208</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q381" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,29 +27852,29 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K382" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L382" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M382" t="n">
-        <v>7561</v>
+        <v>14425</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>108</v>
+        <v>481</v>
       </c>
       <c r="Q382" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,24 +27929,24 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K383" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L383" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M383" t="n">
-        <v>12000</v>
+        <v>13556</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>12000</v>
+        <v>339</v>
       </c>
       <c r="Q383" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,20 +28005,20 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1070</v>
+        <v>510</v>
       </c>
       <c r="K384" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L384" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M384" t="n">
-        <v>7607</v>
+        <v>10549</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="Q384" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,24 +28073,24 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K385" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L385" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M385" t="n">
-        <v>11103</v>
+        <v>7561</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="Q385" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,29 +28140,29 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K386" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L386" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M386" t="n">
-        <v>9575</v>
+        <v>12000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>137</v>
+        <v>12000</v>
       </c>
       <c r="Q386" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,29 +28212,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>500</v>
+        <v>1070</v>
       </c>
       <c r="K387" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L387" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M387" t="n">
-        <v>13480</v>
+        <v>7607</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>13480</v>
+        <v>190</v>
       </c>
       <c r="Q387" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="K388" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L388" t="n">
         <v>12000</v>
       </c>
-      <c r="L388" t="n">
-        <v>14000</v>
-      </c>
       <c r="M388" t="n">
-        <v>13303</v>
+        <v>11103</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="Q388" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,29 +28356,29 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K389" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L389" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M389" t="n">
-        <v>6583</v>
+        <v>9575</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="Q389" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28428,29 +28428,29 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K390" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L390" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M390" t="n">
-        <v>6676</v>
+        <v>13480</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>167</v>
+        <v>13480</v>
       </c>
       <c r="Q390" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,20 +28509,20 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="K391" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L391" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M391" t="n">
-        <v>8545</v>
+        <v>13303</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>214</v>
+        <v>443</v>
       </c>
       <c r="Q391" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="K392" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L392" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M392" t="n">
-        <v>10939</v>
+        <v>6583</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>10939</v>
+        <v>219</v>
       </c>
       <c r="Q392" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,20 +28653,20 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="K393" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L393" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M393" t="n">
-        <v>9543</v>
+        <v>6676</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="Q393" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,32 +28725,32 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>7000</v>
+        <v>220</v>
       </c>
       <c r="K394" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="L394" t="n">
-        <v>350</v>
+        <v>9000</v>
       </c>
       <c r="M394" t="n">
-        <v>318</v>
+        <v>8545</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="Q394" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28793,33 +28793,33 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>4000</v>
+        <v>490</v>
       </c>
       <c r="K395" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L395" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M395" t="n">
-        <v>219</v>
+        <v>10939</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>219</v>
+        <v>10939</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28865,36 +28865,36 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K396" t="n">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="L396" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="M396" t="n">
-        <v>158</v>
+        <v>9543</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="Q396" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,32 +28941,32 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="K397" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="L397" t="n">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="M397" t="n">
-        <v>7467</v>
+        <v>318</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="Q397" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,32 +29013,32 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>580</v>
+        <v>4000</v>
       </c>
       <c r="K398" t="n">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="L398" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="M398" t="n">
-        <v>6448</v>
+        <v>219</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,41 +29076,41 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>290</v>
+        <v>2500</v>
       </c>
       <c r="K399" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L399" t="n">
-        <v>14000</v>
+        <v>170</v>
       </c>
       <c r="M399" t="n">
-        <v>13414</v>
+        <v>158</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="Q399" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,29 +29148,29 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="K400" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M400" t="n">
-        <v>12556</v>
+        <v>7467</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q400" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,29 +29220,29 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="K401" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L401" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M401" t="n">
-        <v>13444</v>
+        <v>6448</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>13444</v>
+        <v>129</v>
       </c>
       <c r="Q401" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,20 +29301,20 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K402" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L402" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M402" t="n">
-        <v>12419</v>
+        <v>13414</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="Q402" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,20 +29373,20 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="K403" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L403" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M403" t="n">
-        <v>8545</v>
+        <v>12556</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q403" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,29 +29445,29 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>6500</v>
+        <v>450</v>
       </c>
       <c r="K404" t="n">
-        <v>270</v>
+        <v>13000</v>
       </c>
       <c r="L404" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M404" t="n">
-        <v>289</v>
+        <v>13444</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>289</v>
+        <v>13444</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,32 +29517,32 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>5300</v>
+        <v>310</v>
       </c>
       <c r="K405" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="L405" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M405" t="n">
-        <v>244</v>
+        <v>12419</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>244</v>
+        <v>414</v>
       </c>
       <c r="Q405" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,32 +29589,32 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>3800</v>
+        <v>550</v>
       </c>
       <c r="K406" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="L406" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="M406" t="n">
-        <v>183</v>
+        <v>8545</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q406" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,41 +29652,41 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>410</v>
+        <v>6500</v>
       </c>
       <c r="K407" t="n">
-        <v>7000</v>
+        <v>270</v>
       </c>
       <c r="L407" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="M407" t="n">
-        <v>7561</v>
+        <v>289</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="Q407" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,33 +29729,33 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>410</v>
+        <v>5300</v>
       </c>
       <c r="K408" t="n">
-        <v>7000</v>
+        <v>230</v>
       </c>
       <c r="L408" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="M408" t="n">
-        <v>7439</v>
+        <v>244</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>7439</v>
+        <v>244</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,36 +29801,36 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>880</v>
+        <v>3800</v>
       </c>
       <c r="K409" t="n">
-        <v>6000</v>
+        <v>150</v>
       </c>
       <c r="L409" t="n">
-        <v>7000</v>
+        <v>200</v>
       </c>
       <c r="M409" t="n">
-        <v>6261</v>
+        <v>183</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="Q409" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,7 +29877,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>1100</v>
+        <v>410</v>
       </c>
       <c r="K410" t="n">
         <v>7000</v>
@@ -29886,23 +29886,23 @@
         <v>8000</v>
       </c>
       <c r="M410" t="n">
-        <v>7427</v>
+        <v>7561</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q410" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,29 +29940,29 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="K411" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L411" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M411" t="n">
-        <v>11452</v>
+        <v>7439</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>229</v>
+        <v>7439</v>
       </c>
       <c r="Q411" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,24 +30017,24 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>630</v>
+        <v>880</v>
       </c>
       <c r="K412" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M412" t="n">
-        <v>14571</v>
+        <v>6261</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>14571</v>
+        <v>209</v>
       </c>
       <c r="Q412" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,32 +30093,32 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K413" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L413" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M413" t="n">
-        <v>12425</v>
+        <v>7427</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="Q413" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30156,16 +30156,16 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K414" t="n">
         <v>11000</v>
@@ -30174,11 +30174,11 @@
         <v>12000</v>
       </c>
       <c r="M414" t="n">
-        <v>11575</v>
+        <v>11452</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="Q414" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,16 +30228,16 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K415" t="n">
         <v>14000</v>
@@ -30246,11 +30246,11 @@
         <v>15000</v>
       </c>
       <c r="M415" t="n">
-        <v>14404</v>
+        <v>14571</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>360</v>
+        <v>14571</v>
       </c>
       <c r="Q415" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,24 +30305,24 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K416" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L416" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M416" t="n">
-        <v>17525</v>
+        <v>12425</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>17525</v>
+        <v>414</v>
       </c>
       <c r="Q416" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,24 +30377,24 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K417" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L417" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M417" t="n">
-        <v>15552</v>
+        <v>11575</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>518</v>
+        <v>289</v>
       </c>
       <c r="Q417" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K418" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L418" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M418" t="n">
-        <v>13575</v>
+        <v>14404</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="Q418" t="n">
         <v>40</v>
@@ -30516,29 +30516,29 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="K419" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L419" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M419" t="n">
-        <v>13478</v>
+        <v>17525</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>337</v>
+        <v>17525</v>
       </c>
       <c r="Q419" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,20 +30597,20 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K420" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L420" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M420" t="n">
-        <v>17425</v>
+        <v>15552</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>348</v>
+        <v>518</v>
       </c>
       <c r="Q420" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,24 +30665,24 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="K421" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L421" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M421" t="n">
-        <v>16489</v>
+        <v>13575</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>550</v>
+        <v>339</v>
       </c>
       <c r="Q421" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,25 +30732,25 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="K422" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L422" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M422" t="n">
-        <v>17552</v>
+        <v>13478</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="Q422" t="n">
         <v>40</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30816,13 +30816,13 @@
         <v>400</v>
       </c>
       <c r="K423" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L423" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M423" t="n">
-        <v>11575</v>
+        <v>17425</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="Q423" t="n">
         <v>50</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,29 +30876,29 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="K424" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L424" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M424" t="n">
-        <v>9404</v>
+        <v>16489</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>134</v>
+        <v>550</v>
       </c>
       <c r="Q424" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,24 +30953,24 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K425" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L425" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M425" t="n">
-        <v>14850</v>
+        <v>17552</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>14850</v>
+        <v>439</v>
       </c>
       <c r="Q425" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,20 +31029,20 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="K426" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L426" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M426" t="n">
-        <v>13566</v>
+        <v>11575</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="Q426" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31092,29 +31092,29 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="K427" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L427" t="n">
         <v>10000</v>
       </c>
       <c r="M427" t="n">
-        <v>9433</v>
+        <v>9404</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="Q427" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,29 +31164,29 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K428" t="n">
         <v>14000</v>
       </c>
       <c r="L428" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M428" t="n">
-        <v>14509</v>
+        <v>14850</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>290</v>
+        <v>14850</v>
       </c>
       <c r="Q428" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,29 +31236,29 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="K429" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L429" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M429" t="n">
-        <v>10605</v>
+        <v>13566</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="Q429" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31308,29 +31308,29 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K430" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L430" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M430" t="n">
-        <v>15000</v>
+        <v>9433</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>15000</v>
+        <v>236</v>
       </c>
       <c r="Q430" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,20 +31389,20 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>1060</v>
+        <v>550</v>
       </c>
       <c r="K431" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L431" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M431" t="n">
-        <v>13406</v>
+        <v>14509</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="Q431" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,20 +31461,20 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K432" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L432" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M432" t="n">
-        <v>9684</v>
+        <v>10605</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="Q432" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31524,16 +31524,16 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K433" t="n">
         <v>15000</v>
@@ -31546,7 +31546,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="Q433" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31596,29 +31596,29 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>320</v>
+        <v>1060</v>
       </c>
       <c r="K434" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L434" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M434" t="n">
-        <v>12000</v>
+        <v>13406</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>240</v>
+        <v>447</v>
       </c>
       <c r="Q434" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,24 +31673,24 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K435" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M435" t="n">
-        <v>15400</v>
+        <v>9684</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>513</v>
+        <v>242</v>
       </c>
       <c r="Q435" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="K436" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M436" t="n">
-        <v>13417</v>
+        <v>15000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Q436" t="n">
         <v>40</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,29 +31812,29 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="K437" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L437" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M437" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>14400</v>
+        <v>240</v>
       </c>
       <c r="Q437" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K438" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L438" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M438" t="n">
-        <v>11575</v>
+        <v>15400</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="Q438" t="n">
         <v>30</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,25 +31956,25 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="K439" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M439" t="n">
-        <v>9491</v>
+        <v>13417</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="Q439" t="n">
         <v>40</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K440" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L440" t="n">
         <v>15000</v>
       </c>
       <c r="M440" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K441" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L441" t="n">
         <v>12000</v>
       </c>
       <c r="M441" t="n">
-        <v>12000</v>
+        <v>11575</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q441" t="n">
         <v>30</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,25 +32172,25 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K442" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L442" t="n">
         <v>10000</v>
       </c>
       <c r="M442" t="n">
-        <v>10000</v>
+        <v>9491</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q442" t="n">
         <v>40</v>
@@ -32244,29 +32244,29 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K443" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L443" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M443" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="Q443" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32316,16 +32316,16 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K444" t="n">
         <v>12000</v>
@@ -32338,7 +32338,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q444" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>610</v>
+        <v>240</v>
       </c>
       <c r="K445" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M445" t="n">
-        <v>7574</v>
+        <v>10000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="Q445" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,29 +32460,29 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K446" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L446" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M446" t="n">
-        <v>6589</v>
+        <v>14000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="Q446" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,29 +32532,29 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K447" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L447" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M447" t="n">
-        <v>7425</v>
+        <v>12000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>7425</v>
+        <v>240</v>
       </c>
       <c r="Q447" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32604,41 +32604,41 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>7200</v>
+        <v>610</v>
       </c>
       <c r="K448" t="n">
-        <v>350</v>
+        <v>7000</v>
       </c>
       <c r="L448" t="n">
-        <v>370</v>
+        <v>8000</v>
       </c>
       <c r="M448" t="n">
-        <v>357</v>
+        <v>7574</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="Q448" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32676,16 +32676,16 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>510</v>
+        <v>900</v>
       </c>
       <c r="K449" t="n">
         <v>6000</v>
@@ -32694,11 +32694,11 @@
         <v>7000</v>
       </c>
       <c r="M449" t="n">
-        <v>6451</v>
+        <v>6589</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="Q449" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32753,33 +32753,33 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="K450" t="n">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="L450" t="n">
-        <v>330</v>
+        <v>8000</v>
       </c>
       <c r="M450" t="n">
-        <v>311</v>
+        <v>7425</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>311</v>
+        <v>7425</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="K451" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L451" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="M451" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>750</v>
+        <v>510</v>
       </c>
       <c r="K452" t="n">
         <v>6000</v>
@@ -32910,23 +32910,23 @@
         <v>7000</v>
       </c>
       <c r="M452" t="n">
-        <v>6427</v>
+        <v>6451</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="Q452" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,20 +32973,20 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>590</v>
+        <v>4000</v>
       </c>
       <c r="K453" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="L453" t="n">
-        <v>8000</v>
+        <v>330</v>
       </c>
       <c r="M453" t="n">
-        <v>7542</v>
+        <v>311</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="Q453" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,41 +33036,41 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>530</v>
+        <v>3200</v>
       </c>
       <c r="K454" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L454" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M454" t="n">
-        <v>14491</v>
+        <v>250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q454" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,32 +33117,32 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K455" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L455" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>16540</v>
+        <v>6427</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>551</v>
+        <v>161</v>
       </c>
       <c r="Q455" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,25 +33180,25 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="K456" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L456" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M456" t="n">
-        <v>14509</v>
+        <v>7542</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="Q456" t="n">
         <v>40</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="K457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L457" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M457" t="n">
-        <v>13418</v>
+        <v>14491</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="Q457" t="n">
         <v>50</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K458" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L458" t="n">
         <v>17000</v>
       </c>
-      <c r="L458" t="n">
-        <v>18000</v>
-      </c>
       <c r="M458" t="n">
-        <v>17395</v>
+        <v>16540</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="Q458" t="n">
         <v>30</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K459" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L459" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M459" t="n">
-        <v>13690</v>
+        <v>14509</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="Q459" t="n">
         <v>40</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,20 +33477,20 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K460" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L460" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M460" t="n">
-        <v>15400</v>
+        <v>13418</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>513</v>
+        <v>268</v>
       </c>
       <c r="Q460" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,24 +33545,24 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L461" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M461" t="n">
-        <v>11333</v>
+        <v>17395</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>283</v>
+        <v>580</v>
       </c>
       <c r="Q461" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33612,16 +33612,16 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K462" t="n">
         <v>13000</v>
@@ -33630,11 +33630,11 @@
         <v>14000</v>
       </c>
       <c r="M462" t="n">
-        <v>13429</v>
+        <v>13690</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="Q462" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K463" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L463" t="n">
         <v>16000</v>
       </c>
-      <c r="L463" t="n">
-        <v>17000</v>
-      </c>
       <c r="M463" t="n">
-        <v>16571</v>
+        <v>15400</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="Q463" t="n">
         <v>30</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="K464" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L464" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M464" t="n">
-        <v>14867</v>
+        <v>11333</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="Q464" t="n">
         <v>40</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,20 +33837,20 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="K465" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L465" t="n">
         <v>14000</v>
       </c>
-      <c r="L465" t="n">
-        <v>15000</v>
-      </c>
       <c r="M465" t="n">
-        <v>14412</v>
+        <v>13429</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="Q465" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,24 +33905,24 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="K466" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L466" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M466" t="n">
-        <v>11373</v>
+        <v>16571</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>284</v>
+        <v>552</v>
       </c>
       <c r="Q466" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44509</v>
+        <v>44330</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,36 +33977,36 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>3800</v>
+        <v>196</v>
       </c>
       <c r="K467" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L467" t="n">
-        <v>320</v>
+        <v>15000</v>
       </c>
       <c r="M467" t="n">
-        <v>307</v>
+        <v>14867</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="Q467" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,32 +34053,32 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>3000</v>
+        <v>170</v>
       </c>
       <c r="K468" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L468" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="M468" t="n">
-        <v>260</v>
+        <v>14412</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q468" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,32 +34125,32 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>1900</v>
+        <v>102</v>
       </c>
       <c r="K469" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L469" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M469" t="n">
-        <v>214</v>
+        <v>11373</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="Q469" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,41 +34188,41 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="K470" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L470" t="n">
-        <v>12000</v>
+        <v>320</v>
       </c>
       <c r="M470" t="n">
-        <v>11450</v>
+        <v>307</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="Q470" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,41 +34260,41 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K471" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L471" t="n">
-        <v>11000</v>
+        <v>270</v>
       </c>
       <c r="M471" t="n">
-        <v>10567</v>
+        <v>260</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="Q471" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,33 +34337,33 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K472" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="L472" t="n">
-        <v>15000</v>
+        <v>230</v>
       </c>
       <c r="M472" t="n">
-        <v>14575</v>
+        <v>214</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>14575</v>
+        <v>214</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34416,17 +34416,17 @@
         <v>400</v>
       </c>
       <c r="K473" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L473" t="n">
         <v>12000</v>
       </c>
-      <c r="L473" t="n">
-        <v>13000</v>
-      </c>
       <c r="M473" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q473" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K474" t="n">
         <v>10000</v>
@@ -34494,11 +34494,11 @@
         <v>11000</v>
       </c>
       <c r="M474" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q474" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,29 +34548,29 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J475" t="n">
         <v>400</v>
       </c>
       <c r="K475" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L475" t="n">
         <v>15000</v>
       </c>
-      <c r="L475" t="n">
-        <v>16000</v>
-      </c>
       <c r="M475" t="n">
-        <v>15425</v>
+        <v>14575</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>308</v>
+        <v>14575</v>
       </c>
       <c r="Q475" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,24 +34625,24 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K476" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L476" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M476" t="n">
-        <v>15448</v>
+        <v>12425</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>15448</v>
+        <v>414</v>
       </c>
       <c r="Q476" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,24 +34697,24 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K477" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L477" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M477" t="n">
-        <v>15407</v>
+        <v>10425</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="Q477" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,20 +34773,20 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K478" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L478" t="n">
         <v>16000</v>
       </c>
-      <c r="L478" t="n">
-        <v>18000</v>
-      </c>
       <c r="M478" t="n">
-        <v>16857</v>
+        <v>15425</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>562</v>
+        <v>308</v>
       </c>
       <c r="Q478" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,29 +34836,29 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K479" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L479" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M479" t="n">
-        <v>12395</v>
+        <v>15448</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>248</v>
+        <v>15448</v>
       </c>
       <c r="Q479" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,29 +34908,29 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K480" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L480" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M480" t="n">
-        <v>10540</v>
+        <v>15407</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="Q480" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,24 +34985,24 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K481" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L481" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M481" t="n">
-        <v>14460</v>
+        <v>16857</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>14460</v>
+        <v>562</v>
       </c>
       <c r="Q481" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,20 +35061,20 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K482" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L482" t="n">
         <v>13000</v>
       </c>
-      <c r="L482" t="n">
-        <v>14000</v>
-      </c>
       <c r="M482" t="n">
-        <v>13448</v>
+        <v>12395</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="Q482" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K483" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L483" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M483" t="n">
-        <v>12575</v>
+        <v>10540</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="Q483" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,24 +35201,24 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L484" t="n">
         <v>15000</v>
       </c>
-      <c r="L484" t="n">
-        <v>16000</v>
-      </c>
       <c r="M484" t="n">
-        <v>15400</v>
+        <v>14460</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>513</v>
+        <v>14460</v>
       </c>
       <c r="Q484" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35280,17 +35280,17 @@
         <v>580</v>
       </c>
       <c r="K485" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L485" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M485" t="n">
-        <v>6552</v>
+        <v>13448</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="Q485" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,20 +35349,20 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K486" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L486" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M486" t="n">
-        <v>5410</v>
+        <v>12575</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Q486" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,24 +35417,24 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="K487" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L487" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M487" t="n">
-        <v>8446</v>
+        <v>15400</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>8446</v>
+        <v>513</v>
       </c>
       <c r="Q487" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,20 +35493,20 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K488" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L488" t="n">
         <v>7000</v>
       </c>
-      <c r="L488" t="n">
-        <v>8000</v>
-      </c>
       <c r="M488" t="n">
-        <v>7469</v>
+        <v>6552</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="Q488" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35556,41 +35556,41 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K489" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L489" t="n">
         <v>6000</v>
       </c>
-      <c r="L489" t="n">
-        <v>7000</v>
-      </c>
       <c r="M489" t="n">
-        <v>6574</v>
+        <v>5410</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Q489" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35628,43 +35628,259 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K490" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L490" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M490" t="n">
+        <v>8446</v>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P490" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>1</v>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>6</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E491" t="n">
+        <v>13</v>
+      </c>
+      <c r="F491" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>810</v>
+      </c>
+      <c r="K491" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L491" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M491" t="n">
+        <v>7469</v>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P491" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>30</v>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>6</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E492" t="n">
+        <v>13</v>
+      </c>
+      <c r="F492" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I490" t="inlineStr">
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>610</v>
+      </c>
+      <c r="K492" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L492" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M492" t="n">
+        <v>6574</v>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P492" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>40</v>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>6</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E493" t="n">
+        <v>13</v>
+      </c>
+      <c r="F493" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J490" t="n">
+      <c r="J493" t="n">
         <v>800</v>
       </c>
-      <c r="K490" t="n">
+      <c r="K493" t="n">
         <v>5000</v>
       </c>
-      <c r="L490" t="n">
+      <c r="L493" t="n">
         <v>6000</v>
       </c>
-      <c r="M490" t="n">
+      <c r="M493" t="n">
         <v>5475</v>
       </c>
-      <c r="N490" t="inlineStr">
+      <c r="N493" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O490" t="inlineStr">
+      <c r="O493" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P490" t="n">
+      <c r="P493" t="n">
         <v>110</v>
       </c>
-      <c r="Q490" t="n">
+      <c r="Q493" t="n">
         <v>50</v>
       </c>
-      <c r="R490" t="inlineStr">
+      <c r="R493" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R496"/>
+  <dimension ref="A1:R499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,32 +34269,32 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>170</v>
+        <v>4000</v>
       </c>
       <c r="K471" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L471" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="M471" t="n">
-        <v>14412</v>
+        <v>258</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>480</v>
+        <v>258</v>
       </c>
       <c r="Q471" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>102</v>
+        <v>2000</v>
       </c>
       <c r="K472" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="L472" t="n">
-        <v>12000</v>
+        <v>230</v>
       </c>
       <c r="M472" t="n">
-        <v>11373</v>
+        <v>215</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="Q472" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="K473" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L473" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="M473" t="n">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,32 +34485,32 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>3000</v>
+        <v>170</v>
       </c>
       <c r="K474" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L474" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="M474" t="n">
-        <v>260</v>
+        <v>14412</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q474" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,32 +34557,32 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>1900</v>
+        <v>102</v>
       </c>
       <c r="K475" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L475" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M475" t="n">
-        <v>214</v>
+        <v>11373</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="Q475" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,41 +34620,41 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="K476" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L476" t="n">
-        <v>12000</v>
+        <v>320</v>
       </c>
       <c r="M476" t="n">
-        <v>11450</v>
+        <v>307</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="Q476" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,41 +34692,41 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K477" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L477" t="n">
-        <v>11000</v>
+        <v>270</v>
       </c>
       <c r="M477" t="n">
-        <v>10567</v>
+        <v>260</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="Q477" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,33 +34769,33 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K478" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="L478" t="n">
-        <v>15000</v>
+        <v>230</v>
       </c>
       <c r="M478" t="n">
-        <v>14575</v>
+        <v>214</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>14575</v>
+        <v>214</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34848,17 +34848,17 @@
         <v>400</v>
       </c>
       <c r="K479" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L479" t="n">
         <v>12000</v>
       </c>
-      <c r="L479" t="n">
-        <v>13000</v>
-      </c>
       <c r="M479" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q479" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,7 +34917,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K480" t="n">
         <v>10000</v>
@@ -34926,11 +34926,11 @@
         <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q480" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,29 +34980,29 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J481" t="n">
         <v>400</v>
       </c>
       <c r="K481" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L481" t="n">
         <v>15000</v>
       </c>
-      <c r="L481" t="n">
-        <v>16000</v>
-      </c>
       <c r="M481" t="n">
-        <v>15425</v>
+        <v>14575</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>308</v>
+        <v>14575</v>
       </c>
       <c r="Q481" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,24 +35057,24 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K482" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L482" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M482" t="n">
-        <v>15448</v>
+        <v>12425</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>15448</v>
+        <v>414</v>
       </c>
       <c r="Q482" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,24 +35129,24 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L483" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M483" t="n">
-        <v>15407</v>
+        <v>10425</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="Q483" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,20 +35205,20 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L484" t="n">
         <v>16000</v>
       </c>
-      <c r="L484" t="n">
-        <v>18000</v>
-      </c>
       <c r="M484" t="n">
-        <v>16857</v>
+        <v>15425</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>562</v>
+        <v>308</v>
       </c>
       <c r="Q484" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,29 +35268,29 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K485" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L485" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M485" t="n">
-        <v>12395</v>
+        <v>15448</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>248</v>
+        <v>15448</v>
       </c>
       <c r="Q485" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,29 +35340,29 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K486" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L486" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M486" t="n">
-        <v>10540</v>
+        <v>15407</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="Q486" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,24 +35417,24 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K487" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L487" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M487" t="n">
-        <v>14460</v>
+        <v>16857</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>14460</v>
+        <v>562</v>
       </c>
       <c r="Q487" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,20 +35493,20 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="K488" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L488" t="n">
         <v>13000</v>
       </c>
-      <c r="L488" t="n">
-        <v>14000</v>
-      </c>
       <c r="M488" t="n">
-        <v>13448</v>
+        <v>12395</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="Q488" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,20 +35565,20 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K489" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L489" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M489" t="n">
-        <v>12575</v>
+        <v>10540</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="Q489" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,24 +35633,24 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K490" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L490" t="n">
         <v>15000</v>
       </c>
-      <c r="L490" t="n">
-        <v>16000</v>
-      </c>
       <c r="M490" t="n">
-        <v>15400</v>
+        <v>14460</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>513</v>
+        <v>14460</v>
       </c>
       <c r="Q490" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35712,17 +35712,17 @@
         <v>580</v>
       </c>
       <c r="K491" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L491" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M491" t="n">
-        <v>6552</v>
+        <v>13448</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="Q491" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,20 +35781,20 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L492" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M492" t="n">
-        <v>5410</v>
+        <v>12575</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -35803,10 +35803,10 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Q492" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,24 +35849,24 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="K493" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L493" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M493" t="n">
-        <v>8446</v>
+        <v>15400</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>8446</v>
+        <v>513</v>
       </c>
       <c r="Q493" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,20 +35925,20 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K494" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L494" t="n">
         <v>7000</v>
       </c>
-      <c r="L494" t="n">
-        <v>8000</v>
-      </c>
       <c r="M494" t="n">
-        <v>7469</v>
+        <v>6552</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,10 +35947,10 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="Q494" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35988,41 +35988,41 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K495" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L495" t="n">
         <v>6000</v>
       </c>
-      <c r="L495" t="n">
-        <v>7000</v>
-      </c>
       <c r="M495" t="n">
-        <v>6574</v>
+        <v>5410</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Q495" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36060,43 +36060,259 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K496" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L496" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M496" t="n">
+        <v>8446</v>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P496" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>1</v>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>6</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E497" t="n">
+        <v>13</v>
+      </c>
+      <c r="F497" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>810</v>
+      </c>
+      <c r="K497" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L497" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M497" t="n">
+        <v>7469</v>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P497" t="n">
+        <v>249</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>30</v>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>6</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E498" t="n">
+        <v>13</v>
+      </c>
+      <c r="F498" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I496" t="inlineStr">
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>610</v>
+      </c>
+      <c r="K498" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L498" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M498" t="n">
+        <v>6574</v>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P498" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>40</v>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>6</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E499" t="n">
+        <v>13</v>
+      </c>
+      <c r="F499" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J496" t="n">
+      <c r="J499" t="n">
         <v>800</v>
       </c>
-      <c r="K496" t="n">
+      <c r="K499" t="n">
         <v>5000</v>
       </c>
-      <c r="L496" t="n">
+      <c r="L499" t="n">
         <v>6000</v>
       </c>
-      <c r="M496" t="n">
+      <c r="M499" t="n">
         <v>5475</v>
       </c>
-      <c r="N496" t="inlineStr">
+      <c r="N499" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O496" t="inlineStr">
+      <c r="O499" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P496" t="n">
+      <c r="P499" t="n">
         <v>110</v>
       </c>
-      <c r="Q496" t="n">
+      <c r="Q499" t="n">
         <v>50</v>
       </c>
-      <c r="R496" t="inlineStr">
+      <c r="R499" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R502"/>
+  <dimension ref="A1:R505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44446</v>
+        <v>44518</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,29 +25269,29 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="K346" t="n">
-        <v>14000</v>
+        <v>270</v>
       </c>
       <c r="L346" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M346" t="n">
-        <v>14425</v>
+        <v>286</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>14425</v>
+        <v>286</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44446</v>
+        <v>44518</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,32 +25341,32 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="K347" t="n">
-        <v>13000</v>
+        <v>230</v>
       </c>
       <c r="L347" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M347" t="n">
-        <v>13460</v>
+        <v>238</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>449</v>
+        <v>238</v>
       </c>
       <c r="Q347" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44446</v>
+        <v>44518</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25404,41 +25404,41 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>690</v>
+        <v>1800</v>
       </c>
       <c r="K348" t="n">
-        <v>9000</v>
+        <v>180</v>
       </c>
       <c r="L348" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="M348" t="n">
-        <v>9377</v>
+        <v>189</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="Q348" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25476,29 +25476,29 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J349" t="n">
         <v>400</v>
       </c>
       <c r="K349" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L349" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M349" t="n">
-        <v>7575</v>
+        <v>14425</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>152</v>
+        <v>14425</v>
       </c>
       <c r="Q349" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44463</v>
+        <v>44446</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,20 +25557,20 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K350" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L350" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M350" t="n">
-        <v>9150</v>
+        <v>13460</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="Q350" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44463</v>
+        <v>44446</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,29 +25620,29 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>400</v>
+        <v>690</v>
       </c>
       <c r="K351" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L351" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M351" t="n">
-        <v>7575</v>
+        <v>9377</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="Q351" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44463</v>
+        <v>44446</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25692,29 +25692,29 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K352" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M352" t="n">
-        <v>10836</v>
+        <v>7575</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>10836</v>
+        <v>152</v>
       </c>
       <c r="Q352" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25779,14 +25779,14 @@
         <v>8000</v>
       </c>
       <c r="L353" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M353" t="n">
-        <v>8425</v>
+        <v>9150</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="Q353" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,16 +25836,16 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K354" t="n">
         <v>7000</v>
@@ -25854,23 +25854,23 @@
         <v>8000</v>
       </c>
       <c r="M354" t="n">
-        <v>7469</v>
+        <v>7575</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="Q354" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44323</v>
+        <v>44463</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,24 +25913,24 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K355" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L355" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M355" t="n">
-        <v>15575</v>
+        <v>10836</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>519</v>
+        <v>10836</v>
       </c>
       <c r="Q355" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44323</v>
+        <v>44463</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,24 +25985,24 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
         <v>400</v>
       </c>
       <c r="K356" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L356" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M356" t="n">
-        <v>13575</v>
+        <v>8425</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="Q356" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44481</v>
+        <v>44463</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>220</v>
+        <v>490</v>
       </c>
       <c r="K357" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L357" t="n">
         <v>8000</v>
       </c>
-      <c r="L357" t="n">
-        <v>9000</v>
-      </c>
       <c r="M357" t="n">
-        <v>8545</v>
+        <v>7469</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="Q357" t="n">
         <v>40</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44481</v>
+        <v>44323</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,24 +26129,24 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K358" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L358" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M358" t="n">
-        <v>10939</v>
+        <v>15575</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>10939</v>
+        <v>519</v>
       </c>
       <c r="Q358" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44481</v>
+        <v>44323</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,24 +26201,24 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K359" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L359" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M359" t="n">
-        <v>9543</v>
+        <v>13575</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="Q359" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,32 +26277,32 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>7000</v>
+        <v>220</v>
       </c>
       <c r="K360" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="L360" t="n">
-        <v>350</v>
+        <v>9000</v>
       </c>
       <c r="M360" t="n">
-        <v>318</v>
+        <v>8545</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="Q360" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26345,33 +26345,33 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>4000</v>
+        <v>490</v>
       </c>
       <c r="K361" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L361" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M361" t="n">
-        <v>219</v>
+        <v>10939</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>219</v>
+        <v>10939</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26417,36 +26417,36 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K362" t="n">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="L362" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="M362" t="n">
-        <v>158</v>
+        <v>9543</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="Q362" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,32 +26493,32 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="K363" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="L363" t="n">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="M363" t="n">
-        <v>7467</v>
+        <v>318</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="Q363" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,32 +26565,32 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>580</v>
+        <v>4000</v>
       </c>
       <c r="K364" t="n">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="L364" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="M364" t="n">
-        <v>6448</v>
+        <v>219</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="Q364" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44417</v>
+        <v>44481</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,33 +26633,33 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="K365" t="n">
-        <v>14000</v>
+        <v>150</v>
       </c>
       <c r="L365" t="n">
-        <v>15000</v>
+        <v>170</v>
       </c>
       <c r="M365" t="n">
-        <v>14400</v>
+        <v>158</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>14400</v>
+        <v>158</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44417</v>
+        <v>44481</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,20 +26709,20 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K366" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L366" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M366" t="n">
-        <v>13425</v>
+        <v>7467</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="Q366" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44342</v>
+        <v>44481</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26772,25 +26772,25 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K367" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L367" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M367" t="n">
-        <v>14491</v>
+        <v>6448</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="Q367" t="n">
         <v>50</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44342</v>
+        <v>44417</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,24 +26849,24 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K368" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L368" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M368" t="n">
-        <v>16540</v>
+        <v>14400</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>551</v>
+        <v>14400</v>
       </c>
       <c r="Q368" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44342</v>
+        <v>44417</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,24 +26921,24 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="K369" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L369" t="n">
         <v>14000</v>
       </c>
-      <c r="L369" t="n">
-        <v>15000</v>
-      </c>
       <c r="M369" t="n">
-        <v>14509</v>
+        <v>13425</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="Q369" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44406</v>
+        <v>44342</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="K370" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L370" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M370" t="n">
-        <v>12897</v>
+        <v>14491</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="Q370" t="n">
         <v>50</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44406</v>
+        <v>44342</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,29 +27060,29 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K371" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L371" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M371" t="n">
-        <v>11150</v>
+        <v>16540</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>159</v>
+        <v>551</v>
       </c>
       <c r="Q371" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44295</v>
+        <v>44342</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,11 +27137,11 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>170</v>
+        <v>530</v>
       </c>
       <c r="K372" t="n">
         <v>14000</v>
@@ -27150,11 +27150,11 @@
         <v>15000</v>
       </c>
       <c r="M372" t="n">
-        <v>14412</v>
+        <v>14509</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>480</v>
+        <v>363</v>
       </c>
       <c r="Q372" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27204,29 +27204,29 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>102</v>
+        <v>580</v>
       </c>
       <c r="K373" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L373" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M373" t="n">
-        <v>11373</v>
+        <v>12897</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="Q373" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44363</v>
+        <v>44406</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,24 +27281,24 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
         <v>400</v>
       </c>
       <c r="K374" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L374" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M374" t="n">
-        <v>17575</v>
+        <v>11150</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>352</v>
+        <v>159</v>
       </c>
       <c r="Q374" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44363</v>
+        <v>44295</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K375" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L375" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M375" t="n">
-        <v>18619</v>
+        <v>14412</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>621</v>
+        <v>480</v>
       </c>
       <c r="Q375" t="n">
         <v>30</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,24 +27425,24 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K376" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L376" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M376" t="n">
-        <v>14619</v>
+        <v>11373</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>487</v>
+        <v>284</v>
       </c>
       <c r="Q376" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,29 +27492,29 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K377" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L377" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M377" t="n">
-        <v>12425</v>
+        <v>17575</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="Q377" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="K378" t="n">
         <v>18000</v>
       </c>
       <c r="L378" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M378" t="n">
-        <v>18000</v>
+        <v>18619</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="Q378" t="n">
         <v>30</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44372</v>
+        <v>44299</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K379" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L379" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M379" t="n">
-        <v>17000</v>
+        <v>14619</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="Q379" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44376</v>
+        <v>44299</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,29 +27708,29 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="K380" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L380" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M380" t="n">
-        <v>17460</v>
+        <v>12425</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="Q380" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,29 +27780,29 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K381" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L381" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M381" t="n">
-        <v>15575</v>
+        <v>18000</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="Q381" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="K382" t="n">
         <v>17000</v>
       </c>
       <c r="L382" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M382" t="n">
-        <v>17552</v>
+        <v>17000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>585</v>
+        <v>425</v>
       </c>
       <c r="Q382" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,20 +27933,20 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="K383" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L383" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M383" t="n">
-        <v>16429</v>
+        <v>17460</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>548</v>
+        <v>349</v>
       </c>
       <c r="Q383" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,17 +28008,17 @@
         <v>400</v>
       </c>
       <c r="K384" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L384" t="n">
         <v>16000</v>
       </c>
-      <c r="L384" t="n">
-        <v>17000</v>
-      </c>
       <c r="M384" t="n">
-        <v>16425</v>
+        <v>15575</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="Q384" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,29 +28068,29 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="K385" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L385" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M385" t="n">
-        <v>12915</v>
+        <v>17552</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>258</v>
+        <v>585</v>
       </c>
       <c r="Q385" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,24 +28145,24 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="K386" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L386" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M386" t="n">
-        <v>12448</v>
+        <v>16429</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>12448</v>
+        <v>548</v>
       </c>
       <c r="Q386" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,24 +28217,24 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K387" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L387" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M387" t="n">
-        <v>11209</v>
+        <v>16425</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="Q387" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,32 +28293,32 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>7500</v>
+        <v>590</v>
       </c>
       <c r="K388" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="L388" t="n">
-        <v>550</v>
+        <v>14000</v>
       </c>
       <c r="M388" t="n">
-        <v>517</v>
+        <v>12915</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="Q388" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28361,33 +28361,33 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>5000</v>
+        <v>580</v>
       </c>
       <c r="K389" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="L389" t="n">
-        <v>450</v>
+        <v>13000</v>
       </c>
       <c r="M389" t="n">
-        <v>420</v>
+        <v>12448</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>420</v>
+        <v>12448</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28433,36 +28433,36 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>3500</v>
+        <v>430</v>
       </c>
       <c r="K390" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="L390" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="M390" t="n">
-        <v>321</v>
+        <v>11209</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="Q390" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,32 +28509,32 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>680</v>
+        <v>7500</v>
       </c>
       <c r="K391" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="L391" t="n">
-        <v>10000</v>
+        <v>550</v>
       </c>
       <c r="M391" t="n">
-        <v>8941</v>
+        <v>517</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>224</v>
+        <v>517</v>
       </c>
       <c r="Q391" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,41 +28572,41 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K392" t="n">
         <v>400</v>
       </c>
-      <c r="K392" t="n">
-        <v>11000</v>
-      </c>
       <c r="L392" t="n">
-        <v>12000</v>
+        <v>450</v>
       </c>
       <c r="M392" t="n">
-        <v>11450</v>
+        <v>420</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>229</v>
+        <v>420</v>
       </c>
       <c r="Q392" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28644,41 +28644,41 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J393" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K393" t="n">
         <v>300</v>
       </c>
-      <c r="K393" t="n">
-        <v>10000</v>
-      </c>
       <c r="L393" t="n">
-        <v>11000</v>
+        <v>350</v>
       </c>
       <c r="M393" t="n">
-        <v>10567</v>
+        <v>321</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="Q393" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,29 +28716,29 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K394" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L394" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M394" t="n">
-        <v>14575</v>
+        <v>8941</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>14575</v>
+        <v>224</v>
       </c>
       <c r="Q394" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28800,17 +28800,17 @@
         <v>400</v>
       </c>
       <c r="K395" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L395" t="n">
         <v>12000</v>
       </c>
-      <c r="L395" t="n">
-        <v>13000</v>
-      </c>
       <c r="M395" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q395" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,7 +28869,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K396" t="n">
         <v>10000</v>
@@ -28878,11 +28878,11 @@
         <v>11000</v>
       </c>
       <c r="M396" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q396" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,29 +28932,29 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J397" t="n">
         <v>400</v>
       </c>
       <c r="K397" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L397" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M397" t="n">
-        <v>11150</v>
+        <v>14575</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>223</v>
+        <v>14575</v>
       </c>
       <c r="Q397" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K398" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L398" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M398" t="n">
-        <v>14552</v>
+        <v>12425</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="Q398" t="n">
         <v>30</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29088,13 +29088,13 @@
         <v>400</v>
       </c>
       <c r="K399" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L399" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M399" t="n">
-        <v>12575</v>
+        <v>10425</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="Q399" t="n">
         <v>40</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44426</v>
+        <v>44431</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29160,13 +29160,13 @@
         <v>400</v>
       </c>
       <c r="K400" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L400" t="n">
         <v>12000</v>
       </c>
-      <c r="L400" t="n">
-        <v>13000</v>
-      </c>
       <c r="M400" t="n">
-        <v>12425</v>
+        <v>11150</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="Q400" t="n">
         <v>50</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44426</v>
+        <v>44431</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,29 +29220,29 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
         <v>580</v>
       </c>
       <c r="K401" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L401" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M401" t="n">
-        <v>10448</v>
+        <v>14552</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>149</v>
+        <v>485</v>
       </c>
       <c r="Q401" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44426</v>
+        <v>44431</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,24 +29297,24 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
         <v>400</v>
       </c>
       <c r="K402" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L402" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M402" t="n">
-        <v>14575</v>
+        <v>12575</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>14575</v>
+        <v>314</v>
       </c>
       <c r="Q402" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,17 +29376,17 @@
         <v>400</v>
       </c>
       <c r="K403" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L403" t="n">
         <v>13000</v>
       </c>
-      <c r="L403" t="n">
-        <v>14000</v>
-      </c>
       <c r="M403" t="n">
-        <v>13425</v>
+        <v>12425</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="Q403" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="K404" t="n">
         <v>10000</v>
       </c>
       <c r="L404" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M404" t="n">
-        <v>10959</v>
+        <v>10448</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="Q404" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,29 +29508,29 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K405" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L405" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M405" t="n">
-        <v>9292</v>
+        <v>14575</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>133</v>
+        <v>14575</v>
       </c>
       <c r="Q405" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K406" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L406" t="n">
         <v>14000</v>
       </c>
-      <c r="L406" t="n">
-        <v>15000</v>
-      </c>
       <c r="M406" t="n">
-        <v>14652</v>
+        <v>13425</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>14652</v>
+        <v>448</v>
       </c>
       <c r="Q406" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,20 +29661,20 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>600</v>
+        <v>730</v>
       </c>
       <c r="K407" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M407" t="n">
-        <v>13567</v>
+        <v>10959</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>452</v>
+        <v>219</v>
       </c>
       <c r="Q407" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29724,16 +29724,16 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>790</v>
+        <v>650</v>
       </c>
       <c r="K408" t="n">
         <v>8000</v>
@@ -29742,11 +29742,11 @@
         <v>10000</v>
       </c>
       <c r="M408" t="n">
-        <v>8911</v>
+        <v>9292</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="Q408" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29796,29 +29796,29 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>290</v>
+        <v>660</v>
       </c>
       <c r="K409" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L409" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M409" t="n">
-        <v>8586</v>
+        <v>14652</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>172</v>
+        <v>14652</v>
       </c>
       <c r="Q409" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,29 +29868,29 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="K410" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L410" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M410" t="n">
-        <v>17590</v>
+        <v>13567</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q410" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>600</v>
+        <v>790</v>
       </c>
       <c r="K411" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L411" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M411" t="n">
-        <v>17133</v>
+        <v>8911</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="Q411" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,29 +30012,29 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="K412" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L412" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M412" t="n">
-        <v>17469</v>
+        <v>8586</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>582</v>
+        <v>172</v>
       </c>
       <c r="Q412" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30084,16 +30084,16 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="K413" t="n">
         <v>17000</v>
@@ -30102,7 +30102,7 @@
         <v>18000</v>
       </c>
       <c r="M413" t="n">
-        <v>17540</v>
+        <v>17590</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q413" t="n">
         <v>40</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44301</v>
+        <v>44362</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,20 +30165,20 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K414" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L414" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M414" t="n">
-        <v>15400</v>
+        <v>17133</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>513</v>
+        <v>343</v>
       </c>
       <c r="Q414" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44301</v>
+        <v>44362</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="K415" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L415" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M415" t="n">
-        <v>11333</v>
+        <v>17469</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>283</v>
+        <v>582</v>
       </c>
       <c r="Q415" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44407</v>
+        <v>44362</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,29 +30300,29 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K416" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L416" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M416" t="n">
-        <v>11103</v>
+        <v>17540</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>222</v>
+        <v>438</v>
       </c>
       <c r="Q416" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,29 +30372,29 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K417" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L417" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M417" t="n">
-        <v>9575</v>
+        <v>15400</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>137</v>
+        <v>513</v>
       </c>
       <c r="Q417" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K418" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L418" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M418" t="n">
-        <v>13480</v>
+        <v>11333</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>13480</v>
+        <v>283</v>
       </c>
       <c r="Q418" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="K419" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L419" t="n">
         <v>12000</v>
       </c>
-      <c r="L419" t="n">
-        <v>14000</v>
-      </c>
       <c r="M419" t="n">
-        <v>13303</v>
+        <v>11103</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="Q419" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44441</v>
+        <v>44407</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K420" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L420" t="n">
         <v>10000</v>
       </c>
-      <c r="L420" t="n">
-        <v>12000</v>
-      </c>
       <c r="M420" t="n">
-        <v>10920</v>
+        <v>9575</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="Q420" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44441</v>
+        <v>44407</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,29 +30660,29 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="K421" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L421" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M421" t="n">
-        <v>9452</v>
+        <v>13480</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>135</v>
+        <v>13480</v>
       </c>
       <c r="Q421" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44441</v>
+        <v>44407</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>780</v>
+        <v>660</v>
       </c>
       <c r="K422" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L422" t="n">
         <v>14000</v>
       </c>
-      <c r="L422" t="n">
-        <v>15000</v>
-      </c>
       <c r="M422" t="n">
-        <v>14577</v>
+        <v>13303</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>14577</v>
+        <v>443</v>
       </c>
       <c r="Q422" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,20 +30813,20 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>690</v>
+        <v>500</v>
       </c>
       <c r="K423" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M423" t="n">
-        <v>13667</v>
+        <v>10920</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="Q423" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,20 +30885,20 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>1010</v>
+        <v>620</v>
       </c>
       <c r="K424" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L424" t="n">
         <v>10000</v>
       </c>
-      <c r="L424" t="n">
-        <v>12000</v>
-      </c>
       <c r="M424" t="n">
-        <v>11406</v>
+        <v>9452</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="Q424" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,29 +30948,29 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="K425" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L425" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M425" t="n">
-        <v>9418</v>
+        <v>14577</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>235</v>
+        <v>14577</v>
       </c>
       <c r="Q425" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>40</v>
+        <v>690</v>
       </c>
       <c r="K426" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L426" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M426" t="n">
-        <v>15850</v>
+        <v>13667</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="Q426" t="n">
         <v>30</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,29 +31092,29 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>400</v>
+        <v>1010</v>
       </c>
       <c r="K427" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L427" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M427" t="n">
-        <v>15425</v>
+        <v>11406</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="Q427" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,29 +31164,29 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>400</v>
+        <v>790</v>
       </c>
       <c r="K428" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L428" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M428" t="n">
-        <v>17575</v>
+        <v>9418</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>17575</v>
+        <v>235</v>
       </c>
       <c r="Q428" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>610</v>
+        <v>40</v>
       </c>
       <c r="K429" t="n">
         <v>15000</v>
@@ -31254,7 +31254,7 @@
         <v>17000</v>
       </c>
       <c r="M429" t="n">
-        <v>15951</v>
+        <v>15850</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q429" t="n">
         <v>30</v>
@@ -31308,16 +31308,16 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K430" t="n">
         <v>15000</v>
@@ -31326,11 +31326,11 @@
         <v>16000</v>
       </c>
       <c r="M430" t="n">
-        <v>15433</v>
+        <v>15425</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="Q430" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31380,29 +31380,29 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K431" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L431" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M431" t="n">
-        <v>15552</v>
+        <v>17575</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>389</v>
+        <v>17575</v>
       </c>
       <c r="Q431" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K432" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L432" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M432" t="n">
-        <v>6583</v>
+        <v>15951</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>219</v>
+        <v>532</v>
       </c>
       <c r="Q432" t="n">
         <v>30</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,25 +31524,25 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="K433" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L433" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M433" t="n">
-        <v>6676</v>
+        <v>15433</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="Q433" t="n">
         <v>40</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="K434" t="n">
         <v>15000</v>
@@ -31614,11 +31614,11 @@
         <v>16000</v>
       </c>
       <c r="M434" t="n">
-        <v>15413</v>
+        <v>15552</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="Q434" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,24 +31673,24 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="K435" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L435" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M435" t="n">
-        <v>17548</v>
+        <v>6583</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>17548</v>
+        <v>219</v>
       </c>
       <c r="Q435" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,20 +31749,20 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="K436" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L436" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M436" t="n">
-        <v>16531</v>
+        <v>6676</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>551</v>
+        <v>167</v>
       </c>
       <c r="Q436" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31812,29 +31812,29 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="K437" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L437" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M437" t="n">
-        <v>14148</v>
+        <v>15413</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="Q437" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31884,29 +31884,29 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="K438" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L438" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M438" t="n">
-        <v>14552</v>
+        <v>17548</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>364</v>
+        <v>17548</v>
       </c>
       <c r="Q438" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44382</v>
+        <v>44350</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,7 +31965,7 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="K439" t="n">
         <v>16000</v>
@@ -31974,11 +31974,11 @@
         <v>17000</v>
       </c>
       <c r="M439" t="n">
-        <v>16417</v>
+        <v>16531</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>328</v>
+        <v>551</v>
       </c>
       <c r="Q439" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44382</v>
+        <v>44350</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32033,24 +32033,24 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>320</v>
+        <v>610</v>
       </c>
       <c r="K440" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L440" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M440" t="n">
-        <v>17375</v>
+        <v>14148</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>17375</v>
+        <v>354</v>
       </c>
       <c r="Q440" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44382</v>
+        <v>44350</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,20 +32109,20 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="K441" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L441" t="n">
         <v>15000</v>
       </c>
-      <c r="L441" t="n">
-        <v>16000</v>
-      </c>
       <c r="M441" t="n">
-        <v>15423</v>
+        <v>14552</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>514</v>
+        <v>364</v>
       </c>
       <c r="Q441" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K442" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L442" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M442" t="n">
-        <v>13414</v>
+        <v>16417</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="Q442" t="n">
         <v>50</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,29 +32244,29 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K443" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L443" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M443" t="n">
-        <v>12556</v>
+        <v>17375</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>179</v>
+        <v>17375</v>
       </c>
       <c r="Q443" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,24 +32321,24 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="K444" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L444" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M444" t="n">
-        <v>13444</v>
+        <v>15423</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>13444</v>
+        <v>514</v>
       </c>
       <c r="Q444" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,20 +32397,20 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K445" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L445" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M445" t="n">
-        <v>12419</v>
+        <v>13414</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="Q445" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,20 +32469,20 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="K446" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L446" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M446" t="n">
-        <v>8545</v>
+        <v>12556</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q446" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,16 +32532,16 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K447" t="n">
         <v>13000</v>
@@ -32550,11 +32550,11 @@
         <v>14000</v>
       </c>
       <c r="M447" t="n">
-        <v>13575</v>
+        <v>13444</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>272</v>
+        <v>13444</v>
       </c>
       <c r="Q447" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="K448" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L448" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M448" t="n">
-        <v>16440</v>
+        <v>12419</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>548</v>
+        <v>414</v>
       </c>
       <c r="Q448" t="n">
         <v>30</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,20 +32685,20 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K449" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L449" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M449" t="n">
-        <v>14605</v>
+        <v>8545</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>365</v>
+        <v>171</v>
       </c>
       <c r="Q449" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K450" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L450" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M450" t="n">
-        <v>6552</v>
+        <v>13575</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="Q450" t="n">
         <v>50</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,29 +32820,29 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="K451" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L451" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M451" t="n">
-        <v>5410</v>
+        <v>16440</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>77</v>
+        <v>548</v>
       </c>
       <c r="Q451" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,24 +32897,24 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>1010</v>
+        <v>430</v>
       </c>
       <c r="K452" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L452" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M452" t="n">
-        <v>8446</v>
+        <v>14605</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>8446</v>
+        <v>365</v>
       </c>
       <c r="Q452" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,20 +32973,20 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K453" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L453" t="n">
         <v>7000</v>
       </c>
-      <c r="L453" t="n">
-        <v>8000</v>
-      </c>
       <c r="M453" t="n">
-        <v>7469</v>
+        <v>6552</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="Q453" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33036,41 +33036,41 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="K454" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L454" t="n">
         <v>6000</v>
       </c>
-      <c r="L454" t="n">
-        <v>7000</v>
-      </c>
       <c r="M454" t="n">
-        <v>6574</v>
+        <v>5410</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Q454" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33108,41 +33108,41 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>800</v>
+        <v>1010</v>
       </c>
       <c r="K455" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L455" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M455" t="n">
-        <v>5475</v>
+        <v>8446</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>110</v>
+        <v>8446</v>
       </c>
       <c r="Q455" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44425</v>
+        <v>44491</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,20 +33189,20 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>310</v>
+        <v>810</v>
       </c>
       <c r="K456" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L456" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M456" t="n">
-        <v>11452</v>
+        <v>7469</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="Q456" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44425</v>
+        <v>44491</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,41 +33252,41 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="K457" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L457" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M457" t="n">
-        <v>14571</v>
+        <v>6574</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>14571</v>
+        <v>164</v>
       </c>
       <c r="Q457" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44425</v>
+        <v>44491</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,41 +33324,41 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K458" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L458" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M458" t="n">
-        <v>12425</v>
+        <v>5475</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>414</v>
+        <v>110</v>
       </c>
       <c r="Q458" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33396,16 +33396,16 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K459" t="n">
         <v>11000</v>
@@ -33414,11 +33414,11 @@
         <v>12000</v>
       </c>
       <c r="M459" t="n">
-        <v>11575</v>
+        <v>11452</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="Q459" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,29 +33468,29 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="K460" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L460" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M460" t="n">
-        <v>13444</v>
+        <v>14571</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>269</v>
+        <v>14571</v>
       </c>
       <c r="Q460" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K461" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L461" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M461" t="n">
-        <v>16474</v>
+        <v>12425</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>549</v>
+        <v>414</v>
       </c>
       <c r="Q461" t="n">
         <v>30</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K462" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L462" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M462" t="n">
-        <v>14600</v>
+        <v>11575</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="Q462" t="n">
         <v>40</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>610</v>
+        <v>270</v>
       </c>
       <c r="K463" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L463" t="n">
         <v>14000</v>
       </c>
-      <c r="L463" t="n">
-        <v>15000</v>
-      </c>
       <c r="M463" t="n">
-        <v>14525</v>
+        <v>13444</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="Q463" t="n">
         <v>50</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="K464" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L464" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M464" t="n">
-        <v>15462</v>
+        <v>16474</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="Q464" t="n">
         <v>30</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K465" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L465" t="n">
         <v>15000</v>
       </c>
       <c r="M465" t="n">
-        <v>13850</v>
+        <v>14600</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="Q465" t="n">
         <v>40</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,20 +33909,20 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>420</v>
+        <v>610</v>
       </c>
       <c r="K466" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L466" t="n">
         <v>15000</v>
       </c>
       <c r="M466" t="n">
-        <v>14095</v>
+        <v>14525</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="Q466" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,20 +33981,20 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="K467" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L467" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M467" t="n">
-        <v>13448</v>
+        <v>15462</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>269</v>
+        <v>515</v>
       </c>
       <c r="Q467" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K468" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L468" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M468" t="n">
-        <v>17000</v>
+        <v>13850</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>567</v>
+        <v>346</v>
       </c>
       <c r="Q468" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,25 +34116,25 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="K469" t="n">
         <v>13000</v>
       </c>
       <c r="L469" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M469" t="n">
-        <v>13000</v>
+        <v>14095</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="Q469" t="n">
         <v>40</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>990</v>
+        <v>580</v>
       </c>
       <c r="K470" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L470" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M470" t="n">
-        <v>6535</v>
+        <v>13448</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="Q470" t="n">
         <v>50</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,32 +34269,32 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>2010</v>
+        <v>350</v>
       </c>
       <c r="K471" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L471" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M471" t="n">
-        <v>6756</v>
+        <v>17000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>169</v>
+        <v>567</v>
       </c>
       <c r="Q471" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="K472" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L472" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M472" t="n">
-        <v>5448</v>
+        <v>13000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="Q472" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>400</v>
+        <v>990</v>
       </c>
       <c r="K473" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L473" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M473" t="n">
-        <v>13425</v>
+        <v>6535</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="Q473" t="n">
         <v>50</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,32 +34485,32 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>660</v>
+        <v>2010</v>
       </c>
       <c r="K474" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L474" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M474" t="n">
-        <v>15348</v>
+        <v>6756</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>512</v>
+        <v>169</v>
       </c>
       <c r="Q474" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,32 +34557,32 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K475" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L475" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M475" t="n">
-        <v>13460</v>
+        <v>5448</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="Q475" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44517</v>
+        <v>44327</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,32 +34629,32 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K476" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L476" t="n">
-        <v>270</v>
+        <v>14000</v>
       </c>
       <c r="M476" t="n">
-        <v>260</v>
+        <v>13425</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q476" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44517</v>
+        <v>44327</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,36 +34697,36 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>2900</v>
+        <v>660</v>
       </c>
       <c r="K477" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L477" t="n">
-        <v>230</v>
+        <v>16000</v>
       </c>
       <c r="M477" t="n">
-        <v>210</v>
+        <v>15348</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>210</v>
+        <v>512</v>
       </c>
       <c r="Q477" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44517</v>
+        <v>44327</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,36 +34769,36 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K478" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="L478" t="n">
-        <v>180</v>
+        <v>14000</v>
       </c>
       <c r="M478" t="n">
-        <v>162</v>
+        <v>13460</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="Q478" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,32 +34845,32 @@
         </is>
       </c>
       <c r="J479" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K479" t="n">
+        <v>250</v>
+      </c>
+      <c r="L479" t="n">
         <v>270</v>
       </c>
-      <c r="K479" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L479" t="n">
-        <v>14000</v>
-      </c>
       <c r="M479" t="n">
-        <v>14000</v>
+        <v>260</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="Q479" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,32 +34917,32 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>180</v>
+        <v>2900</v>
       </c>
       <c r="K480" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L480" t="n">
-        <v>12000</v>
+        <v>230</v>
       </c>
       <c r="M480" t="n">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="Q480" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,33 +34985,33 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J481" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K481" t="n">
         <v>150</v>
       </c>
-      <c r="K481" t="n">
-        <v>15000</v>
-      </c>
       <c r="L481" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M481" t="n">
-        <v>15000</v>
+        <v>162</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>15000</v>
+        <v>162</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,20 +35061,20 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="K482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="Q482" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K483" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L483" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M483" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="Q483" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35196,16 +35196,16 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="K484" t="n">
         <v>15000</v>
@@ -35218,7 +35218,7 @@
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="Q484" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="K485" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L485" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M485" t="n">
-        <v>13429</v>
+        <v>15000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="Q485" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="K486" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L486" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M486" t="n">
-        <v>16571</v>
+        <v>14000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>552</v>
+        <v>350</v>
       </c>
       <c r="Q486" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>196</v>
+        <v>460</v>
       </c>
       <c r="K487" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L487" t="n">
         <v>15000</v>
       </c>
       <c r="M487" t="n">
-        <v>14867</v>
+        <v>15000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q487" t="n">
         <v>40</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,7 +35493,7 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K488" t="n">
         <v>13000</v>
@@ -35502,7 +35502,7 @@
         <v>14000</v>
       </c>
       <c r="M488" t="n">
-        <v>13448</v>
+        <v>13429</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,29 +35556,29 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K489" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L489" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M489" t="n">
-        <v>10425</v>
+        <v>16571</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>149</v>
+        <v>552</v>
       </c>
       <c r="Q489" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,11 +35633,11 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>600</v>
+        <v>196</v>
       </c>
       <c r="K490" t="n">
         <v>14000</v>
@@ -35646,11 +35646,11 @@
         <v>15000</v>
       </c>
       <c r="M490" t="n">
-        <v>14583</v>
+        <v>14867</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>14583</v>
+        <v>372</v>
       </c>
       <c r="Q490" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,20 +35709,20 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="K491" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L491" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M491" t="n">
-        <v>12538</v>
+        <v>13448</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="Q491" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,29 +35772,29 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L492" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M492" t="n">
-        <v>15000</v>
+        <v>10425</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -35803,10 +35803,10 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>15000</v>
+        <v>149</v>
       </c>
       <c r="Q492" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,24 +35849,24 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L493" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M493" t="n">
-        <v>12000</v>
+        <v>14583</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>400</v>
+        <v>14583</v>
       </c>
       <c r="Q493" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,24 +35921,24 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>240</v>
+        <v>650</v>
       </c>
       <c r="K494" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M494" t="n">
-        <v>10000</v>
+        <v>12538</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,10 +35947,10 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="Q494" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35988,29 +35988,29 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K495" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L495" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M495" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -36019,10 +36019,10 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="Q495" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36060,16 +36060,16 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K496" t="n">
         <v>12000</v>
@@ -36082,7 +36082,7 @@
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -36091,10 +36091,10 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q496" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,29 +36132,29 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K497" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L497" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M497" t="n">
-        <v>12575</v>
+        <v>10000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q497" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,20 +36213,20 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K498" t="n">
         <v>14000</v>
       </c>
       <c r="L498" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M498" t="n">
-        <v>14425</v>
+        <v>14000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -36235,10 +36235,10 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>481</v>
+        <v>350</v>
       </c>
       <c r="Q498" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,20 +36285,20 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K499" t="n">
         <v>12000</v>
       </c>
       <c r="L499" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M499" t="n">
-        <v>12575</v>
+        <v>12000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="Q499" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,41 +36348,41 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>3700</v>
+        <v>400</v>
       </c>
       <c r="K500" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L500" t="n">
-        <v>320</v>
+        <v>13000</v>
       </c>
       <c r="M500" t="n">
-        <v>306</v>
+        <v>12575</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="Q500" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,32 +36429,32 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="K501" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L501" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="M501" t="n">
-        <v>258</v>
+        <v>14425</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="Q501" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36477,58 +36477,274 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E502" t="n">
+        <v>13</v>
+      </c>
+      <c r="F502" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J502" t="n">
+        <v>400</v>
+      </c>
+      <c r="K502" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L502" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M502" t="n">
+        <v>12575</v>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P502" t="n">
+        <v>314</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>40</v>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>6</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="n">
         <v>44508</v>
       </c>
-      <c r="E502" t="n">
-        <v>13</v>
-      </c>
-      <c r="F502" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H502" t="inlineStr">
+      <c r="E503" t="n">
+        <v>13</v>
+      </c>
+      <c r="F503" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I502" t="inlineStr">
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J503" t="n">
+        <v>3700</v>
+      </c>
+      <c r="K503" t="n">
+        <v>300</v>
+      </c>
+      <c r="L503" t="n">
+        <v>320</v>
+      </c>
+      <c r="M503" t="n">
+        <v>306</v>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P503" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>1</v>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>6</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E504" t="n">
+        <v>13</v>
+      </c>
+      <c r="F504" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K504" t="n">
+        <v>250</v>
+      </c>
+      <c r="L504" t="n">
+        <v>270</v>
+      </c>
+      <c r="M504" t="n">
+        <v>258</v>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P504" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>1</v>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>6</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E505" t="n">
+        <v>13</v>
+      </c>
+      <c r="F505" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J502" t="n">
+      <c r="J505" t="n">
         <v>1700</v>
       </c>
-      <c r="K502" t="n">
+      <c r="K505" t="n">
         <v>200</v>
       </c>
-      <c r="L502" t="n">
+      <c r="L505" t="n">
         <v>230</v>
       </c>
-      <c r="M502" t="n">
+      <c r="M505" t="n">
         <v>212</v>
       </c>
-      <c r="N502" t="inlineStr">
+      <c r="N505" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O502" t="inlineStr">
+      <c r="O505" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P502" t="n">
+      <c r="P505" t="n">
         <v>212</v>
       </c>
-      <c r="Q502" t="n">
+      <c r="Q505" t="n">
         <v>1</v>
       </c>
-      <c r="R502" t="inlineStr">
+      <c r="R505" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R508"/>
+  <dimension ref="A1:R511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,32 +27429,32 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>580</v>
+        <v>3800</v>
       </c>
       <c r="K376" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="L376" t="n">
-        <v>14000</v>
+        <v>260</v>
       </c>
       <c r="M376" t="n">
-        <v>12897</v>
+        <v>256</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q376" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,32 +27501,32 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K377" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="L377" t="n">
-        <v>12000</v>
+        <v>230</v>
       </c>
       <c r="M377" t="n">
-        <v>11150</v>
+        <v>218</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="Q377" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44295</v>
+        <v>44523</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,36 +27569,36 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J378" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K378" t="n">
+        <v>150</v>
+      </c>
+      <c r="L378" t="n">
         <v>170</v>
       </c>
-      <c r="K378" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L378" t="n">
-        <v>15000</v>
-      </c>
       <c r="M378" t="n">
-        <v>14412</v>
+        <v>163</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="Q378" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,29 +27636,29 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>102</v>
+        <v>580</v>
       </c>
       <c r="K379" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M379" t="n">
-        <v>11373</v>
+        <v>12897</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="Q379" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44363</v>
+        <v>44406</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
         <v>400</v>
       </c>
       <c r="K380" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L380" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M380" t="n">
-        <v>17575</v>
+        <v>11150</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>352</v>
+        <v>159</v>
       </c>
       <c r="Q380" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44363</v>
+        <v>44295</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K381" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L381" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M381" t="n">
-        <v>18619</v>
+        <v>14412</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>621</v>
+        <v>480</v>
       </c>
       <c r="Q381" t="n">
         <v>30</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K382" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L382" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M382" t="n">
-        <v>14619</v>
+        <v>11373</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>487</v>
+        <v>284</v>
       </c>
       <c r="Q382" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,29 +27924,29 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K383" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L383" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M383" t="n">
-        <v>12425</v>
+        <v>17575</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="Q383" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="K384" t="n">
         <v>18000</v>
       </c>
       <c r="L384" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M384" t="n">
-        <v>18000</v>
+        <v>18619</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="Q384" t="n">
         <v>30</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44372</v>
+        <v>44299</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,24 +28073,24 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K385" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L385" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M385" t="n">
-        <v>17000</v>
+        <v>14619</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="Q385" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44376</v>
+        <v>44299</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,29 +28140,29 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L386" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M386" t="n">
-        <v>17460</v>
+        <v>12425</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="Q386" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,29 +28212,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K387" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L387" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M387" t="n">
-        <v>15575</v>
+        <v>18000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="Q387" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,24 +28289,24 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="K388" t="n">
         <v>17000</v>
       </c>
       <c r="L388" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M388" t="n">
-        <v>17552</v>
+        <v>17000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>585</v>
+        <v>425</v>
       </c>
       <c r="Q388" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,20 +28365,20 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="K389" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L389" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M389" t="n">
-        <v>16429</v>
+        <v>17460</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>548</v>
+        <v>349</v>
       </c>
       <c r="Q389" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,17 +28440,17 @@
         <v>400</v>
       </c>
       <c r="K390" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L390" t="n">
         <v>16000</v>
       </c>
-      <c r="L390" t="n">
-        <v>17000</v>
-      </c>
       <c r="M390" t="n">
-        <v>16425</v>
+        <v>15575</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="Q390" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="K391" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L391" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M391" t="n">
-        <v>12915</v>
+        <v>17552</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>258</v>
+        <v>585</v>
       </c>
       <c r="Q391" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="K392" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L392" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M392" t="n">
-        <v>12448</v>
+        <v>16429</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>12448</v>
+        <v>548</v>
       </c>
       <c r="Q392" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K393" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L393" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M393" t="n">
-        <v>11209</v>
+        <v>16425</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="Q393" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,32 +28725,32 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>7500</v>
+        <v>590</v>
       </c>
       <c r="K394" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="L394" t="n">
-        <v>550</v>
+        <v>14000</v>
       </c>
       <c r="M394" t="n">
-        <v>517</v>
+        <v>12915</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="Q394" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28793,33 +28793,33 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>5000</v>
+        <v>580</v>
       </c>
       <c r="K395" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="L395" t="n">
-        <v>450</v>
+        <v>13000</v>
       </c>
       <c r="M395" t="n">
-        <v>420</v>
+        <v>12448</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>420</v>
+        <v>12448</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28865,36 +28865,36 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>3500</v>
+        <v>430</v>
       </c>
       <c r="K396" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="L396" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="M396" t="n">
-        <v>321</v>
+        <v>11209</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="Q396" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,32 +28941,32 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>680</v>
+        <v>7500</v>
       </c>
       <c r="K397" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="L397" t="n">
-        <v>10000</v>
+        <v>550</v>
       </c>
       <c r="M397" t="n">
-        <v>8941</v>
+        <v>517</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>224</v>
+        <v>517</v>
       </c>
       <c r="Q397" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,41 +29004,41 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K398" t="n">
         <v>400</v>
       </c>
-      <c r="K398" t="n">
-        <v>11000</v>
-      </c>
       <c r="L398" t="n">
-        <v>12000</v>
+        <v>450</v>
       </c>
       <c r="M398" t="n">
-        <v>11450</v>
+        <v>420</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>229</v>
+        <v>420</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,41 +29076,41 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J399" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K399" t="n">
         <v>300</v>
       </c>
-      <c r="K399" t="n">
-        <v>10000</v>
-      </c>
       <c r="L399" t="n">
-        <v>11000</v>
+        <v>350</v>
       </c>
       <c r="M399" t="n">
-        <v>10567</v>
+        <v>321</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="Q399" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,29 +29148,29 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K400" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L400" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M400" t="n">
-        <v>14575</v>
+        <v>8941</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>14575</v>
+        <v>224</v>
       </c>
       <c r="Q400" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29232,17 +29232,17 @@
         <v>400</v>
       </c>
       <c r="K401" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L401" t="n">
         <v>12000</v>
       </c>
-      <c r="L401" t="n">
-        <v>13000</v>
-      </c>
       <c r="M401" t="n">
-        <v>12425</v>
+        <v>11450</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="Q401" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,7 +29301,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K402" t="n">
         <v>10000</v>
@@ -29310,11 +29310,11 @@
         <v>11000</v>
       </c>
       <c r="M402" t="n">
-        <v>10425</v>
+        <v>10567</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="Q402" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,29 +29364,29 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J403" t="n">
         <v>400</v>
       </c>
       <c r="K403" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L403" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M403" t="n">
-        <v>11150</v>
+        <v>14575</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>223</v>
+        <v>14575</v>
       </c>
       <c r="Q403" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K404" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <